--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="319">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1332,7 +1332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -4144,7 +4144,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ14">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -5586,7 +5586,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -6822,7 +6822,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -7025,7 +7025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.6899999999999999</v>
@@ -9085,7 +9085,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.53</v>
@@ -11354,7 +11354,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ49">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -12793,7 +12793,7 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.6</v>
@@ -13620,7 +13620,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ60">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -15680,7 +15680,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ70">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -16089,7 +16089,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.2</v>
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR75">
         <v>1.69</v>
@@ -18561,7 +18561,7 @@
         <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19179,10 +19179,10 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR87">
         <v>1.52</v>
@@ -21445,7 +21445,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -22272,7 +22272,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ102">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR102">
         <v>1.93</v>
@@ -23920,7 +23920,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR110">
         <v>1.84</v>
@@ -25153,7 +25153,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -27422,7 +27422,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR127">
         <v>1.01</v>
@@ -27625,7 +27625,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
         <v>0.9399999999999999</v>
@@ -29688,7 +29688,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ138">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -31127,7 +31127,7 @@
         <v>1.18</v>
       </c>
       <c r="AP145">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ145">
         <v>1.53</v>
@@ -32366,7 +32366,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ151">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR151">
         <v>1.93</v>
@@ -33393,7 +33393,7 @@
         <v>0.83</v>
       </c>
       <c r="AP156">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -34014,7 +34014,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ159">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -35659,7 +35659,7 @@
         <v>0.71</v>
       </c>
       <c r="AP167">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
         <v>0.6899999999999999</v>
@@ -36074,7 +36074,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ169">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR169">
         <v>1.99</v>
@@ -37307,7 +37307,7 @@
         <v>1.54</v>
       </c>
       <c r="AP175">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
         <v>1.6</v>
@@ -37928,7 +37928,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AR178">
         <v>1.69</v>
@@ -39573,7 +39573,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>1.25</v>
@@ -41094,6 +41094,212 @@
       </c>
       <c r="BP193">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7784976</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45766.54166666666</v>
+      </c>
+      <c r="F194">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>83</v>
+      </c>
+      <c r="P194" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q194">
+        <v>2.5</v>
+      </c>
+      <c r="R194">
+        <v>2.3</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>3.25</v>
+      </c>
+      <c r="V194">
+        <v>2.63</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>6.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.11</v>
+      </c>
+      <c r="Z194">
+        <v>1.7</v>
+      </c>
+      <c r="AA194">
+        <v>3.9</v>
+      </c>
+      <c r="AB194">
+        <v>4.4</v>
+      </c>
+      <c r="AC194">
+        <v>1.04</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.22</v>
+      </c>
+      <c r="AF194">
+        <v>4.2</v>
+      </c>
+      <c r="AG194">
+        <v>1.67</v>
+      </c>
+      <c r="AH194">
+        <v>2.1</v>
+      </c>
+      <c r="AI194">
+        <v>1.67</v>
+      </c>
+      <c r="AJ194">
+        <v>2.1</v>
+      </c>
+      <c r="AK194">
+        <v>1.25</v>
+      </c>
+      <c r="AL194">
+        <v>1.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.93</v>
+      </c>
+      <c r="AN194">
+        <v>1.06</v>
+      </c>
+      <c r="AO194">
+        <v>0.44</v>
+      </c>
+      <c r="AP194">
+        <v>1</v>
+      </c>
+      <c r="AQ194">
+        <v>0.59</v>
+      </c>
+      <c r="AR194">
+        <v>1.45</v>
+      </c>
+      <c r="AS194">
+        <v>1.21</v>
+      </c>
+      <c r="AT194">
+        <v>2.66</v>
+      </c>
+      <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>10</v>
+      </c>
+      <c r="AX194">
+        <v>12</v>
+      </c>
+      <c r="AY194">
+        <v>14</v>
+      </c>
+      <c r="AZ194">
+        <v>19</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>9</v>
+      </c>
+      <c r="BD194">
+        <v>1.44</v>
+      </c>
+      <c r="BE194">
+        <v>7</v>
+      </c>
+      <c r="BF194">
+        <v>3.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.29</v>
+      </c>
+      <c r="BH194">
+        <v>3.15</v>
+      </c>
+      <c r="BI194">
+        <v>1.5</v>
+      </c>
+      <c r="BJ194">
+        <v>2.33</v>
+      </c>
+      <c r="BK194">
+        <v>1.82</v>
+      </c>
+      <c r="BL194">
+        <v>1.84</v>
+      </c>
+      <c r="BM194">
+        <v>2.28</v>
+      </c>
+      <c r="BN194">
+        <v>1.53</v>
+      </c>
+      <c r="BO194">
+        <v>2.9</v>
+      </c>
+      <c r="BP194">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,18 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['4', '55']</t>
+  </si>
+  <si>
+    <t>['16', '27', '30', '37', '56']</t>
+  </si>
+  <si>
+    <t>['27', '38']</t>
+  </si>
+  <si>
+    <t>['12', '44']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1332,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1603,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1797,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1878,7 +1890,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2209,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2287,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ5">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2415,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2493,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2621,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2827,7 +2839,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2905,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3239,7 +3251,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3320,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3445,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3523,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3651,7 +3663,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3729,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3935,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4063,7 +4075,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4269,7 +4281,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4762,7 +4774,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ17">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4887,7 +4899,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4965,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5093,7 +5105,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5171,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ19">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5380,7 +5392,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5711,7 +5723,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5995,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6123,7 +6135,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6204,7 +6216,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -6535,7 +6547,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6613,7 +6625,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ26">
         <v>1.63</v>
@@ -6947,7 +6959,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7028,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7231,10 +7243,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7359,7 +7371,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7849,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8264,7 +8276,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR34">
         <v>2.41</v>
@@ -8595,7 +8607,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8673,10 +8685,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8801,7 +8813,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8879,10 +8891,10 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>1.76</v>
@@ -9007,7 +9019,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9213,7 +9225,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9291,10 +9303,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9419,7 +9431,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9497,10 +9509,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9706,7 +9718,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9831,7 +9843,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10037,7 +10049,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10115,10 +10127,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10527,7 +10539,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ45">
         <v>0.9399999999999999</v>
@@ -10655,7 +10667,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10733,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10942,7 +10954,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ47">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -11479,7 +11491,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.09</v>
@@ -11560,7 +11572,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>1.38</v>
@@ -11685,7 +11697,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>2.64</v>
@@ -12178,7 +12190,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12381,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12509,7 +12521,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12587,7 +12599,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ55">
         <v>1.53</v>
@@ -12715,7 +12727,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12796,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12999,10 +13011,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13205,10 +13217,10 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ58">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13333,7 +13345,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13411,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13617,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>0.59</v>
@@ -13826,7 +13838,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.01</v>
@@ -14029,7 +14041,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14157,7 +14169,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14363,7 +14375,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14444,7 +14456,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14569,7 +14581,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14981,7 +14993,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15187,7 +15199,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15393,7 +15405,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15474,7 +15486,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15599,7 +15611,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15677,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>0.59</v>
@@ -15805,7 +15817,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15883,7 +15895,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -16092,7 +16104,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -16217,7 +16229,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16295,10 +16307,10 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16707,7 +16719,7 @@
         <v>0.17</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ75">
         <v>0.59</v>
@@ -16835,7 +16847,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16913,10 +16925,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ76">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17119,7 +17131,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
         <v>1.53</v>
@@ -17328,7 +17340,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR78">
         <v>1.74</v>
@@ -17865,7 +17877,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18071,7 +18083,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18149,10 +18161,10 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ82">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18277,7 +18289,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18358,7 +18370,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18483,7 +18495,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18767,10 +18779,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18895,7 +18907,7 @@
         <v>152</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -19101,7 +19113,7 @@
         <v>120</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>2.1</v>
@@ -19385,10 +19397,10 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19594,7 +19606,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -19797,10 +19809,10 @@
         <v>0.71</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.67</v>
@@ -20003,7 +20015,7 @@
         <v>1.57</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ91">
         <v>1.53</v>
@@ -20209,7 +20221,7 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ92">
         <v>0.9399999999999999</v>
@@ -20418,7 +20430,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR93">
         <v>0.95</v>
@@ -20543,7 +20555,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20749,7 +20761,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20830,7 +20842,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -21033,10 +21045,10 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21161,7 +21173,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21239,7 +21251,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21367,7 +21379,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21448,7 +21460,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.52</v>
@@ -21779,7 +21791,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21860,7 +21872,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ100">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -22063,10 +22075,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22191,7 +22203,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22269,7 +22281,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ102">
         <v>0.59</v>
@@ -22397,7 +22409,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22475,7 +22487,7 @@
         <v>1.63</v>
       </c>
       <c r="AP103">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>1.63</v>
@@ -22603,7 +22615,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22684,7 +22696,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -22809,7 +22821,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -22890,7 +22902,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ105">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR105">
         <v>0.93</v>
@@ -23093,7 +23105,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23221,7 +23233,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23299,7 +23311,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ107">
         <v>1.53</v>
@@ -23427,7 +23439,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23633,7 +23645,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23917,7 +23929,7 @@
         <v>0.33</v>
       </c>
       <c r="AP110">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ110">
         <v>0.59</v>
@@ -24045,7 +24057,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24329,7 +24341,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24538,7 +24550,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24663,7 +24675,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>2.88</v>
@@ -24947,10 +24959,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.76</v>
@@ -25487,7 +25499,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25568,7 +25580,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25693,7 +25705,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25771,7 +25783,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ119">
         <v>0.9399999999999999</v>
@@ -25899,7 +25911,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25977,10 +25989,10 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ120">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26186,7 +26198,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26311,7 +26323,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26389,7 +26401,7 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26517,7 +26529,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26598,7 +26610,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ123">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -26801,7 +26813,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -27135,7 +27147,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>3.75</v>
@@ -27547,7 +27559,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27753,7 +27765,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27959,7 +27971,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28037,10 +28049,10 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28165,7 +28177,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28243,10 +28255,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ131">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR131">
         <v>1.95</v>
@@ -28449,10 +28461,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ132">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR132">
         <v>1.81</v>
@@ -28577,7 +28589,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28658,7 +28670,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ133">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28783,7 +28795,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -28861,10 +28873,10 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR134">
         <v>1.83</v>
@@ -28989,7 +29001,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29195,7 +29207,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29273,10 +29285,10 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
         <v>2.08</v>
@@ -29401,7 +29413,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29479,7 +29491,7 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ137">
         <v>1.63</v>
@@ -29607,7 +29619,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29813,7 +29825,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30100,7 +30112,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR140">
         <v>1.98</v>
@@ -30306,7 +30318,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ141">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.74</v>
@@ -30921,7 +30933,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31049,7 +31061,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31255,7 +31267,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31333,7 +31345,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -31542,7 +31554,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ147">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31667,7 +31679,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31745,7 +31757,7 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ148">
         <v>1.63</v>
@@ -31954,7 +31966,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ149">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR149">
         <v>1.79</v>
@@ -32157,10 +32169,10 @@
         <v>1.36</v>
       </c>
       <c r="AP150">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ150">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR150">
         <v>2.1</v>
@@ -32285,7 +32297,7 @@
         <v>196</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>1.71</v>
@@ -32363,7 +32375,7 @@
         <v>0.33</v>
       </c>
       <c r="AP151">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ151">
         <v>0.59</v>
@@ -32569,10 +32581,10 @@
         <v>0.77</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ152">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR152">
         <v>1.84</v>
@@ -32981,7 +32993,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
         <v>1.53</v>
@@ -33109,7 +33121,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33190,7 +33202,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>2</v>
@@ -33521,7 +33533,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33602,7 +33614,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ157">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR157">
         <v>1.15</v>
@@ -33805,7 +33817,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -33933,7 +33945,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34217,7 +34229,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34345,7 +34357,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34551,7 +34563,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>3.25</v>
@@ -34632,7 +34644,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ162">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR162">
         <v>1.69</v>
@@ -34757,7 +34769,7 @@
         <v>120</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>3.35</v>
@@ -34963,7 +34975,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35041,10 +35053,10 @@
         <v>0.54</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR164">
         <v>1.99</v>
@@ -35169,7 +35181,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35247,7 +35259,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -35375,7 +35387,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35456,7 +35468,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35662,7 +35674,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR167">
         <v>1.48</v>
@@ -35787,7 +35799,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35865,7 +35877,7 @@
         <v>0.77</v>
       </c>
       <c r="AP168">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -35993,7 +36005,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36280,7 +36292,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ170">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR170">
         <v>1.68</v>
@@ -36483,7 +36495,7 @@
         <v>1.07</v>
       </c>
       <c r="AP171">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ171">
         <v>1</v>
@@ -36611,7 +36623,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36817,7 +36829,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37023,7 +37035,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37101,10 +37113,10 @@
         <v>1.21</v>
       </c>
       <c r="AP174">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ174">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
         <v>1.86</v>
@@ -37229,7 +37241,7 @@
         <v>101</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37310,7 +37322,7 @@
         <v>1</v>
       </c>
       <c r="AQ175">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR175">
         <v>1.47</v>
@@ -37435,7 +37447,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37513,7 +37525,7 @@
         <v>0.93</v>
       </c>
       <c r="AP176">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ176">
         <v>1</v>
@@ -37641,7 +37653,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37722,7 +37734,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ177">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR177">
         <v>1.29</v>
@@ -37847,7 +37859,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38053,7 +38065,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38337,7 +38349,7 @@
         <v>0.93</v>
       </c>
       <c r="AP180">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38749,10 +38761,10 @@
         <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR182">
         <v>1.82</v>
@@ -38958,7 +38970,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ183">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39161,10 +39173,10 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ184">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR184">
         <v>2.01</v>
@@ -39367,7 +39379,7 @@
         <v>1.67</v>
       </c>
       <c r="AP185">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ185">
         <v>1.53</v>
@@ -39576,7 +39588,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR186">
         <v>1.44</v>
@@ -39779,10 +39791,10 @@
         <v>1.29</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR187">
         <v>1.88</v>
@@ -40113,7 +40125,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40319,7 +40331,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40525,7 +40537,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40937,7 +40949,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41300,6 +41312,1036 @@
       </c>
       <c r="BP194">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7784978</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F195">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>222</v>
+      </c>
+      <c r="P195" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q195">
+        <v>2.38</v>
+      </c>
+      <c r="R195">
+        <v>2.38</v>
+      </c>
+      <c r="S195">
+        <v>4.33</v>
+      </c>
+      <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.38</v>
+      </c>
+      <c r="W195">
+        <v>1.53</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>1.8</v>
+      </c>
+      <c r="AA195">
+        <v>3.85</v>
+      </c>
+      <c r="AB195">
+        <v>3.92</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.2</v>
+      </c>
+      <c r="AF195">
+        <v>4.33</v>
+      </c>
+      <c r="AG195">
+        <v>1.57</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
+        <v>1.57</v>
+      </c>
+      <c r="AJ195">
+        <v>2.25</v>
+      </c>
+      <c r="AK195">
+        <v>1.22</v>
+      </c>
+      <c r="AL195">
+        <v>1.2</v>
+      </c>
+      <c r="AM195">
+        <v>1.93</v>
+      </c>
+      <c r="AN195">
+        <v>1.73</v>
+      </c>
+      <c r="AO195">
+        <v>1.25</v>
+      </c>
+      <c r="AP195">
+        <v>1.81</v>
+      </c>
+      <c r="AQ195">
+        <v>1.18</v>
+      </c>
+      <c r="AR195">
+        <v>1.94</v>
+      </c>
+      <c r="AS195">
+        <v>1.64</v>
+      </c>
+      <c r="AT195">
+        <v>3.58</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>5</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
+        <v>10</v>
+      </c>
+      <c r="AY195">
+        <v>13</v>
+      </c>
+      <c r="AZ195">
+        <v>19</v>
+      </c>
+      <c r="BA195">
+        <v>5</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>11</v>
+      </c>
+      <c r="BD195">
+        <v>1.4</v>
+      </c>
+      <c r="BE195">
+        <v>9.5</v>
+      </c>
+      <c r="BF195">
+        <v>3.2</v>
+      </c>
+      <c r="BG195">
+        <v>1.15</v>
+      </c>
+      <c r="BH195">
+        <v>4.3</v>
+      </c>
+      <c r="BI195">
+        <v>1.31</v>
+      </c>
+      <c r="BJ195">
+        <v>2.92</v>
+      </c>
+      <c r="BK195">
+        <v>1.57</v>
+      </c>
+      <c r="BL195">
+        <v>2.19</v>
+      </c>
+      <c r="BM195">
+        <v>1.95</v>
+      </c>
+      <c r="BN195">
+        <v>1.77</v>
+      </c>
+      <c r="BO195">
+        <v>2.54</v>
+      </c>
+      <c r="BP195">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7784979</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F196">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H196" t="s">
+        <v>77</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>199</v>
+      </c>
+      <c r="P196" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.25</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>6.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.11</v>
+      </c>
+      <c r="Z196">
+        <v>1.87</v>
+      </c>
+      <c r="AA196">
+        <v>3.64</v>
+      </c>
+      <c r="AB196">
+        <v>3.84</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.22</v>
+      </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2</v>
+      </c>
+      <c r="AI196">
+        <v>1.62</v>
+      </c>
+      <c r="AJ196">
+        <v>2.2</v>
+      </c>
+      <c r="AK196">
+        <v>1.25</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>1.85</v>
+      </c>
+      <c r="AN196">
+        <v>1.8</v>
+      </c>
+      <c r="AO196">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP196">
+        <v>1.88</v>
+      </c>
+      <c r="AQ196">
+        <v>0.65</v>
+      </c>
+      <c r="AR196">
+        <v>1.93</v>
+      </c>
+      <c r="AS196">
+        <v>1.45</v>
+      </c>
+      <c r="AT196">
+        <v>3.38</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>9</v>
+      </c>
+      <c r="AX196">
+        <v>14</v>
+      </c>
+      <c r="AY196">
+        <v>16</v>
+      </c>
+      <c r="AZ196">
+        <v>22</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>5</v>
+      </c>
+      <c r="BC196">
+        <v>13</v>
+      </c>
+      <c r="BD196">
+        <v>1.4</v>
+      </c>
+      <c r="BE196">
+        <v>9.5</v>
+      </c>
+      <c r="BF196">
+        <v>3.2</v>
+      </c>
+      <c r="BG196">
+        <v>1.14</v>
+      </c>
+      <c r="BH196">
+        <v>4.33</v>
+      </c>
+      <c r="BI196">
+        <v>1.31</v>
+      </c>
+      <c r="BJ196">
+        <v>2.92</v>
+      </c>
+      <c r="BK196">
+        <v>1.73</v>
+      </c>
+      <c r="BL196">
+        <v>2</v>
+      </c>
+      <c r="BM196">
+        <v>1.96</v>
+      </c>
+      <c r="BN196">
+        <v>1.75</v>
+      </c>
+      <c r="BO196">
+        <v>2.51</v>
+      </c>
+      <c r="BP196">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7784975</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F197">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>79</v>
+      </c>
+      <c r="H197" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>4</v>
+      </c>
+      <c r="L197">
+        <v>5</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>5</v>
+      </c>
+      <c r="O197" t="s">
+        <v>223</v>
+      </c>
+      <c r="P197" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q197">
+        <v>1.91</v>
+      </c>
+      <c r="R197">
+        <v>2.63</v>
+      </c>
+      <c r="S197">
+        <v>5.5</v>
+      </c>
+      <c r="T197">
+        <v>1.25</v>
+      </c>
+      <c r="U197">
+        <v>3.75</v>
+      </c>
+      <c r="V197">
+        <v>2.2</v>
+      </c>
+      <c r="W197">
+        <v>1.62</v>
+      </c>
+      <c r="X197">
+        <v>5</v>
+      </c>
+      <c r="Y197">
+        <v>1.17</v>
+      </c>
+      <c r="Z197">
+        <v>1.43</v>
+      </c>
+      <c r="AA197">
+        <v>4.9</v>
+      </c>
+      <c r="AB197">
+        <v>6</v>
+      </c>
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>17</v>
+      </c>
+      <c r="AE197">
+        <v>1.12</v>
+      </c>
+      <c r="AF197">
+        <v>5.75</v>
+      </c>
+      <c r="AG197">
+        <v>1.46</v>
+      </c>
+      <c r="AH197">
+        <v>2.6</v>
+      </c>
+      <c r="AI197">
+        <v>1.62</v>
+      </c>
+      <c r="AJ197">
+        <v>2.2</v>
+      </c>
+      <c r="AK197">
+        <v>1.12</v>
+      </c>
+      <c r="AL197">
+        <v>1.13</v>
+      </c>
+      <c r="AM197">
+        <v>2.65</v>
+      </c>
+      <c r="AN197">
+        <v>2</v>
+      </c>
+      <c r="AO197">
+        <v>0.75</v>
+      </c>
+      <c r="AP197">
+        <v>2.06</v>
+      </c>
+      <c r="AQ197">
+        <v>0.71</v>
+      </c>
+      <c r="AR197">
+        <v>1.86</v>
+      </c>
+      <c r="AS197">
+        <v>1.27</v>
+      </c>
+      <c r="AT197">
+        <v>3.13</v>
+      </c>
+      <c r="AU197">
+        <v>11</v>
+      </c>
+      <c r="AV197">
+        <v>2</v>
+      </c>
+      <c r="AW197">
+        <v>8</v>
+      </c>
+      <c r="AX197">
+        <v>10</v>
+      </c>
+      <c r="AY197">
+        <v>21</v>
+      </c>
+      <c r="AZ197">
+        <v>13</v>
+      </c>
+      <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>5</v>
+      </c>
+      <c r="BD197">
+        <v>1.22</v>
+      </c>
+      <c r="BE197">
+        <v>12</v>
+      </c>
+      <c r="BF197">
+        <v>4.33</v>
+      </c>
+      <c r="BG197">
+        <v>1.14</v>
+      </c>
+      <c r="BH197">
+        <v>4.4</v>
+      </c>
+      <c r="BI197">
+        <v>1.3</v>
+      </c>
+      <c r="BJ197">
+        <v>2.97</v>
+      </c>
+      <c r="BK197">
+        <v>1.55</v>
+      </c>
+      <c r="BL197">
+        <v>2.23</v>
+      </c>
+      <c r="BM197">
+        <v>2.05</v>
+      </c>
+      <c r="BN197">
+        <v>1.7</v>
+      </c>
+      <c r="BO197">
+        <v>2.48</v>
+      </c>
+      <c r="BP197">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7784977</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F198">
+        <v>33</v>
+      </c>
+      <c r="G198" t="s">
+        <v>74</v>
+      </c>
+      <c r="H198" t="s">
+        <v>70</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>224</v>
+      </c>
+      <c r="P198" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q198">
+        <v>3.1</v>
+      </c>
+      <c r="R198">
+        <v>2.2</v>
+      </c>
+      <c r="S198">
+        <v>3.4</v>
+      </c>
+      <c r="T198">
+        <v>1.4</v>
+      </c>
+      <c r="U198">
+        <v>2.75</v>
+      </c>
+      <c r="V198">
+        <v>2.75</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>8</v>
+      </c>
+      <c r="Y198">
+        <v>1.08</v>
+      </c>
+      <c r="Z198">
+        <v>2.47</v>
+      </c>
+      <c r="AA198">
+        <v>3.21</v>
+      </c>
+      <c r="AB198">
+        <v>2.83</v>
+      </c>
+      <c r="AC198">
+        <v>1.05</v>
+      </c>
+      <c r="AD198">
+        <v>9</v>
+      </c>
+      <c r="AE198">
+        <v>1.3</v>
+      </c>
+      <c r="AF198">
+        <v>3.45</v>
+      </c>
+      <c r="AG198">
+        <v>1.89</v>
+      </c>
+      <c r="AH198">
+        <v>1.85</v>
+      </c>
+      <c r="AI198">
+        <v>1.67</v>
+      </c>
+      <c r="AJ198">
+        <v>2.1</v>
+      </c>
+      <c r="AK198">
+        <v>1.38</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>1.57</v>
+      </c>
+      <c r="AN198">
+        <v>1.81</v>
+      </c>
+      <c r="AO198">
+        <v>1.2</v>
+      </c>
+      <c r="AP198">
+        <v>1.88</v>
+      </c>
+      <c r="AQ198">
+        <v>1.13</v>
+      </c>
+      <c r="AR198">
+        <v>1.84</v>
+      </c>
+      <c r="AS198">
+        <v>1.55</v>
+      </c>
+      <c r="AT198">
+        <v>3.39</v>
+      </c>
+      <c r="AU198">
+        <v>8</v>
+      </c>
+      <c r="AV198">
+        <v>7</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>9</v>
+      </c>
+      <c r="AY198">
+        <v>14</v>
+      </c>
+      <c r="AZ198">
+        <v>21</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>7</v>
+      </c>
+      <c r="BC198">
+        <v>12</v>
+      </c>
+      <c r="BD198">
+        <v>1.62</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.6</v>
+      </c>
+      <c r="BG198">
+        <v>1.21</v>
+      </c>
+      <c r="BH198">
+        <v>3.58</v>
+      </c>
+      <c r="BI198">
+        <v>1.41</v>
+      </c>
+      <c r="BJ198">
+        <v>2.52</v>
+      </c>
+      <c r="BK198">
+        <v>1.77</v>
+      </c>
+      <c r="BL198">
+        <v>1.95</v>
+      </c>
+      <c r="BM198">
+        <v>2.23</v>
+      </c>
+      <c r="BN198">
+        <v>1.58</v>
+      </c>
+      <c r="BO198">
+        <v>2.93</v>
+      </c>
+      <c r="BP198">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7784980</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F199">
+        <v>33</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>81</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>225</v>
+      </c>
+      <c r="P199" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q199">
+        <v>2.38</v>
+      </c>
+      <c r="R199">
+        <v>2.38</v>
+      </c>
+      <c r="S199">
+        <v>4.33</v>
+      </c>
+      <c r="T199">
+        <v>1.3</v>
+      </c>
+      <c r="U199">
+        <v>3.4</v>
+      </c>
+      <c r="V199">
+        <v>2.5</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>6</v>
+      </c>
+      <c r="Y199">
+        <v>1.13</v>
+      </c>
+      <c r="Z199">
+        <v>1.78</v>
+      </c>
+      <c r="AA199">
+        <v>3.85</v>
+      </c>
+      <c r="AB199">
+        <v>4</v>
+      </c>
+      <c r="AC199">
+        <v>1.04</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.2</v>
+      </c>
+      <c r="AF199">
+        <v>4.5</v>
+      </c>
+      <c r="AG199">
+        <v>1.57</v>
+      </c>
+      <c r="AH199">
+        <v>2.15</v>
+      </c>
+      <c r="AI199">
+        <v>1.62</v>
+      </c>
+      <c r="AJ199">
+        <v>2.2</v>
+      </c>
+      <c r="AK199">
+        <v>1.22</v>
+      </c>
+      <c r="AL199">
+        <v>1.2</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>2.13</v>
+      </c>
+      <c r="AO199">
+        <v>1.6</v>
+      </c>
+      <c r="AP199">
+        <v>2.18</v>
+      </c>
+      <c r="AQ199">
+        <v>1.5</v>
+      </c>
+      <c r="AR199">
+        <v>2.05</v>
+      </c>
+      <c r="AS199">
+        <v>1.64</v>
+      </c>
+      <c r="AT199">
+        <v>3.69</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>17</v>
+      </c>
+      <c r="AX199">
+        <v>10</v>
+      </c>
+      <c r="AY199">
+        <v>28</v>
+      </c>
+      <c r="AZ199">
+        <v>23</v>
+      </c>
+      <c r="BA199">
+        <v>7</v>
+      </c>
+      <c r="BB199">
+        <v>11</v>
+      </c>
+      <c r="BC199">
+        <v>18</v>
+      </c>
+      <c r="BD199">
+        <v>1.44</v>
+      </c>
+      <c r="BE199">
+        <v>9.5</v>
+      </c>
+      <c r="BF199">
+        <v>3.1</v>
+      </c>
+      <c r="BG199">
+        <v>1.18</v>
+      </c>
+      <c r="BH199">
+        <v>3.92</v>
+      </c>
+      <c r="BI199">
+        <v>1.37</v>
+      </c>
+      <c r="BJ199">
+        <v>2.75</v>
+      </c>
+      <c r="BK199">
+        <v>1.67</v>
+      </c>
+      <c r="BL199">
+        <v>2.07</v>
+      </c>
+      <c r="BM199">
+        <v>2.05</v>
+      </c>
+      <c r="BN199">
+        <v>1.7</v>
+      </c>
+      <c r="BO199">
+        <v>2.7</v>
+      </c>
+      <c r="BP199">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -41457,19 +41457,19 @@
         <v>5</v>
       </c>
       <c r="AV195">
+        <v>6</v>
+      </c>
+      <c r="AW195">
         <v>5</v>
       </c>
-      <c r="AW195">
-        <v>7</v>
-      </c>
       <c r="AX195">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY195">
+        <v>11</v>
+      </c>
+      <c r="AZ195">
         <v>13</v>
-      </c>
-      <c r="AZ195">
-        <v>19</v>
       </c>
       <c r="BA195">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,13 +682,16 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['4', '55']</t>
+  </si>
+  <si>
     <t>['16', '27', '30', '37', '56']</t>
   </si>
   <si>
     <t>['27', '38']</t>
   </si>
   <si>
-    <t>['4', '55']</t>
+    <t>['12', '44']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1603,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1806,7 +1809,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1887,7 +1890,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2218,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ5">
         <v>0.65</v>
@@ -2424,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2630,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2836,7 +2839,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3248,7 +3251,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3454,7 +3457,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3660,7 +3663,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -4072,7 +4075,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4278,7 +4281,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4896,7 +4899,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5102,7 +5105,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5180,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ19">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5720,7 +5723,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6132,7 +6135,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6338,7 +6341,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6956,7 +6959,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7368,7 +7371,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7858,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8604,7 +8607,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8810,7 +8813,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9016,7 +9019,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9222,7 +9225,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9303,7 +9306,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9428,7 +9431,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9840,7 +9843,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10046,7 +10049,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10127,7 +10130,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10664,7 +10667,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10742,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11488,7 +11491,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11694,7 +11697,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12518,7 +12521,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12724,7 +12727,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12805,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -13008,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ57">
         <v>1.18</v>
@@ -13754,7 +13757,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14166,7 +14169,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14372,7 +14375,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14578,7 +14581,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14990,7 +14993,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15196,7 +15199,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15402,7 +15405,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15480,7 +15483,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ69">
         <v>1.63</v>
@@ -15608,7 +15611,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15689,7 +15692,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.54</v>
@@ -15814,7 +15817,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16020,7 +16023,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16844,7 +16847,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17874,7 +17877,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18080,7 +18083,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18161,7 +18164,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ82">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18286,7 +18289,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18492,7 +18495,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18776,7 +18779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ85">
         <v>1.13</v>
@@ -18904,7 +18907,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19110,7 +19113,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19603,7 +19606,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -20552,7 +20555,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20758,7 +20761,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21170,7 +21173,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21248,7 +21251,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21582,7 +21585,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21788,7 +21791,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22075,7 +22078,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22200,7 +22203,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22406,7 +22409,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22612,7 +22615,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22818,7 +22821,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23230,7 +23233,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23308,7 +23311,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ107">
         <v>1.53</v>
@@ -23436,7 +23439,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23642,7 +23645,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23848,7 +23851,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24132,7 +24135,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ111">
         <v>0.59</v>
@@ -24878,7 +24881,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25496,7 +25499,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25702,7 +25705,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25908,7 +25911,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26195,7 +26198,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ121">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26320,7 +26323,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26526,7 +26529,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27350,7 +27353,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27556,7 +27559,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27762,7 +27765,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27968,7 +27971,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28174,7 +28177,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28252,7 +28255,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ131">
         <v>0.71</v>
@@ -28586,7 +28589,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28667,7 +28670,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ133">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28792,7 +28795,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -28998,7 +29001,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29204,7 +29207,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29282,7 +29285,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ136">
         <v>0.65</v>
@@ -29410,7 +29413,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29616,7 +29619,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29822,7 +29825,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30109,7 +30112,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -31058,7 +31061,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31264,7 +31267,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31676,7 +31679,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32088,7 +32091,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32372,7 +32375,7 @@
         <v>1.36</v>
       </c>
       <c r="AP151">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ151">
         <v>1.13</v>
@@ -33118,7 +33121,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33199,7 +33202,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>2</v>
@@ -33530,7 +33533,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33814,7 +33817,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -33942,7 +33945,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34354,7 +34357,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34560,7 +34563,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34766,7 +34769,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34972,7 +34975,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35178,7 +35181,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35384,7 +35387,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35796,7 +35799,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36002,7 +36005,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36286,7 +36289,7 @@
         <v>1.07</v>
       </c>
       <c r="AP170">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36620,7 +36623,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36826,7 +36829,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37032,7 +37035,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37113,7 +37116,7 @@
         <v>1</v>
       </c>
       <c r="AQ174">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37238,7 +37241,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37444,7 +37447,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37650,7 +37653,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37856,7 +37859,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38062,7 +38065,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38638,7 +38641,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7784963</v>
+        <v>7784964</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38653,10 +38656,10 @@
         <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H182" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -38668,175 +38671,175 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="P182" t="s">
         <v>83</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R182">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S182">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T182">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U182">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V182">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC182">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AD182">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE182">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF182">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AG182">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH182">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI182">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AJ182">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AK182">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AL182">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM182">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AN182">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
       <c r="AO182">
-        <v>0.73</v>
+        <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="AQ182">
-        <v>0.65</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
-        <v>1.82</v>
+        <v>1.28</v>
       </c>
       <c r="AS182">
+        <v>1.64</v>
+      </c>
+      <c r="AT182">
+        <v>2.92</v>
+      </c>
+      <c r="AU182">
+        <v>2</v>
+      </c>
+      <c r="AV182">
+        <v>2</v>
+      </c>
+      <c r="AW182">
+        <v>8</v>
+      </c>
+      <c r="AX182">
+        <v>15</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
+        <v>22</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>5</v>
+      </c>
+      <c r="BC182">
+        <v>12</v>
+      </c>
+      <c r="BD182">
+        <v>3.22</v>
+      </c>
+      <c r="BE182">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF182">
         <v>1.48</v>
       </c>
-      <c r="AT182">
-        <v>3.3</v>
-      </c>
-      <c r="AU182">
-        <v>5</v>
-      </c>
-      <c r="AV182">
-        <v>4</v>
-      </c>
-      <c r="AW182">
-        <v>16</v>
-      </c>
-      <c r="AX182">
-        <v>3</v>
-      </c>
-      <c r="AY182">
-        <v>25</v>
-      </c>
-      <c r="AZ182">
-        <v>7</v>
-      </c>
-      <c r="BA182">
-        <v>15</v>
-      </c>
-      <c r="BB182">
-        <v>2</v>
-      </c>
-      <c r="BC182">
-        <v>17</v>
-      </c>
-      <c r="BD182">
-        <v>0</v>
-      </c>
-      <c r="BE182">
-        <v>0</v>
-      </c>
-      <c r="BF182">
-        <v>0</v>
-      </c>
       <c r="BG182">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BH182">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="BI182">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BJ182">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="BK182">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BL182">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BM182">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BN182">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BO182">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="BP182">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -38844,7 +38847,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7784964</v>
+        <v>7784963</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38859,10 +38862,10 @@
         <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -38874,175 +38877,175 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M183">
         <v>0</v>
       </c>
       <c r="N183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="P183" t="s">
         <v>83</v>
       </c>
       <c r="Q183">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S183">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T183">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U183">
+        <v>0</v>
+      </c>
+      <c r="V183">
+        <v>0</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
+      <c r="AC183">
+        <v>0</v>
+      </c>
+      <c r="AD183">
+        <v>0</v>
+      </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>1.73</v>
+      </c>
+      <c r="AO183">
+        <v>0.73</v>
+      </c>
+      <c r="AP183">
+        <v>1.88</v>
+      </c>
+      <c r="AQ183">
+        <v>0.65</v>
+      </c>
+      <c r="AR183">
+        <v>1.82</v>
+      </c>
+      <c r="AS183">
+        <v>1.48</v>
+      </c>
+      <c r="AT183">
+        <v>3.3</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>16</v>
+      </c>
+      <c r="AX183">
         <v>3</v>
       </c>
-      <c r="V183">
-        <v>2.63</v>
-      </c>
-      <c r="W183">
-        <v>1.44</v>
-      </c>
-      <c r="X183">
+      <c r="AY183">
+        <v>25</v>
+      </c>
+      <c r="AZ183">
         <v>7</v>
       </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>3.75</v>
-      </c>
-      <c r="AA183">
-        <v>3.6</v>
-      </c>
-      <c r="AB183">
-        <v>1.9</v>
-      </c>
-      <c r="AC183">
-        <v>3.98</v>
-      </c>
-      <c r="AD183">
-        <v>1.24</v>
-      </c>
-      <c r="AE183">
-        <v>1.19</v>
-      </c>
-      <c r="AF183">
-        <v>4.85</v>
-      </c>
-      <c r="AG183">
-        <v>1.77</v>
-      </c>
-      <c r="AH183">
-        <v>1.98</v>
-      </c>
-      <c r="AI183">
-        <v>1.67</v>
-      </c>
-      <c r="AJ183">
-        <v>2.1</v>
-      </c>
-      <c r="AK183">
-        <v>2.02</v>
-      </c>
-      <c r="AL183">
-        <v>1.25</v>
-      </c>
-      <c r="AM183">
-        <v>1.24</v>
-      </c>
-      <c r="AN183">
-        <v>1.14</v>
-      </c>
-      <c r="AO183">
-        <v>1.64</v>
-      </c>
-      <c r="AP183">
-        <v>1.25</v>
-      </c>
-      <c r="AQ183">
-        <v>1.6</v>
-      </c>
-      <c r="AR183">
-        <v>1.28</v>
-      </c>
-      <c r="AS183">
-        <v>1.64</v>
-      </c>
-      <c r="AT183">
-        <v>2.92</v>
-      </c>
-      <c r="AU183">
-        <v>2</v>
-      </c>
-      <c r="AV183">
-        <v>2</v>
-      </c>
-      <c r="AW183">
-        <v>8</v>
-      </c>
-      <c r="AX183">
+      <c r="BA183">
         <v>15</v>
       </c>
-      <c r="AY183">
-        <v>12</v>
-      </c>
-      <c r="AZ183">
-        <v>22</v>
-      </c>
-      <c r="BA183">
-        <v>7</v>
-      </c>
       <c r="BB183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC183">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD183">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BE183">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF183">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BG183">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH183">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="BI183">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="BJ183">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="BK183">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BL183">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BM183">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="BN183">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="BO183">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="BP183">
-        <v>1.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39170,7 +39173,7 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AQ184">
         <v>0.71</v>
@@ -40122,7 +40125,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40328,7 +40331,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40534,7 +40537,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40946,7 +40949,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41316,7 +41319,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7784975</v>
+        <v>7784978</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41331,190 +41334,190 @@
         <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O195" t="s">
         <v>222</v>
       </c>
       <c r="P195" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Q195">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="R195">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S195">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T195">
+        <v>1.3</v>
+      </c>
+      <c r="U195">
+        <v>3.4</v>
+      </c>
+      <c r="V195">
+        <v>2.38</v>
+      </c>
+      <c r="W195">
+        <v>1.53</v>
+      </c>
+      <c r="X195">
+        <v>6</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>1.8</v>
+      </c>
+      <c r="AA195">
+        <v>3.85</v>
+      </c>
+      <c r="AB195">
+        <v>3.92</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.2</v>
+      </c>
+      <c r="AF195">
+        <v>4.33</v>
+      </c>
+      <c r="AG195">
+        <v>1.57</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
+        <v>1.57</v>
+      </c>
+      <c r="AJ195">
+        <v>2.25</v>
+      </c>
+      <c r="AK195">
+        <v>1.22</v>
+      </c>
+      <c r="AL195">
+        <v>1.2</v>
+      </c>
+      <c r="AM195">
+        <v>1.93</v>
+      </c>
+      <c r="AN195">
+        <v>1.73</v>
+      </c>
+      <c r="AO195">
         <v>1.25</v>
       </c>
-      <c r="U195">
-        <v>3.75</v>
-      </c>
-      <c r="V195">
-        <v>2.2</v>
-      </c>
-      <c r="W195">
-        <v>1.62</v>
-      </c>
-      <c r="X195">
+      <c r="AP195">
+        <v>1.81</v>
+      </c>
+      <c r="AQ195">
+        <v>1.18</v>
+      </c>
+      <c r="AR195">
+        <v>1.94</v>
+      </c>
+      <c r="AS195">
+        <v>1.64</v>
+      </c>
+      <c r="AT195">
+        <v>3.58</v>
+      </c>
+      <c r="AU195">
         <v>5</v>
       </c>
-      <c r="Y195">
-        <v>1.17</v>
-      </c>
-      <c r="Z195">
-        <v>1.43</v>
-      </c>
-      <c r="AA195">
-        <v>4.9</v>
-      </c>
-      <c r="AB195">
+      <c r="AV195">
         <v>6</v>
       </c>
-      <c r="AC195">
-        <v>1.01</v>
-      </c>
-      <c r="AD195">
-        <v>17</v>
-      </c>
-      <c r="AE195">
-        <v>1.12</v>
-      </c>
-      <c r="AF195">
-        <v>5.75</v>
-      </c>
-      <c r="AG195">
-        <v>1.46</v>
-      </c>
-      <c r="AH195">
-        <v>2.6</v>
-      </c>
-      <c r="AI195">
-        <v>1.62</v>
-      </c>
-      <c r="AJ195">
-        <v>2.2</v>
-      </c>
-      <c r="AK195">
-        <v>1.12</v>
-      </c>
-      <c r="AL195">
-        <v>1.13</v>
-      </c>
-      <c r="AM195">
-        <v>2.65</v>
-      </c>
-      <c r="AN195">
-        <v>2</v>
-      </c>
-      <c r="AO195">
-        <v>0.75</v>
-      </c>
-      <c r="AP195">
-        <v>2.06</v>
-      </c>
-      <c r="AQ195">
-        <v>0.71</v>
-      </c>
-      <c r="AR195">
-        <v>1.86</v>
-      </c>
-      <c r="AS195">
-        <v>1.27</v>
-      </c>
-      <c r="AT195">
-        <v>3.13</v>
-      </c>
-      <c r="AU195">
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>4</v>
+      </c>
+      <c r="AY195">
         <v>11</v>
-      </c>
-      <c r="AV195">
-        <v>2</v>
-      </c>
-      <c r="AW195">
-        <v>8</v>
-      </c>
-      <c r="AX195">
-        <v>10</v>
-      </c>
-      <c r="AY195">
-        <v>21</v>
       </c>
       <c r="AZ195">
         <v>13</v>
       </c>
       <c r="BA195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC195">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD195">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="BE195">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="BF195">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="BG195">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH195">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BI195">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BJ195">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="BK195">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="BL195">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="BM195">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN195">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BO195">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="BP195">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41522,7 +41525,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7784977</v>
+        <v>7784979</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41537,190 +41540,190 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H196" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O196" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="P196" t="s">
         <v>83</v>
       </c>
       <c r="Q196">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.33</v>
+      </c>
+      <c r="U196">
+        <v>3.25</v>
+      </c>
+      <c r="V196">
+        <v>2.63</v>
+      </c>
+      <c r="W196">
+        <v>1.44</v>
+      </c>
+      <c r="X196">
+        <v>6.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.11</v>
+      </c>
+      <c r="Z196">
+        <v>1.87</v>
+      </c>
+      <c r="AA196">
+        <v>3.64</v>
+      </c>
+      <c r="AB196">
+        <v>3.84</v>
+      </c>
+      <c r="AC196">
+        <v>1.04</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.22</v>
+      </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2</v>
+      </c>
+      <c r="AI196">
+        <v>1.62</v>
+      </c>
+      <c r="AJ196">
         <v>2.2</v>
       </c>
-      <c r="S196">
-        <v>3.4</v>
-      </c>
-      <c r="T196">
-        <v>1.4</v>
-      </c>
-      <c r="U196">
-        <v>2.75</v>
-      </c>
-      <c r="V196">
-        <v>2.75</v>
-      </c>
-      <c r="W196">
-        <v>1.4</v>
-      </c>
-      <c r="X196">
-        <v>8</v>
-      </c>
-      <c r="Y196">
-        <v>1.08</v>
-      </c>
-      <c r="Z196">
-        <v>2.47</v>
-      </c>
-      <c r="AA196">
-        <v>3.21</v>
-      </c>
-      <c r="AB196">
-        <v>2.83</v>
-      </c>
-      <c r="AC196">
-        <v>1.05</v>
-      </c>
-      <c r="AD196">
-        <v>9</v>
-      </c>
-      <c r="AE196">
-        <v>1.3</v>
-      </c>
-      <c r="AF196">
-        <v>3.45</v>
-      </c>
-      <c r="AG196">
-        <v>1.89</v>
-      </c>
-      <c r="AH196">
+      <c r="AK196">
+        <v>1.25</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
         <v>1.85</v>
       </c>
-      <c r="AI196">
-        <v>1.67</v>
-      </c>
-      <c r="AJ196">
-        <v>2.1</v>
-      </c>
-      <c r="AK196">
-        <v>1.38</v>
-      </c>
-      <c r="AL196">
-        <v>1.25</v>
-      </c>
-      <c r="AM196">
-        <v>1.57</v>
-      </c>
       <c r="AN196">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AO196">
-        <v>1.2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP196">
         <v>1.88</v>
       </c>
       <c r="AQ196">
-        <v>1.13</v>
+        <v>0.65</v>
       </c>
       <c r="AR196">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT196">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>9</v>
+      </c>
+      <c r="AX196">
+        <v>14</v>
+      </c>
+      <c r="AY196">
+        <v>16</v>
+      </c>
+      <c r="AZ196">
+        <v>22</v>
+      </c>
+      <c r="BA196">
         <v>8</v>
       </c>
-      <c r="AV196">
-        <v>7</v>
-      </c>
-      <c r="AW196">
-        <v>6</v>
-      </c>
-      <c r="AX196">
-        <v>9</v>
-      </c>
-      <c r="AY196">
-        <v>14</v>
-      </c>
-      <c r="AZ196">
-        <v>21</v>
-      </c>
-      <c r="BA196">
+      <c r="BB196">
         <v>5</v>
       </c>
-      <c r="BB196">
-        <v>7</v>
-      </c>
       <c r="BC196">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD196">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="BE196">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF196">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BG196">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="BH196">
-        <v>3.58</v>
+        <v>4.33</v>
       </c>
       <c r="BI196">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="BJ196">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="BK196">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="BL196">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BM196">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="BN196">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="BO196">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="BP196">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41728,7 +41731,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7784978</v>
+        <v>7784975</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41743,190 +41746,190 @@
         <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H197" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P197" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Q197">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="R197">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S197">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T197">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U197">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V197">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W197">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X197">
+        <v>5</v>
+      </c>
+      <c r="Y197">
+        <v>1.17</v>
+      </c>
+      <c r="Z197">
+        <v>1.43</v>
+      </c>
+      <c r="AA197">
+        <v>4.9</v>
+      </c>
+      <c r="AB197">
         <v>6</v>
       </c>
-      <c r="Y197">
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>17</v>
+      </c>
+      <c r="AE197">
+        <v>1.12</v>
+      </c>
+      <c r="AF197">
+        <v>5.75</v>
+      </c>
+      <c r="AG197">
+        <v>1.46</v>
+      </c>
+      <c r="AH197">
+        <v>2.6</v>
+      </c>
+      <c r="AI197">
+        <v>1.62</v>
+      </c>
+      <c r="AJ197">
+        <v>2.2</v>
+      </c>
+      <c r="AK197">
+        <v>1.12</v>
+      </c>
+      <c r="AL197">
         <v>1.13</v>
       </c>
-      <c r="Z197">
-        <v>1.8</v>
-      </c>
-      <c r="AA197">
-        <v>3.85</v>
-      </c>
-      <c r="AB197">
-        <v>3.92</v>
-      </c>
-      <c r="AC197">
-        <v>1.04</v>
-      </c>
-      <c r="AD197">
+      <c r="AM197">
+        <v>2.65</v>
+      </c>
+      <c r="AN197">
+        <v>2</v>
+      </c>
+      <c r="AO197">
+        <v>0.75</v>
+      </c>
+      <c r="AP197">
+        <v>2.06</v>
+      </c>
+      <c r="AQ197">
+        <v>0.71</v>
+      </c>
+      <c r="AR197">
+        <v>1.86</v>
+      </c>
+      <c r="AS197">
+        <v>1.27</v>
+      </c>
+      <c r="AT197">
+        <v>3.13</v>
+      </c>
+      <c r="AU197">
+        <v>11</v>
+      </c>
+      <c r="AV197">
+        <v>2</v>
+      </c>
+      <c r="AW197">
+        <v>8</v>
+      </c>
+      <c r="AX197">
         <v>10</v>
       </c>
-      <c r="AE197">
-        <v>1.2</v>
-      </c>
-      <c r="AF197">
-        <v>4.33</v>
-      </c>
-      <c r="AG197">
-        <v>1.57</v>
-      </c>
-      <c r="AH197">
-        <v>2.15</v>
-      </c>
-      <c r="AI197">
-        <v>1.57</v>
-      </c>
-      <c r="AJ197">
-        <v>2.25</v>
-      </c>
-      <c r="AK197">
-        <v>1.22</v>
-      </c>
-      <c r="AL197">
-        <v>1.2</v>
-      </c>
-      <c r="AM197">
-        <v>1.93</v>
-      </c>
-      <c r="AN197">
-        <v>1.73</v>
-      </c>
-      <c r="AO197">
-        <v>1.25</v>
-      </c>
-      <c r="AP197">
-        <v>1.81</v>
-      </c>
-      <c r="AQ197">
-        <v>1.18</v>
-      </c>
-      <c r="AR197">
-        <v>1.94</v>
-      </c>
-      <c r="AS197">
-        <v>1.64</v>
-      </c>
-      <c r="AT197">
-        <v>3.58</v>
-      </c>
-      <c r="AU197">
-        <v>5</v>
-      </c>
-      <c r="AV197">
-        <v>6</v>
-      </c>
-      <c r="AW197">
-        <v>5</v>
-      </c>
-      <c r="AX197">
-        <v>4</v>
-      </c>
       <c r="AY197">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ197">
         <v>13</v>
       </c>
       <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
         <v>5</v>
       </c>
-      <c r="BB197">
-        <v>6</v>
-      </c>
-      <c r="BC197">
-        <v>11</v>
-      </c>
       <c r="BD197">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="BE197">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="BF197">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="BG197">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH197">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI197">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BJ197">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="BK197">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="BL197">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="BM197">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BN197">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BO197">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="BP197">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41934,7 +41937,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7784979</v>
+        <v>7784977</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41949,190 +41952,396 @@
         <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H198" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
       <c r="N198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O198" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="P198" t="s">
         <v>83</v>
       </c>
       <c r="Q198">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R198">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S198">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T198">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V198">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W198">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X198">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y198">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z198">
-        <v>1.87</v>
+        <v>2.47</v>
       </c>
       <c r="AA198">
-        <v>3.64</v>
+        <v>3.21</v>
       </c>
       <c r="AB198">
-        <v>3.84</v>
+        <v>2.83</v>
       </c>
       <c r="AC198">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE198">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AF198">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="AG198">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="AH198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI198">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ198">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK198">
+        <v>1.38</v>
+      </c>
+      <c r="AL198">
         <v>1.25</v>
       </c>
-      <c r="AL198">
-        <v>1.22</v>
-      </c>
       <c r="AM198">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AN198">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AO198">
-        <v>0.6899999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AP198">
         <v>1.88</v>
       </c>
       <c r="AQ198">
-        <v>0.65</v>
+        <v>1.13</v>
       </c>
       <c r="AR198">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS198">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT198">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="AU198">
+        <v>8</v>
+      </c>
+      <c r="AV198">
+        <v>7</v>
+      </c>
+      <c r="AW198">
+        <v>6</v>
+      </c>
+      <c r="AX198">
+        <v>9</v>
+      </c>
+      <c r="AY198">
+        <v>14</v>
+      </c>
+      <c r="AZ198">
+        <v>21</v>
+      </c>
+      <c r="BA198">
+        <v>5</v>
+      </c>
+      <c r="BB198">
+        <v>7</v>
+      </c>
+      <c r="BC198">
+        <v>12</v>
+      </c>
+      <c r="BD198">
+        <v>1.62</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.6</v>
+      </c>
+      <c r="BG198">
+        <v>1.21</v>
+      </c>
+      <c r="BH198">
+        <v>3.58</v>
+      </c>
+      <c r="BI198">
+        <v>1.41</v>
+      </c>
+      <c r="BJ198">
+        <v>2.52</v>
+      </c>
+      <c r="BK198">
+        <v>1.77</v>
+      </c>
+      <c r="BL198">
+        <v>1.95</v>
+      </c>
+      <c r="BM198">
+        <v>2.23</v>
+      </c>
+      <c r="BN198">
+        <v>1.58</v>
+      </c>
+      <c r="BO198">
+        <v>2.93</v>
+      </c>
+      <c r="BP198">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7784980</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="F199">
+        <v>33</v>
+      </c>
+      <c r="G199" t="s">
+        <v>73</v>
+      </c>
+      <c r="H199" t="s">
+        <v>81</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>225</v>
+      </c>
+      <c r="P199" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q199">
+        <v>2.38</v>
+      </c>
+      <c r="R199">
+        <v>2.38</v>
+      </c>
+      <c r="S199">
+        <v>4.33</v>
+      </c>
+      <c r="T199">
+        <v>1.3</v>
+      </c>
+      <c r="U199">
+        <v>3.4</v>
+      </c>
+      <c r="V199">
+        <v>2.5</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>6</v>
+      </c>
+      <c r="Y199">
+        <v>1.13</v>
+      </c>
+      <c r="Z199">
+        <v>1.78</v>
+      </c>
+      <c r="AA199">
+        <v>3.85</v>
+      </c>
+      <c r="AB199">
         <v>4</v>
       </c>
-      <c r="AV198">
-        <v>3</v>
-      </c>
-      <c r="AW198">
-        <v>9</v>
-      </c>
-      <c r="AX198">
-        <v>14</v>
-      </c>
-      <c r="AY198">
-        <v>16</v>
-      </c>
-      <c r="AZ198">
-        <v>22</v>
-      </c>
-      <c r="BA198">
-        <v>8</v>
-      </c>
-      <c r="BB198">
-        <v>5</v>
-      </c>
-      <c r="BC198">
-        <v>13</v>
-      </c>
-      <c r="BD198">
-        <v>1.4</v>
-      </c>
-      <c r="BE198">
+      <c r="AC199">
+        <v>1.04</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.2</v>
+      </c>
+      <c r="AF199">
+        <v>4.5</v>
+      </c>
+      <c r="AG199">
+        <v>1.57</v>
+      </c>
+      <c r="AH199">
+        <v>2.15</v>
+      </c>
+      <c r="AI199">
+        <v>1.62</v>
+      </c>
+      <c r="AJ199">
+        <v>2.2</v>
+      </c>
+      <c r="AK199">
+        <v>1.22</v>
+      </c>
+      <c r="AL199">
+        <v>1.2</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>2.13</v>
+      </c>
+      <c r="AO199">
+        <v>1.6</v>
+      </c>
+      <c r="AP199">
+        <v>2.18</v>
+      </c>
+      <c r="AQ199">
+        <v>1.5</v>
+      </c>
+      <c r="AR199">
+        <v>2.05</v>
+      </c>
+      <c r="AS199">
+        <v>1.64</v>
+      </c>
+      <c r="AT199">
+        <v>3.69</v>
+      </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
+      <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>17</v>
+      </c>
+      <c r="AX199">
+        <v>10</v>
+      </c>
+      <c r="AY199">
+        <v>28</v>
+      </c>
+      <c r="AZ199">
+        <v>23</v>
+      </c>
+      <c r="BA199">
+        <v>7</v>
+      </c>
+      <c r="BB199">
+        <v>11</v>
+      </c>
+      <c r="BC199">
+        <v>18</v>
+      </c>
+      <c r="BD199">
+        <v>1.44</v>
+      </c>
+      <c r="BE199">
         <v>9.5</v>
       </c>
-      <c r="BF198">
-        <v>3.2</v>
-      </c>
-      <c r="BG198">
-        <v>1.14</v>
-      </c>
-      <c r="BH198">
-        <v>4.33</v>
-      </c>
-      <c r="BI198">
-        <v>1.31</v>
-      </c>
-      <c r="BJ198">
-        <v>2.92</v>
-      </c>
-      <c r="BK198">
-        <v>1.73</v>
-      </c>
-      <c r="BL198">
-        <v>2</v>
-      </c>
-      <c r="BM198">
-        <v>1.96</v>
-      </c>
-      <c r="BN198">
-        <v>1.75</v>
-      </c>
-      <c r="BO198">
-        <v>2.51</v>
-      </c>
-      <c r="BP198">
-        <v>1.44</v>
+      <c r="BF199">
+        <v>3.1</v>
+      </c>
+      <c r="BG199">
+        <v>1.18</v>
+      </c>
+      <c r="BH199">
+        <v>3.92</v>
+      </c>
+      <c r="BI199">
+        <v>1.37</v>
+      </c>
+      <c r="BJ199">
+        <v>2.75</v>
+      </c>
+      <c r="BK199">
+        <v>1.67</v>
+      </c>
+      <c r="BL199">
+        <v>2.07</v>
+      </c>
+      <c r="BM199">
+        <v>2.05</v>
+      </c>
+      <c r="BN199">
+        <v>1.7</v>
+      </c>
+      <c r="BO199">
+        <v>2.7</v>
+      </c>
+      <c r="BP199">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,12 @@
     <t>['12', '44']</t>
   </si>
   <si>
+    <t>['47', '53']</t>
+  </si>
+  <si>
+    <t>['45+2', '48', '72']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -983,6 +989,9 @@
   </si>
   <si>
     <t>['10', '43', '52', '58']</t>
+  </si>
+  <si>
+    <t>['27', '80']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1612,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1684,7 +1693,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1809,7 +1818,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2093,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2221,7 +2230,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2427,7 +2436,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2505,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2633,7 +2642,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2839,7 +2848,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2920,7 +2929,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3251,7 +3260,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3457,7 +3466,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3663,7 +3672,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3950,7 +3959,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4075,7 +4084,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4281,7 +4290,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4899,7 +4908,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4977,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5105,7 +5114,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5389,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5723,7 +5732,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5804,7 +5813,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -6010,7 +6019,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -6135,7 +6144,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6341,7 +6350,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6959,7 +6968,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7371,7 +7380,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7658,7 +7667,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -8067,7 +8076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ33">
         <v>1.53</v>
@@ -8607,7 +8616,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8685,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8813,7 +8822,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9019,7 +9028,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9225,7 +9234,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9431,7 +9440,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9509,7 +9518,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40">
         <v>0.71</v>
@@ -9843,7 +9852,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9921,10 +9930,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -10049,7 +10058,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10667,7 +10676,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10748,7 +10757,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -11491,7 +11500,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11697,7 +11706,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11981,10 +11990,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12396,7 +12405,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12521,7 +12530,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12727,7 +12736,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13423,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
         <v>0.59</v>
@@ -13757,7 +13766,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14041,10 +14050,10 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14169,7 +14178,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14247,7 +14256,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ63">
         <v>1.63</v>
@@ -14375,7 +14384,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14581,7 +14590,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14868,7 +14877,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14993,7 +15002,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15199,7 +15208,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15405,7 +15414,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15611,7 +15620,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15817,7 +15826,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16023,7 +16032,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16722,7 +16731,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16847,7 +16856,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17131,7 +17140,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ77">
         <v>1.53</v>
@@ -17546,7 +17555,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17749,7 +17758,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ80">
         <v>0.9399999999999999</v>
@@ -17877,7 +17886,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18083,7 +18092,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18289,7 +18298,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18495,7 +18504,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18907,7 +18916,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19113,7 +19122,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19194,7 +19203,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19397,7 +19406,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ88">
         <v>0.65</v>
@@ -20555,7 +20564,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20636,7 +20645,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20761,7 +20770,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20839,7 +20848,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
         <v>0.65</v>
@@ -21173,7 +21182,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21460,7 +21469,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21585,7 +21594,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21791,7 +21800,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22075,7 +22084,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22203,7 +22212,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22409,7 +22418,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22615,7 +22624,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22693,7 +22702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ104">
         <v>1.18</v>
@@ -22821,7 +22830,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23108,7 +23117,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23233,7 +23242,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23439,7 +23448,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23645,7 +23654,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23851,7 +23860,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23932,7 +23941,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24753,7 +24762,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ114">
         <v>1.18</v>
@@ -24881,7 +24890,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25168,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116">
         <v>1.51</v>
@@ -25499,7 +25508,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25577,7 +25586,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
         <v>1.13</v>
@@ -25705,7 +25714,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25911,7 +25920,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26323,7 +26332,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26401,10 +26410,10 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.78</v>
@@ -26529,7 +26538,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26816,7 +26825,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR124">
         <v>1.92</v>
@@ -27353,7 +27362,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27559,7 +27568,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27765,7 +27774,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27971,7 +27980,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28177,7 +28186,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28589,7 +28598,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28667,7 +28676,7 @@
         <v>1.4</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -28795,7 +28804,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -28873,7 +28882,7 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
         <v>0.71</v>
@@ -29001,7 +29010,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29082,7 +29091,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR135">
         <v>1.87</v>
@@ -29207,7 +29216,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29413,7 +29422,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29619,7 +29628,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29825,7 +29834,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30521,10 +30530,10 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -31061,7 +31070,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31267,7 +31276,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31345,10 +31354,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.86</v>
@@ -31679,7 +31688,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32091,7 +32100,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32787,7 +32796,7 @@
         <v>1.15</v>
       </c>
       <c r="AP153">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -32993,7 +33002,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ154">
         <v>1.53</v>
@@ -33121,7 +33130,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33408,7 +33417,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -33533,7 +33542,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33945,7 +33954,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34232,7 +34241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR160">
         <v>1.88</v>
@@ -34357,7 +34366,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34563,7 +34572,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34769,7 +34778,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34975,7 +34984,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35181,7 +35190,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35387,7 +35396,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35799,7 +35808,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35880,7 +35889,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
         <v>1.83</v>
@@ -36005,7 +36014,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36623,7 +36632,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36829,7 +36838,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36907,7 +36916,7 @@
         <v>1.43</v>
       </c>
       <c r="AP173">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173">
         <v>1.63</v>
@@ -37035,7 +37044,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37241,7 +37250,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37319,7 +37328,7 @@
         <v>1.21</v>
       </c>
       <c r="AP175">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ175">
         <v>1.18</v>
@@ -37447,7 +37456,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37528,7 +37537,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ176">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>1.98</v>
@@ -37653,7 +37662,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37859,7 +37868,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38065,7 +38074,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38352,7 +38361,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.88</v>
@@ -38761,7 +38770,7 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ182">
         <v>1.5</v>
@@ -38967,7 +38976,7 @@
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ183">
         <v>0.65</v>
@@ -39997,7 +40006,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ188">
         <v>0.9399999999999999</v>
@@ -40125,7 +40134,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40206,7 +40215,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -40331,7 +40340,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40537,7 +40546,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40824,7 +40833,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR192">
         <v>1.72</v>
@@ -40949,7 +40958,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -42057,7 +42066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ198">
         <v>1.13</v>
@@ -42342,6 +42351,418 @@
       </c>
       <c r="BP199">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7886669</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45780.54166666666</v>
+      </c>
+      <c r="F200">
+        <v>34</v>
+      </c>
+      <c r="G200" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200" t="s">
+        <v>78</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>226</v>
+      </c>
+      <c r="P200" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q200">
+        <v>3.2</v>
+      </c>
+      <c r="R200">
+        <v>2.25</v>
+      </c>
+      <c r="S200">
+        <v>3.1</v>
+      </c>
+      <c r="T200">
+        <v>1.33</v>
+      </c>
+      <c r="U200">
+        <v>3.25</v>
+      </c>
+      <c r="V200">
+        <v>2.63</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>6.5</v>
+      </c>
+      <c r="Y200">
+        <v>1.11</v>
+      </c>
+      <c r="Z200">
+        <v>2.69</v>
+      </c>
+      <c r="AA200">
+        <v>3.33</v>
+      </c>
+      <c r="AB200">
+        <v>2.51</v>
+      </c>
+      <c r="AC200">
+        <v>1.04</v>
+      </c>
+      <c r="AD200">
+        <v>10</v>
+      </c>
+      <c r="AE200">
+        <v>1.25</v>
+      </c>
+      <c r="AF200">
+        <v>3.5</v>
+      </c>
+      <c r="AG200">
+        <v>1.78</v>
+      </c>
+      <c r="AH200">
+        <v>1.92</v>
+      </c>
+      <c r="AI200">
+        <v>1.62</v>
+      </c>
+      <c r="AJ200">
+        <v>2.2</v>
+      </c>
+      <c r="AK200">
+        <v>1.5</v>
+      </c>
+      <c r="AL200">
+        <v>1.29</v>
+      </c>
+      <c r="AM200">
+        <v>1.46</v>
+      </c>
+      <c r="AN200">
+        <v>1.25</v>
+      </c>
+      <c r="AO200">
+        <v>1</v>
+      </c>
+      <c r="AP200">
+        <v>1.35</v>
+      </c>
+      <c r="AQ200">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR200">
+        <v>1.24</v>
+      </c>
+      <c r="AS200">
+        <v>1.25</v>
+      </c>
+      <c r="AT200">
+        <v>2.49</v>
+      </c>
+      <c r="AU200">
+        <v>6</v>
+      </c>
+      <c r="AV200">
+        <v>6</v>
+      </c>
+      <c r="AW200">
+        <v>7</v>
+      </c>
+      <c r="AX200">
+        <v>8</v>
+      </c>
+      <c r="AY200">
+        <v>15</v>
+      </c>
+      <c r="AZ200">
+        <v>17</v>
+      </c>
+      <c r="BA200">
+        <v>3</v>
+      </c>
+      <c r="BB200">
+        <v>6</v>
+      </c>
+      <c r="BC200">
+        <v>9</v>
+      </c>
+      <c r="BD200">
+        <v>2.1</v>
+      </c>
+      <c r="BE200">
+        <v>6.5</v>
+      </c>
+      <c r="BF200">
+        <v>1.88</v>
+      </c>
+      <c r="BG200">
+        <v>1.29</v>
+      </c>
+      <c r="BH200">
+        <v>3.15</v>
+      </c>
+      <c r="BI200">
+        <v>1.52</v>
+      </c>
+      <c r="BJ200">
+        <v>2.32</v>
+      </c>
+      <c r="BK200">
+        <v>1.82</v>
+      </c>
+      <c r="BL200">
+        <v>1.98</v>
+      </c>
+      <c r="BM200">
+        <v>2.32</v>
+      </c>
+      <c r="BN200">
+        <v>1.52</v>
+      </c>
+      <c r="BO200">
+        <v>2.95</v>
+      </c>
+      <c r="BP200">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7886670</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="F201">
+        <v>34</v>
+      </c>
+      <c r="G201" t="s">
+        <v>74</v>
+      </c>
+      <c r="H201" t="s">
+        <v>73</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201" t="s">
+        <v>227</v>
+      </c>
+      <c r="P201" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q201">
+        <v>3.1</v>
+      </c>
+      <c r="R201">
+        <v>2.3</v>
+      </c>
+      <c r="S201">
+        <v>3.1</v>
+      </c>
+      <c r="T201">
+        <v>1.3</v>
+      </c>
+      <c r="U201">
+        <v>3.4</v>
+      </c>
+      <c r="V201">
+        <v>2.5</v>
+      </c>
+      <c r="W201">
+        <v>1.5</v>
+      </c>
+      <c r="X201">
+        <v>6</v>
+      </c>
+      <c r="Y201">
+        <v>1.13</v>
+      </c>
+      <c r="Z201">
+        <v>2.54</v>
+      </c>
+      <c r="AA201">
+        <v>3.41</v>
+      </c>
+      <c r="AB201">
+        <v>2.62</v>
+      </c>
+      <c r="AC201">
+        <v>1.03</v>
+      </c>
+      <c r="AD201">
+        <v>12</v>
+      </c>
+      <c r="AE201">
+        <v>1.2</v>
+      </c>
+      <c r="AF201">
+        <v>4.1</v>
+      </c>
+      <c r="AG201">
+        <v>1.6</v>
+      </c>
+      <c r="AH201">
+        <v>2.1</v>
+      </c>
+      <c r="AI201">
+        <v>1.53</v>
+      </c>
+      <c r="AJ201">
+        <v>2.38</v>
+      </c>
+      <c r="AK201">
+        <v>1.49</v>
+      </c>
+      <c r="AL201">
+        <v>1.27</v>
+      </c>
+      <c r="AM201">
+        <v>1.5</v>
+      </c>
+      <c r="AN201">
+        <v>1.88</v>
+      </c>
+      <c r="AO201">
+        <v>1</v>
+      </c>
+      <c r="AP201">
+        <v>1.94</v>
+      </c>
+      <c r="AQ201">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR201">
+        <v>1.85</v>
+      </c>
+      <c r="AS201">
+        <v>1.77</v>
+      </c>
+      <c r="AT201">
+        <v>3.62</v>
+      </c>
+      <c r="AU201">
+        <v>7</v>
+      </c>
+      <c r="AV201">
+        <v>7</v>
+      </c>
+      <c r="AW201">
+        <v>10</v>
+      </c>
+      <c r="AX201">
+        <v>8</v>
+      </c>
+      <c r="AY201">
+        <v>19</v>
+      </c>
+      <c r="AZ201">
+        <v>17</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>3</v>
+      </c>
+      <c r="BC201">
+        <v>8</v>
+      </c>
+      <c r="BD201">
+        <v>1.91</v>
+      </c>
+      <c r="BE201">
+        <v>8</v>
+      </c>
+      <c r="BF201">
+        <v>2.2</v>
+      </c>
+      <c r="BG201">
+        <v>1.2</v>
+      </c>
+      <c r="BH201">
+        <v>3.9</v>
+      </c>
+      <c r="BI201">
+        <v>1.39</v>
+      </c>
+      <c r="BJ201">
+        <v>2.78</v>
+      </c>
+      <c r="BK201">
+        <v>1.64</v>
+      </c>
+      <c r="BL201">
+        <v>2.17</v>
+      </c>
+      <c r="BM201">
+        <v>2.02</v>
+      </c>
+      <c r="BN201">
+        <v>1.74</v>
+      </c>
+      <c r="BO201">
+        <v>2.52</v>
+      </c>
+      <c r="BP201">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,12 @@
     <t>['45+2', '48', '72']</t>
   </si>
   <si>
+    <t>['2', '34']</t>
+  </si>
+  <si>
+    <t>['28', '34', '38', '76', '79']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -992,6 +998,9 @@
   </si>
   <si>
     <t>['27', '80']</t>
+  </si>
+  <si>
+    <t>['12', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1621,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1818,7 +1827,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1899,7 +1908,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2230,7 +2239,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2436,7 +2445,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2642,7 +2651,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2720,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2848,7 +2857,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3132,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3260,7 +3269,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3466,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3544,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3672,7 +3681,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -4084,7 +4093,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4290,7 +4299,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4577,7 +4586,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ16">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4780,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ17">
         <v>0.65</v>
@@ -4908,7 +4917,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5114,7 +5123,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5195,7 +5204,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5604,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ21">
         <v>0.59</v>
@@ -5732,7 +5741,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6144,7 +6153,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6350,7 +6359,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6840,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ27">
         <v>0.59</v>
@@ -6968,7 +6977,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7252,7 +7261,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>0.71</v>
@@ -7380,7 +7389,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7458,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ30">
         <v>1.63</v>
@@ -8079,7 +8088,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8616,7 +8625,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8697,7 +8706,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8822,7 +8831,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9028,7 +9037,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9109,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.38</v>
@@ -9234,7 +9243,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9312,10 +9321,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9440,7 +9449,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9724,10 +9733,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9852,7 +9861,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10058,7 +10067,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10139,7 +10148,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10676,7 +10685,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -11372,7 +11381,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ49">
         <v>1.63</v>
@@ -11500,7 +11509,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11578,7 +11587,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -11706,7 +11715,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11784,7 +11793,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -12199,7 +12208,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12402,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -12530,7 +12539,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12611,7 +12620,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ55">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12736,7 +12745,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12817,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -13641,7 +13650,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ60">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13766,7 +13775,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13844,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -14178,7 +14187,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14384,7 +14393,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14462,7 +14471,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14590,7 +14599,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14668,7 +14677,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15002,7 +15011,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15083,7 +15092,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ67">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR67">
         <v>1.55</v>
@@ -15208,7 +15217,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15414,7 +15423,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15620,7 +15629,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15698,10 +15707,10 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR70">
         <v>1.54</v>
@@ -15826,7 +15835,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16032,7 +16041,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16319,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR73">
         <v>1.54</v>
@@ -16522,7 +16531,7 @@
         <v>0.17</v>
       </c>
       <c r="AP74">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0.59</v>
@@ -16856,7 +16865,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17143,7 +17152,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.84</v>
@@ -17552,7 +17561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ79">
         <v>0.9399999999999999</v>
@@ -17886,7 +17895,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18092,7 +18101,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18173,7 +18182,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18298,7 +18307,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18376,7 +18385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18504,7 +18513,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18791,7 +18800,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18916,7 +18925,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19122,7 +19131,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19200,7 +19209,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ87">
         <v>0.9399999999999999</v>
@@ -19615,7 +19624,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -19818,10 +19827,10 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -20436,7 +20445,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20564,7 +20573,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20770,7 +20779,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21057,7 +21066,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21182,7 +21191,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21466,7 +21475,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21594,7 +21603,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21800,7 +21809,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21878,10 +21887,10 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -22087,7 +22096,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22212,7 +22221,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22418,7 +22427,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22624,7 +22633,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22830,7 +22839,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23114,7 +23123,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -23242,7 +23251,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23323,7 +23332,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ107">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.85</v>
@@ -23448,7 +23457,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23654,7 +23663,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23860,7 +23869,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23938,7 +23947,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ110">
         <v>0.9399999999999999</v>
@@ -24890,7 +24899,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25383,7 +25392,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ117">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1</v>
@@ -25508,7 +25517,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25589,7 +25598,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25714,7 +25723,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25920,7 +25929,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -25998,7 +26007,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ120">
         <v>0.65</v>
@@ -26204,10 +26213,10 @@
         <v>1.56</v>
       </c>
       <c r="AP121">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26332,7 +26341,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26538,7 +26547,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27028,7 +27037,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27362,7 +27371,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27568,7 +27577,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27774,7 +27783,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27852,10 +27861,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ129">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.71</v>
@@ -27980,7 +27989,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28061,7 +28070,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28186,7 +28195,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28470,7 +28479,7 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ132">
         <v>1.18</v>
@@ -28598,7 +28607,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28679,7 +28688,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28804,7 +28813,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29010,7 +29019,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29216,7 +29225,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29422,7 +29431,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29628,7 +29637,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29706,7 +29715,7 @@
         <v>0.36</v>
       </c>
       <c r="AP138">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138">
         <v>0.59</v>
@@ -29834,7 +29843,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30118,10 +30127,10 @@
         <v>1.55</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30942,7 +30951,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31070,7 +31079,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31151,7 +31160,7 @@
         <v>1</v>
       </c>
       <c r="AQ145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31276,7 +31285,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31688,7 +31697,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31972,7 +31981,7 @@
         <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ149">
         <v>0.65</v>
@@ -32100,7 +32109,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32387,7 +32396,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>2.1</v>
@@ -32590,7 +32599,7 @@
         <v>0.77</v>
       </c>
       <c r="AP152">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ152">
         <v>0.65</v>
@@ -33005,7 +33014,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ154">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR154">
         <v>1.84</v>
@@ -33130,7 +33139,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33211,7 +33220,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR155">
         <v>2</v>
@@ -33542,7 +33551,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33954,7 +33963,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34366,7 +34375,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34447,7 +34456,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>1.53</v>
@@ -34572,7 +34581,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34650,7 +34659,7 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ162">
         <v>1.63</v>
@@ -34778,7 +34787,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34856,10 +34865,10 @@
         <v>1.25</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ163">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -34984,7 +34993,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35190,7 +35199,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35396,7 +35405,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35808,7 +35817,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35886,7 +35895,7 @@
         <v>0.77</v>
       </c>
       <c r="AP168">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ168">
         <v>0.9399999999999999</v>
@@ -36014,7 +36023,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36504,7 +36513,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ171">
         <v>0.71</v>
@@ -36632,7 +36641,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36713,7 +36722,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ172">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR172">
         <v>1.98</v>
@@ -36838,7 +36847,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37044,7 +37053,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37125,7 +37134,7 @@
         <v>1</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37250,7 +37259,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37456,7 +37465,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37662,7 +37671,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37743,7 +37752,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ177">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR177">
         <v>1.29</v>
@@ -37868,7 +37877,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -37946,7 +37955,7 @@
         <v>0.27</v>
       </c>
       <c r="AP178">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
         <v>0.59</v>
@@ -38074,7 +38083,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38358,7 +38367,7 @@
         <v>0.93</v>
       </c>
       <c r="AP180">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ180">
         <v>0.9399999999999999</v>
@@ -38564,7 +38573,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38773,7 +38782,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR182">
         <v>1.28</v>
@@ -39391,7 +39400,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ185">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR185">
         <v>1.9</v>
@@ -39594,10 +39603,10 @@
         <v>1.29</v>
       </c>
       <c r="AP186">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ186">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR186">
         <v>1.88</v>
@@ -40134,7 +40143,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40340,7 +40349,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40546,7 +40555,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40830,7 +40839,7 @@
         <v>1.07</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ192">
         <v>0.9399999999999999</v>
@@ -40958,7 +40967,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41036,10 +41045,10 @@
         <v>1.56</v>
       </c>
       <c r="AP193">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ193">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR193">
         <v>1.69</v>
@@ -41860,7 +41869,7 @@
         <v>0.75</v>
       </c>
       <c r="AP197">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ197">
         <v>0.71</v>
@@ -42069,7 +42078,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ198">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR198">
         <v>1.84</v>
@@ -42275,7 +42284,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ199">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR199">
         <v>2.05</v>
@@ -42606,7 +42615,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42763,6 +42772,624 @@
       </c>
       <c r="BP201">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7886671</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45781.38541666666</v>
+      </c>
+      <c r="F202">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>81</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>228</v>
+      </c>
+      <c r="P202" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q202">
+        <v>3.1</v>
+      </c>
+      <c r="R202">
+        <v>2.2</v>
+      </c>
+      <c r="S202">
+        <v>3.25</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
+      <c r="V202">
+        <v>2.63</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>7</v>
+      </c>
+      <c r="Y202">
+        <v>1.1</v>
+      </c>
+      <c r="Z202">
+        <v>2.57</v>
+      </c>
+      <c r="AA202">
+        <v>3.45</v>
+      </c>
+      <c r="AB202">
+        <v>2.57</v>
+      </c>
+      <c r="AC202">
+        <v>1.05</v>
+      </c>
+      <c r="AD202">
+        <v>9.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.26</v>
+      </c>
+      <c r="AF202">
+        <v>3.5</v>
+      </c>
+      <c r="AG202">
+        <v>1.82</v>
+      </c>
+      <c r="AH202">
+        <v>1.92</v>
+      </c>
+      <c r="AI202">
+        <v>1.67</v>
+      </c>
+      <c r="AJ202">
+        <v>2.1</v>
+      </c>
+      <c r="AK202">
+        <v>1.46</v>
+      </c>
+      <c r="AL202">
+        <v>1.31</v>
+      </c>
+      <c r="AM202">
+        <v>1.47</v>
+      </c>
+      <c r="AN202">
+        <v>1.56</v>
+      </c>
+      <c r="AO202">
+        <v>1.5</v>
+      </c>
+      <c r="AP202">
+        <v>1.65</v>
+      </c>
+      <c r="AQ202">
+        <v>1.41</v>
+      </c>
+      <c r="AR202">
+        <v>1.68</v>
+      </c>
+      <c r="AS202">
+        <v>1.65</v>
+      </c>
+      <c r="AT202">
+        <v>3.33</v>
+      </c>
+      <c r="AU202">
+        <v>4</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>2</v>
+      </c>
+      <c r="AX202">
+        <v>10</v>
+      </c>
+      <c r="AY202">
+        <v>6</v>
+      </c>
+      <c r="AZ202">
+        <v>19</v>
+      </c>
+      <c r="BA202">
+        <v>1</v>
+      </c>
+      <c r="BB202">
+        <v>5</v>
+      </c>
+      <c r="BC202">
+        <v>6</v>
+      </c>
+      <c r="BD202">
+        <v>2.2</v>
+      </c>
+      <c r="BE202">
+        <v>8</v>
+      </c>
+      <c r="BF202">
+        <v>1.91</v>
+      </c>
+      <c r="BG202">
+        <v>1.23</v>
+      </c>
+      <c r="BH202">
+        <v>3.52</v>
+      </c>
+      <c r="BI202">
+        <v>1.45</v>
+      </c>
+      <c r="BJ202">
+        <v>2.57</v>
+      </c>
+      <c r="BK202">
+        <v>1.74</v>
+      </c>
+      <c r="BL202">
+        <v>2.02</v>
+      </c>
+      <c r="BM202">
+        <v>2.17</v>
+      </c>
+      <c r="BN202">
+        <v>1.64</v>
+      </c>
+      <c r="BO202">
+        <v>2.73</v>
+      </c>
+      <c r="BP202">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7886672</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F203">
+        <v>34</v>
+      </c>
+      <c r="G203" t="s">
+        <v>79</v>
+      </c>
+      <c r="H203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>5</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>6</v>
+      </c>
+      <c r="O203" t="s">
+        <v>229</v>
+      </c>
+      <c r="P203" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q203">
+        <v>2.3</v>
+      </c>
+      <c r="R203">
+        <v>2.5</v>
+      </c>
+      <c r="S203">
+        <v>4</v>
+      </c>
+      <c r="T203">
+        <v>1.25</v>
+      </c>
+      <c r="U203">
+        <v>3.75</v>
+      </c>
+      <c r="V203">
+        <v>2.1</v>
+      </c>
+      <c r="W203">
+        <v>1.67</v>
+      </c>
+      <c r="X203">
+        <v>5</v>
+      </c>
+      <c r="Y203">
+        <v>1.17</v>
+      </c>
+      <c r="Z203">
+        <v>1.82</v>
+      </c>
+      <c r="AA203">
+        <v>4.1</v>
+      </c>
+      <c r="AB203">
+        <v>3.6</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>17</v>
+      </c>
+      <c r="AE203">
+        <v>1.15</v>
+      </c>
+      <c r="AF203">
+        <v>5.25</v>
+      </c>
+      <c r="AG203">
+        <v>1.47</v>
+      </c>
+      <c r="AH203">
+        <v>2.57</v>
+      </c>
+      <c r="AI203">
+        <v>1.5</v>
+      </c>
+      <c r="AJ203">
+        <v>2.5</v>
+      </c>
+      <c r="AK203">
+        <v>1.24</v>
+      </c>
+      <c r="AL203">
+        <v>1.24</v>
+      </c>
+      <c r="AM203">
+        <v>1.98</v>
+      </c>
+      <c r="AN203">
+        <v>2.06</v>
+      </c>
+      <c r="AO203">
+        <v>1.53</v>
+      </c>
+      <c r="AP203">
+        <v>2.11</v>
+      </c>
+      <c r="AQ203">
+        <v>1.44</v>
+      </c>
+      <c r="AR203">
+        <v>1.88</v>
+      </c>
+      <c r="AS203">
+        <v>1.57</v>
+      </c>
+      <c r="AT203">
+        <v>3.45</v>
+      </c>
+      <c r="AU203">
+        <v>11</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>6</v>
+      </c>
+      <c r="AY203">
+        <v>19</v>
+      </c>
+      <c r="AZ203">
+        <v>13</v>
+      </c>
+      <c r="BA203">
+        <v>10</v>
+      </c>
+      <c r="BB203">
+        <v>8</v>
+      </c>
+      <c r="BC203">
+        <v>18</v>
+      </c>
+      <c r="BD203">
+        <v>1.67</v>
+      </c>
+      <c r="BE203">
+        <v>6.75</v>
+      </c>
+      <c r="BF203">
+        <v>2.43</v>
+      </c>
+      <c r="BG203">
+        <v>1.19</v>
+      </c>
+      <c r="BH203">
+        <v>3.9</v>
+      </c>
+      <c r="BI203">
+        <v>1.36</v>
+      </c>
+      <c r="BJ203">
+        <v>2.8</v>
+      </c>
+      <c r="BK203">
+        <v>1.58</v>
+      </c>
+      <c r="BL203">
+        <v>2.18</v>
+      </c>
+      <c r="BM203">
+        <v>1.92</v>
+      </c>
+      <c r="BN203">
+        <v>1.75</v>
+      </c>
+      <c r="BO203">
+        <v>2.4</v>
+      </c>
+      <c r="BP203">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7886673</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45781.47916666666</v>
+      </c>
+      <c r="F204">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>75</v>
+      </c>
+      <c r="H204" t="s">
+        <v>70</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>83</v>
+      </c>
+      <c r="P204" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q204">
+        <v>3.1</v>
+      </c>
+      <c r="R204">
+        <v>2.3</v>
+      </c>
+      <c r="S204">
+        <v>3.1</v>
+      </c>
+      <c r="T204">
+        <v>1.3</v>
+      </c>
+      <c r="U204">
+        <v>3.4</v>
+      </c>
+      <c r="V204">
+        <v>2.5</v>
+      </c>
+      <c r="W204">
+        <v>1.5</v>
+      </c>
+      <c r="X204">
+        <v>6</v>
+      </c>
+      <c r="Y204">
+        <v>1.13</v>
+      </c>
+      <c r="Z204">
+        <v>2.53</v>
+      </c>
+      <c r="AA204">
+        <v>3.59</v>
+      </c>
+      <c r="AB204">
+        <v>2.53</v>
+      </c>
+      <c r="AC204">
+        <v>1.04</v>
+      </c>
+      <c r="AD204">
+        <v>10</v>
+      </c>
+      <c r="AE204">
+        <v>1.22</v>
+      </c>
+      <c r="AF204">
+        <v>4.2</v>
+      </c>
+      <c r="AG204">
+        <v>1.65</v>
+      </c>
+      <c r="AH204">
+        <v>2.05</v>
+      </c>
+      <c r="AI204">
+        <v>1.53</v>
+      </c>
+      <c r="AJ204">
+        <v>2.38</v>
+      </c>
+      <c r="AK204">
+        <v>1.47</v>
+      </c>
+      <c r="AL204">
+        <v>1.28</v>
+      </c>
+      <c r="AM204">
+        <v>1.5</v>
+      </c>
+      <c r="AN204">
+        <v>1.94</v>
+      </c>
+      <c r="AO204">
+        <v>1.13</v>
+      </c>
+      <c r="AP204">
+        <v>1.82</v>
+      </c>
+      <c r="AQ204">
+        <v>1.24</v>
+      </c>
+      <c r="AR204">
+        <v>1.73</v>
+      </c>
+      <c r="AS204">
+        <v>1.56</v>
+      </c>
+      <c r="AT204">
+        <v>3.29</v>
+      </c>
+      <c r="AU204">
+        <v>3</v>
+      </c>
+      <c r="AV204">
+        <v>9</v>
+      </c>
+      <c r="AW204">
+        <v>18</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>29</v>
+      </c>
+      <c r="AZ204">
+        <v>14</v>
+      </c>
+      <c r="BA204">
+        <v>11</v>
+      </c>
+      <c r="BB204">
+        <v>3</v>
+      </c>
+      <c r="BC204">
+        <v>14</v>
+      </c>
+      <c r="BD204">
+        <v>1.79</v>
+      </c>
+      <c r="BE204">
+        <v>6.4</v>
+      </c>
+      <c r="BF204">
+        <v>2.23</v>
+      </c>
+      <c r="BG204">
+        <v>1.3</v>
+      </c>
+      <c r="BH204">
+        <v>3.05</v>
+      </c>
+      <c r="BI204">
+        <v>1.53</v>
+      </c>
+      <c r="BJ204">
+        <v>2.28</v>
+      </c>
+      <c r="BK204">
+        <v>1.86</v>
+      </c>
+      <c r="BL204">
+        <v>1.8</v>
+      </c>
+      <c r="BM204">
+        <v>2.35</v>
+      </c>
+      <c r="BN204">
+        <v>1.5</v>
+      </c>
+      <c r="BO204">
+        <v>3.05</v>
+      </c>
+      <c r="BP204">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -42935,10 +42935,10 @@
         <v>1</v>
       </c>
       <c r="BB202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD202">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['28', '34', '38', '76', '79']</t>
   </si>
   <si>
+    <t>['18', '22', '85']</t>
+  </si>
+  <si>
+    <t>['2', '69']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1001,6 +1007,12 @@
   </si>
   <si>
     <t>['12', '90+1']</t>
+  </si>
+  <si>
+    <t>['30', '35', '53', '78']</t>
+  </si>
+  <si>
+    <t>['4', '48', '51', '57', '60']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1633,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1699,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,7 +1839,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1905,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>1.41</v>
@@ -2239,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2320,7 +2332,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ5">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2445,7 +2457,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2526,7 +2538,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2651,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2857,7 +2869,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3269,7 +3281,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3475,7 +3487,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3681,7 +3693,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3965,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -4093,7 +4105,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4171,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4299,7 +4311,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4380,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4583,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
         <v>1.44</v>
@@ -4792,7 +4804,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ17">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4917,7 +4929,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5123,7 +5135,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5616,7 +5628,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ21">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5741,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5819,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -6025,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -6153,7 +6165,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6231,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ24">
         <v>1.18</v>
@@ -6359,7 +6371,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6440,7 +6452,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6643,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -6852,7 +6864,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ27">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6977,7 +6989,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7058,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7389,7 +7401,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7470,7 +7482,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7673,10 +7685,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -8291,7 +8303,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8497,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8625,7 +8637,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8831,7 +8843,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8909,7 +8921,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ37">
         <v>1.18</v>
@@ -9037,7 +9049,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9243,7 +9255,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9449,7 +9461,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9861,7 +9873,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10067,7 +10079,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10145,7 +10157,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>1.41</v>
@@ -10557,7 +10569,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10685,7 +10697,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10766,7 +10778,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10969,10 +10981,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -11175,10 +11187,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ48">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11384,7 +11396,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11509,7 +11521,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11715,7 +11727,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12002,7 +12014,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ52">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12205,7 +12217,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>1.24</v>
@@ -12539,7 +12551,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12617,7 +12629,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12745,7 +12757,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13238,7 +13250,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ58">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13444,7 +13456,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13647,7 +13659,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
         <v>1.24</v>
@@ -13775,7 +13787,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14062,7 +14074,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ62">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14187,7 +14199,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14268,7 +14280,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14393,7 +14405,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14599,7 +14611,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14883,7 +14895,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
         <v>0.9399999999999999</v>
@@ -15011,7 +15023,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15089,7 +15101,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67">
         <v>1.44</v>
@@ -15217,7 +15229,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15295,7 +15307,7 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15423,7 +15435,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15504,7 +15516,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.55</v>
@@ -15629,7 +15641,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15835,7 +15847,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -15913,10 +15925,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ71">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -16041,7 +16053,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16534,7 +16546,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ74">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16737,7 +16749,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16865,7 +16877,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16943,10 +16955,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ76">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17355,7 +17367,7 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ78">
         <v>0.71</v>
@@ -17564,7 +17576,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17895,7 +17907,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17973,10 +17985,10 @@
         <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR81">
         <v>0.99</v>
@@ -18101,7 +18113,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18307,7 +18319,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18513,7 +18525,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18925,7 +18937,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19006,7 +19018,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19131,7 +19143,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19418,7 +19430,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ88">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19621,7 +19633,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
         <v>1.41</v>
@@ -20033,7 +20045,7 @@
         <v>0.71</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ91">
         <v>0.71</v>
@@ -20239,7 +20251,7 @@
         <v>1.29</v>
       </c>
       <c r="AP92">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
         <v>1.18</v>
@@ -20573,7 +20585,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20651,10 +20663,10 @@
         <v>0.43</v>
       </c>
       <c r="AP94">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20779,7 +20791,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20860,7 +20872,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ95">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -21191,7 +21203,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21603,7 +21615,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21809,7 +21821,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22221,7 +22233,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22302,7 +22314,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ102">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR102">
         <v>1.93</v>
@@ -22427,7 +22439,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22505,10 +22517,10 @@
         <v>1.63</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ103">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22633,7 +22645,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22839,7 +22851,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -22917,10 +22929,10 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ105">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>0.93</v>
@@ -23126,7 +23138,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23251,7 +23263,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23457,7 +23469,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23535,7 +23547,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -23663,7 +23675,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23741,7 +23753,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23869,7 +23881,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23950,7 +23962,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ110">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24156,7 +24168,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ111">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR111">
         <v>1.84</v>
@@ -24565,7 +24577,7 @@
         <v>0.78</v>
       </c>
       <c r="AP113">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -24899,7 +24911,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24977,10 +24989,10 @@
         <v>1.56</v>
       </c>
       <c r="AP115">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
         <v>1.86</v>
@@ -25389,7 +25401,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -25517,7 +25529,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25723,7 +25735,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25801,7 +25813,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ119">
         <v>0.9399999999999999</v>
@@ -25929,7 +25941,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26010,7 +26022,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26341,7 +26353,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26547,7 +26559,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26625,10 +26637,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ123">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -26834,7 +26846,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ124">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR124">
         <v>1.92</v>
@@ -27243,10 +27255,10 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR126">
         <v>1.01</v>
@@ -27371,7 +27383,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27449,10 +27461,10 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27577,7 +27589,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27783,7 +27795,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27989,7 +28001,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28067,7 +28079,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ130">
         <v>1.24</v>
@@ -28195,7 +28207,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28607,7 +28619,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28813,7 +28825,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29019,7 +29031,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29097,10 +29109,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR135">
         <v>1.87</v>
@@ -29225,7 +29237,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29306,7 +29318,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ136">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>2.08</v>
@@ -29431,7 +29443,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29512,7 +29524,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ137">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR137">
         <v>1.97</v>
@@ -29637,7 +29649,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29718,7 +29730,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ138">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -29843,7 +29855,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -29921,7 +29933,7 @@
         <v>1.09</v>
       </c>
       <c r="AP139">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30333,7 +30345,7 @@
         <v>1.45</v>
       </c>
       <c r="AP141">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ141">
         <v>1.18</v>
@@ -30745,7 +30757,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31079,7 +31091,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31285,7 +31297,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31366,7 +31378,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR146">
         <v>1.86</v>
@@ -31569,7 +31581,7 @@
         <v>0.58</v>
       </c>
       <c r="AP147">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -31697,7 +31709,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31775,10 +31787,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ148">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR148">
         <v>1.86</v>
@@ -31984,7 +31996,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ149">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.79</v>
@@ -32109,7 +32121,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32190,7 +32202,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ150">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR150">
         <v>1.93</v>
@@ -32602,7 +32614,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ152">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR152">
         <v>1.84</v>
@@ -33139,7 +33151,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33217,7 +33229,7 @@
         <v>1.42</v>
       </c>
       <c r="AP155">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ155">
         <v>1.41</v>
@@ -33551,7 +33563,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33629,7 +33641,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
         <v>1.18</v>
@@ -33963,7 +33975,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34041,10 +34053,10 @@
         <v>0.31</v>
       </c>
       <c r="AP159">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -34247,10 +34259,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR160">
         <v>1.88</v>
@@ -34375,7 +34387,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34453,7 +34465,7 @@
         <v>1.46</v>
       </c>
       <c r="AP161">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
         <v>1.44</v>
@@ -34581,7 +34593,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34662,7 +34674,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ162">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR162">
         <v>1.73</v>
@@ -34787,7 +34799,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34993,7 +35005,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35199,7 +35211,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35277,7 +35289,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -35405,7 +35417,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35483,7 +35495,7 @@
         <v>1.31</v>
       </c>
       <c r="AP166">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ166">
         <v>1.18</v>
@@ -35692,7 +35704,7 @@
         <v>1</v>
       </c>
       <c r="AQ167">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR167">
         <v>1.48</v>
@@ -35817,7 +35829,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36023,7 +36035,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36101,10 +36113,10 @@
         <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ169">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR169">
         <v>1.99</v>
@@ -36641,7 +36653,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36719,7 +36731,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ172">
         <v>1.44</v>
@@ -36847,7 +36859,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36928,7 +36940,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR173">
         <v>1.3</v>
@@ -37053,7 +37065,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37259,7 +37271,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37465,7 +37477,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37671,7 +37683,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37749,7 +37761,7 @@
         <v>1.15</v>
       </c>
       <c r="AP177">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177">
         <v>1.24</v>
@@ -37877,7 +37889,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -37958,7 +37970,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ178">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR178">
         <v>1.69</v>
@@ -38083,7 +38095,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38161,7 +38173,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38370,7 +38382,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ180">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR180">
         <v>1.88</v>
@@ -38988,7 +39000,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ183">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR183">
         <v>1.82</v>
@@ -39397,7 +39409,7 @@
         <v>1.67</v>
       </c>
       <c r="AP185">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ185">
         <v>1.44</v>
@@ -40143,7 +40155,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40221,10 +40233,10 @@
         <v>0.87</v>
       </c>
       <c r="AP189">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -40349,7 +40361,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40427,10 +40439,10 @@
         <v>1.53</v>
       </c>
       <c r="AP190">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR190">
         <v>1.68</v>
@@ -40555,7 +40567,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40633,7 +40645,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ191">
         <v>1</v>
@@ -40967,7 +40979,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41254,7 +41266,7 @@
         <v>1</v>
       </c>
       <c r="AQ194">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR194">
         <v>1.45</v>
@@ -41663,10 +41675,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ196">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AR196">
         <v>1.93</v>
@@ -42490,7 +42502,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ200">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR200">
         <v>1.24</v>
@@ -42615,7 +42627,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43233,7 +43245,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43390,6 +43402,830 @@
       </c>
       <c r="BP204">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7886675</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F205">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>80</v>
+      </c>
+      <c r="H205" t="s">
+        <v>72</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>4</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205" t="s">
+        <v>127</v>
+      </c>
+      <c r="P205" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q205">
+        <v>1.91</v>
+      </c>
+      <c r="R205">
+        <v>2.75</v>
+      </c>
+      <c r="S205">
+        <v>5.5</v>
+      </c>
+      <c r="T205">
+        <v>1.22</v>
+      </c>
+      <c r="U205">
+        <v>4</v>
+      </c>
+      <c r="V205">
+        <v>2</v>
+      </c>
+      <c r="W205">
+        <v>1.73</v>
+      </c>
+      <c r="X205">
+        <v>4.33</v>
+      </c>
+      <c r="Y205">
+        <v>1.2</v>
+      </c>
+      <c r="Z205">
+        <v>1.41</v>
+      </c>
+      <c r="AA205">
+        <v>4.4</v>
+      </c>
+      <c r="AB205">
+        <v>5.4</v>
+      </c>
+      <c r="AC205">
+        <v>1.01</v>
+      </c>
+      <c r="AD205">
+        <v>17</v>
+      </c>
+      <c r="AE205">
+        <v>1.14</v>
+      </c>
+      <c r="AF205">
+        <v>5.5</v>
+      </c>
+      <c r="AG205">
+        <v>1.44</v>
+      </c>
+      <c r="AH205">
+        <v>2.67</v>
+      </c>
+      <c r="AI205">
+        <v>1.53</v>
+      </c>
+      <c r="AJ205">
+        <v>2.38</v>
+      </c>
+      <c r="AK205">
+        <v>1.14</v>
+      </c>
+      <c r="AL205">
+        <v>1.19</v>
+      </c>
+      <c r="AM205">
+        <v>2.5</v>
+      </c>
+      <c r="AN205">
+        <v>1.88</v>
+      </c>
+      <c r="AO205">
+        <v>0.59</v>
+      </c>
+      <c r="AP205">
+        <v>1.76</v>
+      </c>
+      <c r="AQ205">
+        <v>0.72</v>
+      </c>
+      <c r="AR205">
+        <v>1.9</v>
+      </c>
+      <c r="AS205">
+        <v>1.25</v>
+      </c>
+      <c r="AT205">
+        <v>3.15</v>
+      </c>
+      <c r="AU205">
+        <v>6</v>
+      </c>
+      <c r="AV205">
+        <v>8</v>
+      </c>
+      <c r="AW205">
+        <v>17</v>
+      </c>
+      <c r="AX205">
+        <v>8</v>
+      </c>
+      <c r="AY205">
+        <v>28</v>
+      </c>
+      <c r="AZ205">
+        <v>16</v>
+      </c>
+      <c r="BA205">
+        <v>7</v>
+      </c>
+      <c r="BB205">
+        <v>5</v>
+      </c>
+      <c r="BC205">
+        <v>12</v>
+      </c>
+      <c r="BD205">
+        <v>1.33</v>
+      </c>
+      <c r="BE205">
+        <v>7.5</v>
+      </c>
+      <c r="BF205">
+        <v>3.65</v>
+      </c>
+      <c r="BG205">
+        <v>1.22</v>
+      </c>
+      <c r="BH205">
+        <v>3.65</v>
+      </c>
+      <c r="BI205">
+        <v>1.4</v>
+      </c>
+      <c r="BJ205">
+        <v>2.65</v>
+      </c>
+      <c r="BK205">
+        <v>1.64</v>
+      </c>
+      <c r="BL205">
+        <v>2.07</v>
+      </c>
+      <c r="BM205">
+        <v>2</v>
+      </c>
+      <c r="BN205">
+        <v>1.68</v>
+      </c>
+      <c r="BO205">
+        <v>2.5</v>
+      </c>
+      <c r="BP205">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7886676</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F206">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>71</v>
+      </c>
+      <c r="H206" t="s">
+        <v>77</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>156</v>
+      </c>
+      <c r="P206" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q206">
+        <v>3.25</v>
+      </c>
+      <c r="R206">
+        <v>2.25</v>
+      </c>
+      <c r="S206">
+        <v>3.1</v>
+      </c>
+      <c r="T206">
+        <v>1.36</v>
+      </c>
+      <c r="U206">
+        <v>3</v>
+      </c>
+      <c r="V206">
+        <v>2.63</v>
+      </c>
+      <c r="W206">
+        <v>1.44</v>
+      </c>
+      <c r="X206">
+        <v>7</v>
+      </c>
+      <c r="Y206">
+        <v>1.1</v>
+      </c>
+      <c r="Z206">
+        <v>2.55</v>
+      </c>
+      <c r="AA206">
+        <v>3.04</v>
+      </c>
+      <c r="AB206">
+        <v>2.5</v>
+      </c>
+      <c r="AC206">
+        <v>1.05</v>
+      </c>
+      <c r="AD206">
+        <v>9.5</v>
+      </c>
+      <c r="AE206">
+        <v>1.28</v>
+      </c>
+      <c r="AF206">
+        <v>3.65</v>
+      </c>
+      <c r="AG206">
+        <v>1.8</v>
+      </c>
+      <c r="AH206">
+        <v>1.9</v>
+      </c>
+      <c r="AI206">
+        <v>1.67</v>
+      </c>
+      <c r="AJ206">
+        <v>2.1</v>
+      </c>
+      <c r="AK206">
+        <v>1.53</v>
+      </c>
+      <c r="AL206">
+        <v>1.28</v>
+      </c>
+      <c r="AM206">
+        <v>1.44</v>
+      </c>
+      <c r="AN206">
+        <v>1.31</v>
+      </c>
+      <c r="AO206">
+        <v>0.65</v>
+      </c>
+      <c r="AP206">
+        <v>1.29</v>
+      </c>
+      <c r="AQ206">
+        <v>0.67</v>
+      </c>
+      <c r="AR206">
+        <v>1.31</v>
+      </c>
+      <c r="AS206">
+        <v>1.46</v>
+      </c>
+      <c r="AT206">
+        <v>2.77</v>
+      </c>
+      <c r="AU206">
+        <v>5</v>
+      </c>
+      <c r="AV206">
+        <v>7</v>
+      </c>
+      <c r="AW206">
+        <v>10</v>
+      </c>
+      <c r="AX206">
+        <v>4</v>
+      </c>
+      <c r="AY206">
+        <v>21</v>
+      </c>
+      <c r="AZ206">
+        <v>13</v>
+      </c>
+      <c r="BA206">
+        <v>6</v>
+      </c>
+      <c r="BB206">
+        <v>7</v>
+      </c>
+      <c r="BC206">
+        <v>13</v>
+      </c>
+      <c r="BD206">
+        <v>2.4</v>
+      </c>
+      <c r="BE206">
+        <v>6.5</v>
+      </c>
+      <c r="BF206">
+        <v>1.7</v>
+      </c>
+      <c r="BG206">
+        <v>1.29</v>
+      </c>
+      <c r="BH206">
+        <v>3.15</v>
+      </c>
+      <c r="BI206">
+        <v>1.5</v>
+      </c>
+      <c r="BJ206">
+        <v>2.33</v>
+      </c>
+      <c r="BK206">
+        <v>1.83</v>
+      </c>
+      <c r="BL206">
+        <v>1.83</v>
+      </c>
+      <c r="BM206">
+        <v>2.3</v>
+      </c>
+      <c r="BN206">
+        <v>1.52</v>
+      </c>
+      <c r="BO206">
+        <v>2.95</v>
+      </c>
+      <c r="BP206">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7886677</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45787.54166666666</v>
+      </c>
+      <c r="F207">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s">
+        <v>81</v>
+      </c>
+      <c r="H207" t="s">
+        <v>78</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>230</v>
+      </c>
+      <c r="P207" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q207">
+        <v>2.5</v>
+      </c>
+      <c r="R207">
+        <v>2.3</v>
+      </c>
+      <c r="S207">
+        <v>4</v>
+      </c>
+      <c r="T207">
+        <v>1.33</v>
+      </c>
+      <c r="U207">
+        <v>3.25</v>
+      </c>
+      <c r="V207">
+        <v>2.5</v>
+      </c>
+      <c r="W207">
+        <v>1.5</v>
+      </c>
+      <c r="X207">
+        <v>6</v>
+      </c>
+      <c r="Y207">
+        <v>1.13</v>
+      </c>
+      <c r="Z207">
+        <v>1.74</v>
+      </c>
+      <c r="AA207">
+        <v>3.7</v>
+      </c>
+      <c r="AB207">
+        <v>3.62</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>10</v>
+      </c>
+      <c r="AE207">
+        <v>1.22</v>
+      </c>
+      <c r="AF207">
+        <v>4</v>
+      </c>
+      <c r="AG207">
+        <v>1.67</v>
+      </c>
+      <c r="AH207">
+        <v>2</v>
+      </c>
+      <c r="AI207">
+        <v>1.67</v>
+      </c>
+      <c r="AJ207">
+        <v>2.1</v>
+      </c>
+      <c r="AK207">
+        <v>1.26</v>
+      </c>
+      <c r="AL207">
+        <v>1.27</v>
+      </c>
+      <c r="AM207">
+        <v>1.85</v>
+      </c>
+      <c r="AN207">
+        <v>1.35</v>
+      </c>
+      <c r="AO207">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP207">
+        <v>1.44</v>
+      </c>
+      <c r="AQ207">
+        <v>0.89</v>
+      </c>
+      <c r="AR207">
+        <v>1.67</v>
+      </c>
+      <c r="AS207">
+        <v>1.27</v>
+      </c>
+      <c r="AT207">
+        <v>2.94</v>
+      </c>
+      <c r="AU207">
+        <v>6</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>12</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>21</v>
+      </c>
+      <c r="AZ207">
+        <v>8</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>6</v>
+      </c>
+      <c r="BC207">
+        <v>11</v>
+      </c>
+      <c r="BD207">
+        <v>1.6</v>
+      </c>
+      <c r="BE207">
+        <v>7</v>
+      </c>
+      <c r="BF207">
+        <v>2.55</v>
+      </c>
+      <c r="BG207">
+        <v>1.23</v>
+      </c>
+      <c r="BH207">
+        <v>3.55</v>
+      </c>
+      <c r="BI207">
+        <v>1.42</v>
+      </c>
+      <c r="BJ207">
+        <v>2.55</v>
+      </c>
+      <c r="BK207">
+        <v>1.68</v>
+      </c>
+      <c r="BL207">
+        <v>2.02</v>
+      </c>
+      <c r="BM207">
+        <v>2.05</v>
+      </c>
+      <c r="BN207">
+        <v>1.65</v>
+      </c>
+      <c r="BO207">
+        <v>2.55</v>
+      </c>
+      <c r="BP207">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7886678</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="F208">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>79</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>5</v>
+      </c>
+      <c r="N208">
+        <v>7</v>
+      </c>
+      <c r="O208" t="s">
+        <v>231</v>
+      </c>
+      <c r="P208" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q208">
+        <v>3</v>
+      </c>
+      <c r="R208">
+        <v>2.4</v>
+      </c>
+      <c r="S208">
+        <v>3</v>
+      </c>
+      <c r="T208">
+        <v>1.29</v>
+      </c>
+      <c r="U208">
+        <v>3.5</v>
+      </c>
+      <c r="V208">
+        <v>2.25</v>
+      </c>
+      <c r="W208">
+        <v>1.57</v>
+      </c>
+      <c r="X208">
+        <v>5.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.14</v>
+      </c>
+      <c r="Z208">
+        <v>2.27</v>
+      </c>
+      <c r="AA208">
+        <v>3.57</v>
+      </c>
+      <c r="AB208">
+        <v>2.51</v>
+      </c>
+      <c r="AC208">
+        <v>1.03</v>
+      </c>
+      <c r="AD208">
+        <v>11</v>
+      </c>
+      <c r="AE208">
+        <v>1.18</v>
+      </c>
+      <c r="AF208">
+        <v>4.75</v>
+      </c>
+      <c r="AG208">
+        <v>1.53</v>
+      </c>
+      <c r="AH208">
+        <v>2.25</v>
+      </c>
+      <c r="AI208">
+        <v>1.5</v>
+      </c>
+      <c r="AJ208">
+        <v>2.5</v>
+      </c>
+      <c r="AK208">
+        <v>1.5</v>
+      </c>
+      <c r="AL208">
+        <v>1.28</v>
+      </c>
+      <c r="AM208">
+        <v>1.49</v>
+      </c>
+      <c r="AN208">
+        <v>1.82</v>
+      </c>
+      <c r="AO208">
+        <v>1.63</v>
+      </c>
+      <c r="AP208">
+        <v>1.72</v>
+      </c>
+      <c r="AQ208">
+        <v>1.71</v>
+      </c>
+      <c r="AR208">
+        <v>1.94</v>
+      </c>
+      <c r="AS208">
+        <v>1.87</v>
+      </c>
+      <c r="AT208">
+        <v>3.81</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>8</v>
+      </c>
+      <c r="AW208">
+        <v>14</v>
+      </c>
+      <c r="AX208">
+        <v>7</v>
+      </c>
+      <c r="AY208">
+        <v>27</v>
+      </c>
+      <c r="AZ208">
+        <v>17</v>
+      </c>
+      <c r="BA208">
+        <v>5</v>
+      </c>
+      <c r="BB208">
+        <v>3</v>
+      </c>
+      <c r="BC208">
+        <v>8</v>
+      </c>
+      <c r="BD208">
+        <v>1.9</v>
+      </c>
+      <c r="BE208">
+        <v>6.5</v>
+      </c>
+      <c r="BF208">
+        <v>2.08</v>
+      </c>
+      <c r="BG208">
+        <v>1.26</v>
+      </c>
+      <c r="BH208">
+        <v>3.4</v>
+      </c>
+      <c r="BI208">
+        <v>1.46</v>
+      </c>
+      <c r="BJ208">
+        <v>2.45</v>
+      </c>
+      <c r="BK208">
+        <v>1.75</v>
+      </c>
+      <c r="BL208">
+        <v>1.91</v>
+      </c>
+      <c r="BM208">
+        <v>2.18</v>
+      </c>
+      <c r="BN208">
+        <v>1.58</v>
+      </c>
+      <c r="BO208">
+        <v>2.8</v>
+      </c>
+      <c r="BP208">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1374,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ8">
         <v>0.9399999999999999</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ12">
         <v>0.71</v>
@@ -4801,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -6449,7 +6449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ25">
         <v>1.71</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ27">
         <v>0.72</v>
@@ -10363,7 +10363,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -11393,7 +11393,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ49">
         <v>1.71</v>
@@ -11599,7 +11599,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -13247,7 +13247,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -14483,7 +14483,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -16131,7 +16131,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ72">
         <v>1.18</v>
@@ -17573,7 +17573,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
         <v>0.89</v>
@@ -18191,7 +18191,7 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ82">
         <v>1.41</v>
@@ -19221,7 +19221,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87">
         <v>0.9399999999999999</v>
@@ -21075,7 +21075,7 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ96">
         <v>1.24</v>
@@ -21899,7 +21899,7 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>1.24</v>
@@ -22311,7 +22311,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ102">
         <v>0.72</v>
@@ -24371,7 +24371,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -26225,7 +26225,7 @@
         <v>1.56</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ121">
         <v>1.41</v>
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -27049,7 +27049,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -29521,7 +29521,7 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ137">
         <v>1.71</v>
@@ -29727,7 +29727,7 @@
         <v>0.36</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ138">
         <v>0.72</v>
@@ -31993,7 +31993,7 @@
         <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -32199,7 +32199,7 @@
         <v>0.33</v>
       </c>
       <c r="AP150">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ150">
         <v>0.72</v>
@@ -34671,7 +34671,7 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ162">
         <v>1.71</v>
@@ -35083,7 +35083,7 @@
         <v>0.54</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ164">
         <v>0.71</v>
@@ -37555,7 +37555,7 @@
         <v>0.93</v>
       </c>
       <c r="AP176">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176">
         <v>0.9399999999999999</v>
@@ -38585,7 +38585,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -40851,7 +40851,7 @@
         <v>1.07</v>
       </c>
       <c r="AP192">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ192">
         <v>0.9399999999999999</v>
@@ -41469,7 +41469,7 @@
         <v>1.25</v>
       </c>
       <c r="AP195">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ195">
         <v>1.18</v>
@@ -43323,7 +43323,7 @@
         <v>1.13</v>
       </c>
       <c r="AP204">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ204">
         <v>1.24</v>
@@ -44226,6 +44226,418 @@
       </c>
       <c r="BP208">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7886679</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45788.38541666666</v>
+      </c>
+      <c r="F209">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
+        <v>75</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>123</v>
+      </c>
+      <c r="P209" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q209">
+        <v>3</v>
+      </c>
+      <c r="R209">
+        <v>2.3</v>
+      </c>
+      <c r="S209">
+        <v>3.2</v>
+      </c>
+      <c r="T209">
+        <v>1.3</v>
+      </c>
+      <c r="U209">
+        <v>3.4</v>
+      </c>
+      <c r="V209">
+        <v>2.5</v>
+      </c>
+      <c r="W209">
+        <v>1.5</v>
+      </c>
+      <c r="X209">
+        <v>6</v>
+      </c>
+      <c r="Y209">
+        <v>1.13</v>
+      </c>
+      <c r="Z209">
+        <v>2.36</v>
+      </c>
+      <c r="AA209">
+        <v>3.25</v>
+      </c>
+      <c r="AB209">
+        <v>2.58</v>
+      </c>
+      <c r="AC209">
+        <v>1.04</v>
+      </c>
+      <c r="AD209">
+        <v>10</v>
+      </c>
+      <c r="AE209">
+        <v>1.22</v>
+      </c>
+      <c r="AF209">
+        <v>4.2</v>
+      </c>
+      <c r="AG209">
+        <v>1.61</v>
+      </c>
+      <c r="AH209">
+        <v>2.05</v>
+      </c>
+      <c r="AI209">
+        <v>1.57</v>
+      </c>
+      <c r="AJ209">
+        <v>2.25</v>
+      </c>
+      <c r="AK209">
+        <v>1.44</v>
+      </c>
+      <c r="AL209">
+        <v>1.29</v>
+      </c>
+      <c r="AM209">
+        <v>1.52</v>
+      </c>
+      <c r="AN209">
+        <v>1.82</v>
+      </c>
+      <c r="AO209">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP209">
+        <v>1.78</v>
+      </c>
+      <c r="AQ209">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR209">
+        <v>1.75</v>
+      </c>
+      <c r="AS209">
+        <v>1.65</v>
+      </c>
+      <c r="AT209">
+        <v>3.4</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>6</v>
+      </c>
+      <c r="AW209">
+        <v>4</v>
+      </c>
+      <c r="AX209">
+        <v>9</v>
+      </c>
+      <c r="AY209">
+        <v>9</v>
+      </c>
+      <c r="AZ209">
+        <v>19</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>6</v>
+      </c>
+      <c r="BC209">
+        <v>12</v>
+      </c>
+      <c r="BD209">
+        <v>1.93</v>
+      </c>
+      <c r="BE209">
+        <v>6.5</v>
+      </c>
+      <c r="BF209">
+        <v>2.05</v>
+      </c>
+      <c r="BG209">
+        <v>1.25</v>
+      </c>
+      <c r="BH209">
+        <v>3.4</v>
+      </c>
+      <c r="BI209">
+        <v>1.45</v>
+      </c>
+      <c r="BJ209">
+        <v>2.48</v>
+      </c>
+      <c r="BK209">
+        <v>1.74</v>
+      </c>
+      <c r="BL209">
+        <v>1.93</v>
+      </c>
+      <c r="BM209">
+        <v>2.16</v>
+      </c>
+      <c r="BN209">
+        <v>1.58</v>
+      </c>
+      <c r="BO209">
+        <v>2.8</v>
+      </c>
+      <c r="BP209">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7886680</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F210">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210" t="s">
+        <v>83</v>
+      </c>
+      <c r="P210" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q210">
+        <v>2.75</v>
+      </c>
+      <c r="R210">
+        <v>2.4</v>
+      </c>
+      <c r="S210">
+        <v>3.25</v>
+      </c>
+      <c r="T210">
+        <v>1.29</v>
+      </c>
+      <c r="U210">
+        <v>3.5</v>
+      </c>
+      <c r="V210">
+        <v>2.25</v>
+      </c>
+      <c r="W210">
+        <v>1.57</v>
+      </c>
+      <c r="X210">
+        <v>5.5</v>
+      </c>
+      <c r="Y210">
+        <v>1.14</v>
+      </c>
+      <c r="Z210">
+        <v>2.2</v>
+      </c>
+      <c r="AA210">
+        <v>3.38</v>
+      </c>
+      <c r="AB210">
+        <v>2.71</v>
+      </c>
+      <c r="AC210">
+        <v>1.01</v>
+      </c>
+      <c r="AD210">
+        <v>13</v>
+      </c>
+      <c r="AE210">
+        <v>1.18</v>
+      </c>
+      <c r="AF210">
+        <v>4.75</v>
+      </c>
+      <c r="AG210">
+        <v>1.53</v>
+      </c>
+      <c r="AH210">
+        <v>2.25</v>
+      </c>
+      <c r="AI210">
+        <v>1.5</v>
+      </c>
+      <c r="AJ210">
+        <v>2.5</v>
+      </c>
+      <c r="AK210">
+        <v>1.4</v>
+      </c>
+      <c r="AL210">
+        <v>1.27</v>
+      </c>
+      <c r="AM210">
+        <v>1.6</v>
+      </c>
+      <c r="AN210">
+        <v>1.81</v>
+      </c>
+      <c r="AO210">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP210">
+        <v>1.76</v>
+      </c>
+      <c r="AQ210">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR210">
+        <v>1.9</v>
+      </c>
+      <c r="AS210">
+        <v>1.77</v>
+      </c>
+      <c r="AT210">
+        <v>3.67</v>
+      </c>
+      <c r="AU210">
+        <v>5</v>
+      </c>
+      <c r="AV210">
+        <v>9</v>
+      </c>
+      <c r="AW210">
+        <v>12</v>
+      </c>
+      <c r="AX210">
+        <v>14</v>
+      </c>
+      <c r="AY210">
+        <v>20</v>
+      </c>
+      <c r="AZ210">
+        <v>29</v>
+      </c>
+      <c r="BA210">
+        <v>7</v>
+      </c>
+      <c r="BB210">
+        <v>8</v>
+      </c>
+      <c r="BC210">
+        <v>15</v>
+      </c>
+      <c r="BD210">
+        <v>1.73</v>
+      </c>
+      <c r="BE210">
+        <v>7</v>
+      </c>
+      <c r="BF210">
+        <v>2.3</v>
+      </c>
+      <c r="BG210">
+        <v>1.13</v>
+      </c>
+      <c r="BH210">
+        <v>4.8</v>
+      </c>
+      <c r="BI210">
+        <v>1.25</v>
+      </c>
+      <c r="BJ210">
+        <v>3.4</v>
+      </c>
+      <c r="BK210">
+        <v>1.43</v>
+      </c>
+      <c r="BL210">
+        <v>2.55</v>
+      </c>
+      <c r="BM210">
+        <v>1.68</v>
+      </c>
+      <c r="BN210">
+        <v>2</v>
+      </c>
+      <c r="BO210">
+        <v>2.05</v>
+      </c>
+      <c r="BP210">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['28', '34', '38', '76', '79']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['18', '22', '85']</t>
   </si>
   <si>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1636,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1839,7 +1842,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ3">
         <v>1.41</v>
@@ -2251,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2457,7 +2460,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2663,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2869,7 +2872,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3281,7 +3284,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3487,7 +3490,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3693,7 +3696,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -4105,7 +4108,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4311,7 +4314,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4929,7 +4932,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5135,7 +5138,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5753,7 +5756,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5831,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -6165,7 +6168,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6371,7 +6374,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6989,7 +6992,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7401,7 +7404,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7685,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -8637,7 +8640,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8843,7 +8846,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9049,7 +9052,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9255,7 +9258,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9461,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9873,7 +9876,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10079,7 +10082,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10569,7 +10572,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10697,7 +10700,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -11521,7 +11524,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11727,7 +11730,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12551,7 +12554,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12757,7 +12760,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13659,7 +13662,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ60">
         <v>1.24</v>
@@ -13787,7 +13790,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14199,7 +14202,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14405,7 +14408,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14611,7 +14614,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -15023,7 +15026,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15229,7 +15232,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15307,7 +15310,7 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15435,7 +15438,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15641,7 +15644,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15847,7 +15850,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16053,7 +16056,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16877,7 +16880,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17907,7 +17910,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17985,7 +17988,7 @@
         <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -18113,7 +18116,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18319,7 +18322,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18525,7 +18528,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18937,7 +18940,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19143,7 +19146,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -20251,7 +20254,7 @@
         <v>1.29</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ92">
         <v>1.18</v>
@@ -20585,7 +20588,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20791,7 +20794,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21203,7 +21206,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21615,7 +21618,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21821,7 +21824,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22233,7 +22236,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22439,7 +22442,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22645,7 +22648,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22851,7 +22854,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -22929,7 +22932,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23263,7 +23266,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23469,7 +23472,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23675,7 +23678,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23881,7 +23884,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24911,7 +24914,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25401,7 +25404,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -25529,7 +25532,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25735,7 +25738,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25941,7 +25944,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26353,7 +26356,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26559,7 +26562,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27255,7 +27258,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ126">
         <v>0.72</v>
@@ -27383,7 +27386,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27589,7 +27592,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27795,7 +27798,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28001,7 +28004,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28207,7 +28210,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28619,7 +28622,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28825,7 +28828,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29031,7 +29034,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29237,7 +29240,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29443,7 +29446,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29649,7 +29652,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29855,7 +29858,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30757,7 +30760,7 @@
         <v>1.25</v>
       </c>
       <c r="AP143">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31091,7 +31094,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31297,7 +31300,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31709,7 +31712,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32121,7 +32124,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -33151,7 +33154,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33563,7 +33566,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33641,7 +33644,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ157">
         <v>1.18</v>
@@ -33975,7 +33978,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34053,7 +34056,7 @@
         <v>0.31</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ159">
         <v>0.72</v>
@@ -34387,7 +34390,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34593,7 +34596,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34799,7 +34802,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35005,7 +35008,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35211,7 +35214,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35417,7 +35420,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35829,7 +35832,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36035,7 +36038,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36653,7 +36656,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36859,7 +36862,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37065,7 +37068,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37271,7 +37274,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37477,7 +37480,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37683,7 +37686,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37761,7 +37764,7 @@
         <v>1.15</v>
       </c>
       <c r="AP177">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ177">
         <v>1.24</v>
@@ -37889,7 +37892,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38095,7 +38098,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -40155,7 +40158,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40233,7 +40236,7 @@
         <v>0.87</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ189">
         <v>0.89</v>
@@ -40361,7 +40364,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40567,7 +40570,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40979,7 +40982,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -42627,7 +42630,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43245,7 +43248,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43409,7 +43412,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>7886675</v>
+        <v>7886674</v>
       </c>
       <c r="C205" t="s">
         <v>68</v>
@@ -43418,193 +43421,193 @@
         <v>69</v>
       </c>
       <c r="E205" s="2">
-        <v>45787.54166666666</v>
+        <v>45783.58333333334</v>
       </c>
       <c r="F205">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" t="s">
         <v>80</v>
       </c>
-      <c r="H205" t="s">
-        <v>72</v>
-      </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>230</v>
+      </c>
+      <c r="P205" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q205">
+        <v>3.5</v>
+      </c>
+      <c r="R205">
+        <v>2.3</v>
+      </c>
+      <c r="S205">
+        <v>2.75</v>
+      </c>
+      <c r="T205">
+        <v>1.33</v>
+      </c>
+      <c r="U205">
+        <v>3.25</v>
+      </c>
+      <c r="V205">
+        <v>2.5</v>
+      </c>
+      <c r="W205">
+        <v>1.5</v>
+      </c>
+      <c r="X205">
+        <v>6</v>
+      </c>
+      <c r="Y205">
+        <v>1.13</v>
+      </c>
+      <c r="Z205">
+        <v>3.09</v>
+      </c>
+      <c r="AA205">
+        <v>3.6</v>
+      </c>
+      <c r="AB205">
+        <v>2.13</v>
+      </c>
+      <c r="AC205">
+        <v>1.04</v>
+      </c>
+      <c r="AD205">
+        <v>10</v>
+      </c>
+      <c r="AE205">
+        <v>1.22</v>
+      </c>
+      <c r="AF205">
+        <v>4.2</v>
+      </c>
+      <c r="AG205">
+        <v>1.65</v>
+      </c>
+      <c r="AH205">
+        <v>2.05</v>
+      </c>
+      <c r="AI205">
+        <v>1.62</v>
+      </c>
+      <c r="AJ205">
+        <v>2.2</v>
+      </c>
+      <c r="AK205">
+        <v>1.68</v>
+      </c>
+      <c r="AL205">
+        <v>1.27</v>
+      </c>
+      <c r="AM205">
+        <v>1.34</v>
+      </c>
+      <c r="AN205">
+        <v>1.31</v>
+      </c>
+      <c r="AO205">
+        <v>1</v>
+      </c>
+      <c r="AP205">
+        <v>1.28</v>
+      </c>
+      <c r="AQ205">
+        <v>1</v>
+      </c>
+      <c r="AR205">
+        <v>1.31</v>
+      </c>
+      <c r="AS205">
+        <v>1.43</v>
+      </c>
+      <c r="AT205">
+        <v>2.74</v>
+      </c>
+      <c r="AU205">
         <v>3</v>
       </c>
-      <c r="L205">
-        <v>1</v>
-      </c>
-      <c r="M205">
+      <c r="AV205">
         <v>4</v>
       </c>
-      <c r="N205">
-        <v>5</v>
-      </c>
-      <c r="O205" t="s">
-        <v>127</v>
-      </c>
-      <c r="P205" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q205">
-        <v>1.91</v>
-      </c>
-      <c r="R205">
-        <v>2.75</v>
-      </c>
-      <c r="S205">
-        <v>5.5</v>
-      </c>
-      <c r="T205">
-        <v>1.22</v>
-      </c>
-      <c r="U205">
-        <v>4</v>
-      </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
-      <c r="W205">
-        <v>1.73</v>
-      </c>
-      <c r="X205">
-        <v>4.33</v>
-      </c>
-      <c r="Y205">
-        <v>1.2</v>
-      </c>
-      <c r="Z205">
-        <v>1.41</v>
-      </c>
-      <c r="AA205">
-        <v>4.4</v>
-      </c>
-      <c r="AB205">
-        <v>5.4</v>
-      </c>
-      <c r="AC205">
-        <v>1.01</v>
-      </c>
-      <c r="AD205">
+      <c r="AW205">
+        <v>11</v>
+      </c>
+      <c r="AX205">
+        <v>7</v>
+      </c>
+      <c r="AY205">
         <v>17</v>
       </c>
-      <c r="AE205">
-        <v>1.14</v>
-      </c>
-      <c r="AF205">
-        <v>5.5</v>
-      </c>
-      <c r="AG205">
-        <v>1.44</v>
-      </c>
-      <c r="AH205">
-        <v>2.67</v>
-      </c>
-      <c r="AI205">
-        <v>1.53</v>
-      </c>
-      <c r="AJ205">
-        <v>2.38</v>
-      </c>
-      <c r="AK205">
-        <v>1.14</v>
-      </c>
-      <c r="AL205">
-        <v>1.19</v>
-      </c>
-      <c r="AM205">
-        <v>2.5</v>
-      </c>
-      <c r="AN205">
-        <v>1.88</v>
-      </c>
-      <c r="AO205">
-        <v>0.59</v>
-      </c>
-      <c r="AP205">
-        <v>1.76</v>
-      </c>
-      <c r="AQ205">
-        <v>0.72</v>
-      </c>
-      <c r="AR205">
-        <v>1.9</v>
-      </c>
-      <c r="AS205">
-        <v>1.25</v>
-      </c>
-      <c r="AT205">
-        <v>3.15</v>
-      </c>
-      <c r="AU205">
-        <v>6</v>
-      </c>
-      <c r="AV205">
-        <v>8</v>
-      </c>
-      <c r="AW205">
-        <v>17</v>
-      </c>
-      <c r="AX205">
-        <v>8</v>
-      </c>
-      <c r="AY205">
-        <v>28</v>
-      </c>
       <c r="AZ205">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA205">
         <v>7</v>
       </c>
       <c r="BB205">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC205">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD205">
-        <v>1.33</v>
+        <v>2.62</v>
       </c>
       <c r="BE205">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF205">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="BG205">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="BH205">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="BI205">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BJ205">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK205">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="BL205">
+        <v>2.11</v>
+      </c>
+      <c r="BM205">
         <v>2.07</v>
       </c>
-      <c r="BM205">
-        <v>2</v>
-      </c>
       <c r="BN205">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="BO205">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP205">
         <v>1.44</v>
@@ -43615,7 +43618,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7886676</v>
+        <v>7886675</v>
       </c>
       <c r="C206" t="s">
         <v>68</v>
@@ -43630,190 +43633,190 @@
         <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H206" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L206">
         <v>1</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O206" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="Q206">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="R206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S206">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T206">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V206">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W206">
+        <v>1.73</v>
+      </c>
+      <c r="X206">
+        <v>4.33</v>
+      </c>
+      <c r="Y206">
+        <v>1.2</v>
+      </c>
+      <c r="Z206">
+        <v>1.41</v>
+      </c>
+      <c r="AA206">
+        <v>4.4</v>
+      </c>
+      <c r="AB206">
+        <v>5.4</v>
+      </c>
+      <c r="AC206">
+        <v>1.01</v>
+      </c>
+      <c r="AD206">
+        <v>17</v>
+      </c>
+      <c r="AE206">
+        <v>1.14</v>
+      </c>
+      <c r="AF206">
+        <v>5.5</v>
+      </c>
+      <c r="AG206">
         <v>1.44</v>
       </c>
-      <c r="X206">
+      <c r="AH206">
+        <v>2.67</v>
+      </c>
+      <c r="AI206">
+        <v>1.53</v>
+      </c>
+      <c r="AJ206">
+        <v>2.38</v>
+      </c>
+      <c r="AK206">
+        <v>1.14</v>
+      </c>
+      <c r="AL206">
+        <v>1.19</v>
+      </c>
+      <c r="AM206">
+        <v>2.5</v>
+      </c>
+      <c r="AN206">
+        <v>1.88</v>
+      </c>
+      <c r="AO206">
+        <v>0.59</v>
+      </c>
+      <c r="AP206">
+        <v>1.76</v>
+      </c>
+      <c r="AQ206">
+        <v>0.72</v>
+      </c>
+      <c r="AR206">
+        <v>1.9</v>
+      </c>
+      <c r="AS206">
+        <v>1.25</v>
+      </c>
+      <c r="AT206">
+        <v>3.15</v>
+      </c>
+      <c r="AU206">
+        <v>6</v>
+      </c>
+      <c r="AV206">
+        <v>8</v>
+      </c>
+      <c r="AW206">
+        <v>17</v>
+      </c>
+      <c r="AX206">
+        <v>8</v>
+      </c>
+      <c r="AY206">
+        <v>28</v>
+      </c>
+      <c r="AZ206">
+        <v>16</v>
+      </c>
+      <c r="BA206">
         <v>7</v>
       </c>
-      <c r="Y206">
-        <v>1.1</v>
-      </c>
-      <c r="Z206">
-        <v>2.55</v>
-      </c>
-      <c r="AA206">
-        <v>3.04</v>
-      </c>
-      <c r="AB206">
+      <c r="BB206">
+        <v>5</v>
+      </c>
+      <c r="BC206">
+        <v>12</v>
+      </c>
+      <c r="BD206">
+        <v>1.33</v>
+      </c>
+      <c r="BE206">
+        <v>7.5</v>
+      </c>
+      <c r="BF206">
+        <v>3.65</v>
+      </c>
+      <c r="BG206">
+        <v>1.22</v>
+      </c>
+      <c r="BH206">
+        <v>3.65</v>
+      </c>
+      <c r="BI206">
+        <v>1.4</v>
+      </c>
+      <c r="BJ206">
+        <v>2.65</v>
+      </c>
+      <c r="BK206">
+        <v>1.64</v>
+      </c>
+      <c r="BL206">
+        <v>2.07</v>
+      </c>
+      <c r="BM206">
+        <v>2</v>
+      </c>
+      <c r="BN206">
+        <v>1.68</v>
+      </c>
+      <c r="BO206">
         <v>2.5</v>
       </c>
-      <c r="AC206">
-        <v>1.05</v>
-      </c>
-      <c r="AD206">
-        <v>9.5</v>
-      </c>
-      <c r="AE206">
-        <v>1.28</v>
-      </c>
-      <c r="AF206">
-        <v>3.65</v>
-      </c>
-      <c r="AG206">
-        <v>1.8</v>
-      </c>
-      <c r="AH206">
-        <v>1.9</v>
-      </c>
-      <c r="AI206">
-        <v>1.67</v>
-      </c>
-      <c r="AJ206">
-        <v>2.1</v>
-      </c>
-      <c r="AK206">
-        <v>1.53</v>
-      </c>
-      <c r="AL206">
-        <v>1.28</v>
-      </c>
-      <c r="AM206">
+      <c r="BP206">
         <v>1.44</v>
-      </c>
-      <c r="AN206">
-        <v>1.31</v>
-      </c>
-      <c r="AO206">
-        <v>0.65</v>
-      </c>
-      <c r="AP206">
-        <v>1.29</v>
-      </c>
-      <c r="AQ206">
-        <v>0.67</v>
-      </c>
-      <c r="AR206">
-        <v>1.31</v>
-      </c>
-      <c r="AS206">
-        <v>1.46</v>
-      </c>
-      <c r="AT206">
-        <v>2.77</v>
-      </c>
-      <c r="AU206">
-        <v>5</v>
-      </c>
-      <c r="AV206">
-        <v>7</v>
-      </c>
-      <c r="AW206">
-        <v>10</v>
-      </c>
-      <c r="AX206">
-        <v>4</v>
-      </c>
-      <c r="AY206">
-        <v>21</v>
-      </c>
-      <c r="AZ206">
-        <v>13</v>
-      </c>
-      <c r="BA206">
-        <v>6</v>
-      </c>
-      <c r="BB206">
-        <v>7</v>
-      </c>
-      <c r="BC206">
-        <v>13</v>
-      </c>
-      <c r="BD206">
-        <v>2.4</v>
-      </c>
-      <c r="BE206">
-        <v>6.5</v>
-      </c>
-      <c r="BF206">
-        <v>1.7</v>
-      </c>
-      <c r="BG206">
-        <v>1.29</v>
-      </c>
-      <c r="BH206">
-        <v>3.15</v>
-      </c>
-      <c r="BI206">
-        <v>1.5</v>
-      </c>
-      <c r="BJ206">
-        <v>2.33</v>
-      </c>
-      <c r="BK206">
-        <v>1.83</v>
-      </c>
-      <c r="BL206">
-        <v>1.83</v>
-      </c>
-      <c r="BM206">
-        <v>2.3</v>
-      </c>
-      <c r="BN206">
-        <v>1.52</v>
-      </c>
-      <c r="BO206">
-        <v>2.95</v>
-      </c>
-      <c r="BP206">
-        <v>1.33</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -43821,7 +43824,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7886677</v>
+        <v>7886676</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43836,88 +43839,88 @@
         <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>156</v>
+      </c>
+      <c r="P207" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q207">
+        <v>3.25</v>
+      </c>
+      <c r="R207">
+        <v>2.25</v>
+      </c>
+      <c r="S207">
+        <v>3.1</v>
+      </c>
+      <c r="T207">
+        <v>1.36</v>
+      </c>
+      <c r="U207">
         <v>3</v>
       </c>
-      <c r="M207">
-        <v>0</v>
-      </c>
-      <c r="N207">
-        <v>3</v>
-      </c>
-      <c r="O207" t="s">
-        <v>230</v>
-      </c>
-      <c r="P207" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q207">
+      <c r="V207">
+        <v>2.63</v>
+      </c>
+      <c r="W207">
+        <v>1.44</v>
+      </c>
+      <c r="X207">
+        <v>7</v>
+      </c>
+      <c r="Y207">
+        <v>1.1</v>
+      </c>
+      <c r="Z207">
+        <v>2.55</v>
+      </c>
+      <c r="AA207">
+        <v>3.04</v>
+      </c>
+      <c r="AB207">
         <v>2.5</v>
       </c>
-      <c r="R207">
-        <v>2.3</v>
-      </c>
-      <c r="S207">
-        <v>4</v>
-      </c>
-      <c r="T207">
-        <v>1.33</v>
-      </c>
-      <c r="U207">
-        <v>3.25</v>
-      </c>
-      <c r="V207">
-        <v>2.5</v>
-      </c>
-      <c r="W207">
-        <v>1.5</v>
-      </c>
-      <c r="X207">
-        <v>6</v>
-      </c>
-      <c r="Y207">
-        <v>1.13</v>
-      </c>
-      <c r="Z207">
-        <v>1.74</v>
-      </c>
-      <c r="AA207">
-        <v>3.7</v>
-      </c>
-      <c r="AB207">
-        <v>3.62</v>
-      </c>
       <c r="AC207">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD207">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE207">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF207">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AG207">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AH207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI207">
         <v>1.67</v>
@@ -43926,100 +43929,100 @@
         <v>2.1</v>
       </c>
       <c r="AK207">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="AL207">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM207">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AN207">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AO207">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AP207">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AQ207">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="AR207">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS207">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT207">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="AU207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV207">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW207">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX207">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY207">
         <v>21</v>
       </c>
       <c r="AZ207">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC207">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD207">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="BE207">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF207">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="BG207">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="BH207">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BI207">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BJ207">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BK207">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="BL207">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="BM207">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BN207">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BO207">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BP207">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -44027,7 +44030,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7886678</v>
+        <v>7886677</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -44036,196 +44039,196 @@
         <v>69</v>
       </c>
       <c r="E208" s="2">
-        <v>45787.64583333334</v>
+        <v>45787.54166666666</v>
       </c>
       <c r="F208">
         <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H208" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208">
         <v>2</v>
       </c>
       <c r="L208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N208">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O208" t="s">
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>332</v>
+        <v>83</v>
       </c>
       <c r="Q208">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R208">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T208">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U208">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W208">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y208">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z208">
-        <v>2.27</v>
+        <v>1.74</v>
       </c>
       <c r="AA208">
-        <v>3.57</v>
+        <v>3.7</v>
       </c>
       <c r="AB208">
-        <v>2.51</v>
+        <v>3.62</v>
       </c>
       <c r="AC208">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD208">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE208">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF208">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AG208">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AH208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AI208">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AJ208">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AK208">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AL208">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM208">
-        <v>1.49</v>
+        <v>1.85</v>
       </c>
       <c r="AN208">
-        <v>1.82</v>
+        <v>1.35</v>
       </c>
       <c r="AO208">
-        <v>1.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP208">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>0.89</v>
       </c>
       <c r="AR208">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="AS208">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="AT208">
-        <v>3.81</v>
+        <v>2.94</v>
       </c>
       <c r="AU208">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV208">
+        <v>2</v>
+      </c>
+      <c r="AW208">
+        <v>12</v>
+      </c>
+      <c r="AX208">
+        <v>6</v>
+      </c>
+      <c r="AY208">
+        <v>21</v>
+      </c>
+      <c r="AZ208">
         <v>8</v>
-      </c>
-      <c r="AW208">
-        <v>14</v>
-      </c>
-      <c r="AX208">
-        <v>7</v>
-      </c>
-      <c r="AY208">
-        <v>27</v>
-      </c>
-      <c r="AZ208">
-        <v>17</v>
       </c>
       <c r="BA208">
         <v>5</v>
       </c>
       <c r="BB208">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC208">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD208">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BE208">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF208">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BG208">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BH208">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BI208">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="BJ208">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BK208">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BL208">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="BM208">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="BN208">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BO208">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BP208">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44233,7 +44236,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>7886679</v>
+        <v>7886678</v>
       </c>
       <c r="C209" t="s">
         <v>68</v>
@@ -44242,187 +44245,187 @@
         <v>69</v>
       </c>
       <c r="E209" s="2">
-        <v>45788.38541666666</v>
+        <v>45787.64583333334</v>
       </c>
       <c r="F209">
         <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H209" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N209">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O209" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>3</v>
       </c>
       <c r="R209">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S209">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T209">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V209">
+        <v>2.25</v>
+      </c>
+      <c r="W209">
+        <v>1.57</v>
+      </c>
+      <c r="X209">
+        <v>5.5</v>
+      </c>
+      <c r="Y209">
+        <v>1.14</v>
+      </c>
+      <c r="Z209">
+        <v>2.27</v>
+      </c>
+      <c r="AA209">
+        <v>3.57</v>
+      </c>
+      <c r="AB209">
+        <v>2.51</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>11</v>
+      </c>
+      <c r="AE209">
+        <v>1.18</v>
+      </c>
+      <c r="AF209">
+        <v>4.75</v>
+      </c>
+      <c r="AG209">
+        <v>1.53</v>
+      </c>
+      <c r="AH209">
+        <v>2.25</v>
+      </c>
+      <c r="AI209">
+        <v>1.5</v>
+      </c>
+      <c r="AJ209">
         <v>2.5</v>
       </c>
-      <c r="W209">
+      <c r="AK209">
         <v>1.5</v>
       </c>
-      <c r="X209">
-        <v>6</v>
-      </c>
-      <c r="Y209">
-        <v>1.13</v>
-      </c>
-      <c r="Z209">
-        <v>2.36</v>
-      </c>
-      <c r="AA209">
-        <v>3.25</v>
-      </c>
-      <c r="AB209">
-        <v>2.58</v>
-      </c>
-      <c r="AC209">
-        <v>1.04</v>
-      </c>
-      <c r="AD209">
-        <v>10</v>
-      </c>
-      <c r="AE209">
-        <v>1.22</v>
-      </c>
-      <c r="AF209">
-        <v>4.2</v>
-      </c>
-      <c r="AG209">
-        <v>1.61</v>
-      </c>
-      <c r="AH209">
-        <v>2.05</v>
-      </c>
-      <c r="AI209">
-        <v>1.57</v>
-      </c>
-      <c r="AJ209">
-        <v>2.25</v>
-      </c>
-      <c r="AK209">
-        <v>1.44</v>
-      </c>
       <c r="AL209">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AM209">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AN209">
         <v>1.82</v>
       </c>
       <c r="AO209">
-        <v>0.9399999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="AP209">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AQ209">
-        <v>0.9399999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="AR209">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AS209">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AT209">
-        <v>3.4</v>
+        <v>3.81</v>
       </c>
       <c r="AU209">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV209">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW209">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AX209">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY209">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AZ209">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB209">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC209">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD209">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BE209">
         <v>6.5</v>
       </c>
       <c r="BF209">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BG209">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH209">
         <v>3.4</v>
       </c>
       <c r="BI209">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BJ209">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BK209">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="BL209">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="BM209">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="BN209">
         <v>1.58</v>
@@ -44439,7 +44442,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>7886680</v>
+        <v>7886679</v>
       </c>
       <c r="C210" t="s">
         <v>68</v>
@@ -44448,16 +44451,16 @@
         <v>69</v>
       </c>
       <c r="E210" s="2">
-        <v>45788.47916666666</v>
+        <v>45788.38541666666</v>
       </c>
       <c r="F210">
         <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H210" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -44469,174 +44472,380 @@
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O210" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="Q210">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R210">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S210">
+        <v>3.2</v>
+      </c>
+      <c r="T210">
+        <v>1.3</v>
+      </c>
+      <c r="U210">
+        <v>3.4</v>
+      </c>
+      <c r="V210">
+        <v>2.5</v>
+      </c>
+      <c r="W210">
+        <v>1.5</v>
+      </c>
+      <c r="X210">
+        <v>6</v>
+      </c>
+      <c r="Y210">
+        <v>1.13</v>
+      </c>
+      <c r="Z210">
+        <v>2.36</v>
+      </c>
+      <c r="AA210">
         <v>3.25</v>
       </c>
-      <c r="T210">
+      <c r="AB210">
+        <v>2.58</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>10</v>
+      </c>
+      <c r="AE210">
+        <v>1.22</v>
+      </c>
+      <c r="AF210">
+        <v>4.2</v>
+      </c>
+      <c r="AG210">
+        <v>1.61</v>
+      </c>
+      <c r="AH210">
+        <v>2.05</v>
+      </c>
+      <c r="AI210">
+        <v>1.57</v>
+      </c>
+      <c r="AJ210">
+        <v>2.25</v>
+      </c>
+      <c r="AK210">
+        <v>1.44</v>
+      </c>
+      <c r="AL210">
         <v>1.29</v>
       </c>
-      <c r="U210">
-        <v>3.5</v>
-      </c>
-      <c r="V210">
-        <v>2.25</v>
-      </c>
-      <c r="W210">
-        <v>1.57</v>
-      </c>
-      <c r="X210">
-        <v>5.5</v>
-      </c>
-      <c r="Y210">
-        <v>1.14</v>
-      </c>
-      <c r="Z210">
-        <v>2.2</v>
-      </c>
-      <c r="AA210">
-        <v>3.38</v>
-      </c>
-      <c r="AB210">
-        <v>2.71</v>
-      </c>
-      <c r="AC210">
-        <v>1.01</v>
-      </c>
-      <c r="AD210">
-        <v>13</v>
-      </c>
-      <c r="AE210">
-        <v>1.18</v>
-      </c>
-      <c r="AF210">
-        <v>4.75</v>
-      </c>
-      <c r="AG210">
-        <v>1.53</v>
-      </c>
-      <c r="AH210">
-        <v>2.25</v>
-      </c>
-      <c r="AI210">
-        <v>1.5</v>
-      </c>
-      <c r="AJ210">
-        <v>2.5</v>
-      </c>
-      <c r="AK210">
-        <v>1.4</v>
-      </c>
-      <c r="AL210">
-        <v>1.27</v>
-      </c>
       <c r="AM210">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AN210">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AO210">
         <v>0.9399999999999999</v>
       </c>
       <c r="AP210">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
       </c>
       <c r="AR210">
+        <v>1.75</v>
+      </c>
+      <c r="AS210">
+        <v>1.65</v>
+      </c>
+      <c r="AT210">
+        <v>3.4</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>6</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>9</v>
+      </c>
+      <c r="AY210">
+        <v>9</v>
+      </c>
+      <c r="AZ210">
+        <v>19</v>
+      </c>
+      <c r="BA210">
+        <v>6</v>
+      </c>
+      <c r="BB210">
+        <v>6</v>
+      </c>
+      <c r="BC210">
+        <v>12</v>
+      </c>
+      <c r="BD210">
+        <v>1.93</v>
+      </c>
+      <c r="BE210">
+        <v>6.5</v>
+      </c>
+      <c r="BF210">
+        <v>2.05</v>
+      </c>
+      <c r="BG210">
+        <v>1.25</v>
+      </c>
+      <c r="BH210">
+        <v>3.4</v>
+      </c>
+      <c r="BI210">
+        <v>1.45</v>
+      </c>
+      <c r="BJ210">
+        <v>2.48</v>
+      </c>
+      <c r="BK210">
+        <v>1.74</v>
+      </c>
+      <c r="BL210">
+        <v>1.93</v>
+      </c>
+      <c r="BM210">
+        <v>2.16</v>
+      </c>
+      <c r="BN210">
+        <v>1.58</v>
+      </c>
+      <c r="BO210">
+        <v>2.8</v>
+      </c>
+      <c r="BP210">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7886680</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45788.47916666666</v>
+      </c>
+      <c r="F211">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" t="s">
+        <v>73</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211" t="s">
+        <v>83</v>
+      </c>
+      <c r="P211" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q211">
+        <v>2.75</v>
+      </c>
+      <c r="R211">
+        <v>2.4</v>
+      </c>
+      <c r="S211">
+        <v>3.25</v>
+      </c>
+      <c r="T211">
+        <v>1.29</v>
+      </c>
+      <c r="U211">
+        <v>3.5</v>
+      </c>
+      <c r="V211">
+        <v>2.25</v>
+      </c>
+      <c r="W211">
+        <v>1.57</v>
+      </c>
+      <c r="X211">
+        <v>5.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.14</v>
+      </c>
+      <c r="Z211">
+        <v>2.2</v>
+      </c>
+      <c r="AA211">
+        <v>3.38</v>
+      </c>
+      <c r="AB211">
+        <v>2.71</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
+        <v>13</v>
+      </c>
+      <c r="AE211">
+        <v>1.18</v>
+      </c>
+      <c r="AF211">
+        <v>4.75</v>
+      </c>
+      <c r="AG211">
+        <v>1.53</v>
+      </c>
+      <c r="AH211">
+        <v>2.25</v>
+      </c>
+      <c r="AI211">
+        <v>1.5</v>
+      </c>
+      <c r="AJ211">
+        <v>2.5</v>
+      </c>
+      <c r="AK211">
+        <v>1.4</v>
+      </c>
+      <c r="AL211">
+        <v>1.27</v>
+      </c>
+      <c r="AM211">
+        <v>1.6</v>
+      </c>
+      <c r="AN211">
+        <v>1.81</v>
+      </c>
+      <c r="AO211">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP211">
+        <v>1.76</v>
+      </c>
+      <c r="AQ211">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR211">
         <v>1.9</v>
       </c>
-      <c r="AS210">
+      <c r="AS211">
         <v>1.77</v>
       </c>
-      <c r="AT210">
+      <c r="AT211">
         <v>3.67</v>
       </c>
-      <c r="AU210">
+      <c r="AU211">
         <v>5</v>
       </c>
-      <c r="AV210">
+      <c r="AV211">
         <v>9</v>
       </c>
-      <c r="AW210">
+      <c r="AW211">
         <v>12</v>
       </c>
-      <c r="AX210">
+      <c r="AX211">
         <v>14</v>
       </c>
-      <c r="AY210">
+      <c r="AY211">
         <v>20</v>
       </c>
-      <c r="AZ210">
+      <c r="AZ211">
         <v>29</v>
       </c>
-      <c r="BA210">
+      <c r="BA211">
         <v>7</v>
       </c>
-      <c r="BB210">
+      <c r="BB211">
         <v>8</v>
       </c>
-      <c r="BC210">
+      <c r="BC211">
         <v>15</v>
       </c>
-      <c r="BD210">
+      <c r="BD211">
         <v>1.73</v>
       </c>
-      <c r="BE210">
+      <c r="BE211">
         <v>7</v>
       </c>
-      <c r="BF210">
+      <c r="BF211">
         <v>2.3</v>
       </c>
-      <c r="BG210">
+      <c r="BG211">
         <v>1.13</v>
       </c>
-      <c r="BH210">
+      <c r="BH211">
         <v>4.8</v>
       </c>
-      <c r="BI210">
+      <c r="BI211">
         <v>1.25</v>
       </c>
-      <c r="BJ210">
+      <c r="BJ211">
         <v>3.4</v>
       </c>
-      <c r="BK210">
+      <c r="BK211">
         <v>1.43</v>
       </c>
-      <c r="BL210">
+      <c r="BL211">
         <v>2.55</v>
       </c>
-      <c r="BM210">
+      <c r="BM211">
         <v>1.68</v>
       </c>
-      <c r="BN210">
-        <v>2</v>
-      </c>
-      <c r="BO210">
+      <c r="BN211">
+        <v>2</v>
+      </c>
+      <c r="BO211">
         <v>2.05</v>
       </c>
-      <c r="BP210">
+      <c r="BP211">
         <v>1.65</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['2', '69']</t>
   </si>
   <si>
+    <t>['76', '78', '87', '90+1']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1016,6 +1019,9 @@
   </si>
   <si>
     <t>['4', '48', '51', '57', '60']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1642,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1842,7 +1848,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2254,7 +2260,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2460,7 +2466,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2666,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2872,7 +2878,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3156,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3284,7 +3290,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3490,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3696,7 +3702,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -4108,7 +4114,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4186,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ14">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4314,7 +4320,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4932,7 +4938,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5138,7 +5144,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5628,10 +5634,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ21">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5756,7 +5762,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6168,7 +6174,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6374,7 +6380,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -6867,7 +6873,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ27">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6992,7 +6998,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7404,7 +7410,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7482,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
         <v>1.71</v>
@@ -8512,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8640,7 +8646,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8846,7 +8852,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9052,7 +9058,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9258,7 +9264,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9464,7 +9470,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9748,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ41">
         <v>1.24</v>
@@ -9876,7 +9882,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10082,7 +10088,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10700,7 +10706,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10984,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -11193,7 +11199,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ48">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11524,7 +11530,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11730,7 +11736,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11808,7 +11814,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -12220,7 +12226,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ53">
         <v>1.24</v>
@@ -12554,7 +12560,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12760,7 +12766,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13459,7 +13465,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR59">
         <v>1.68</v>
@@ -13790,7 +13796,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14202,7 +14208,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14408,7 +14414,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14614,7 +14620,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14692,7 +14698,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15026,7 +15032,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15104,7 +15110,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ67">
         <v>1.44</v>
@@ -15232,7 +15238,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15438,7 +15444,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15644,7 +15650,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15722,7 +15728,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ70">
         <v>1.41</v>
@@ -15850,7 +15856,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -15931,7 +15937,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ71">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR71">
         <v>1.6</v>
@@ -16056,7 +16062,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16549,7 +16555,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ74">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR74">
         <v>1.69</v>
@@ -16752,7 +16758,7 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -16880,7 +16886,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17910,7 +17916,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18116,7 +18122,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18322,7 +18328,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18400,7 +18406,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18528,7 +18534,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18940,7 +18946,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19021,7 +19027,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19146,7 +19152,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -20588,7 +20594,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20666,7 +20672,7 @@
         <v>0.43</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
         <v>0.89</v>
@@ -20794,7 +20800,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21206,7 +21212,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21490,7 +21496,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21618,7 +21624,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21824,7 +21830,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22236,7 +22242,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22317,7 +22323,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ102">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR102">
         <v>1.93</v>
@@ -22442,7 +22448,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22648,7 +22654,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22854,7 +22860,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23266,7 +23272,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23472,7 +23478,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23678,7 +23684,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23756,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23884,7 +23890,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23962,7 +23968,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24171,7 +24177,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ111">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR111">
         <v>1.84</v>
@@ -24580,7 +24586,7 @@
         <v>0.78</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -24914,7 +24920,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25532,7 +25538,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25738,7 +25744,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25944,7 +25950,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26356,7 +26362,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26562,7 +26568,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27261,7 +27267,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ126">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR126">
         <v>1.01</v>
@@ -27386,7 +27392,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27464,7 +27470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ127">
         <v>1.71</v>
@@ -27592,7 +27598,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27798,7 +27804,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27876,7 +27882,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28004,7 +28010,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28210,7 +28216,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28622,7 +28628,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28828,7 +28834,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29034,7 +29040,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29240,7 +29246,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29446,7 +29452,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29652,7 +29658,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29733,7 +29739,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ138">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -29858,7 +29864,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -29936,7 +29942,7 @@
         <v>1.09</v>
       </c>
       <c r="AP139">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30142,7 +30148,7 @@
         <v>1.55</v>
       </c>
       <c r="AP140">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ140">
         <v>1.41</v>
@@ -31094,7 +31100,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31300,7 +31306,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31584,7 +31590,7 @@
         <v>0.58</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -31712,7 +31718,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32124,7 +32130,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32205,7 +32211,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ150">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR150">
         <v>1.93</v>
@@ -33154,7 +33160,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33566,7 +33572,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33978,7 +33984,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34059,7 +34065,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ159">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR159">
         <v>1.19</v>
@@ -34390,7 +34396,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34468,7 +34474,7 @@
         <v>1.46</v>
       </c>
       <c r="AP161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1.44</v>
@@ -34596,7 +34602,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34802,7 +34808,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34880,7 +34886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP163">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ163">
         <v>1.24</v>
@@ -35008,7 +35014,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35214,7 +35220,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35420,7 +35426,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35498,7 +35504,7 @@
         <v>1.31</v>
       </c>
       <c r="AP166">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
         <v>1.18</v>
@@ -35832,7 +35838,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36038,7 +36044,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36119,7 +36125,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ169">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR169">
         <v>1.99</v>
@@ -36528,7 +36534,7 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ171">
         <v>0.71</v>
@@ -36656,7 +36662,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36862,7 +36868,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37068,7 +37074,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37274,7 +37280,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37480,7 +37486,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37686,7 +37692,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37892,7 +37898,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -37970,10 +37976,10 @@
         <v>0.27</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ178">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR178">
         <v>1.69</v>
@@ -38098,7 +38104,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38176,7 +38182,7 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -40158,7 +40164,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40364,7 +40370,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40442,7 +40448,7 @@
         <v>1.53</v>
       </c>
       <c r="AP190">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ190">
         <v>1.71</v>
@@ -40570,7 +40576,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40982,7 +40988,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41060,7 +41066,7 @@
         <v>1.56</v>
       </c>
       <c r="AP193">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ193">
         <v>1.44</v>
@@ -41269,7 +41275,7 @@
         <v>1</v>
       </c>
       <c r="AQ194">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR194">
         <v>1.45</v>
@@ -42630,7 +42636,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42914,7 +42920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ202">
         <v>1.41</v>
@@ -43248,7 +43254,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43454,7 +43460,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43660,7 +43666,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43741,7 +43747,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ206">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR206">
         <v>1.9</v>
@@ -44150,7 +44156,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP208">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ208">
         <v>0.89</v>
@@ -44278,7 +44284,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44484,7 +44490,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44847,6 +44853,418 @@
       </c>
       <c r="BP211">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7886682</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45790.64583333334</v>
+      </c>
+      <c r="F212">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>81</v>
+      </c>
+      <c r="H212" t="s">
+        <v>72</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>4</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>5</v>
+      </c>
+      <c r="O212" t="s">
+        <v>233</v>
+      </c>
+      <c r="P212" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q212">
+        <v>1.95</v>
+      </c>
+      <c r="R212">
+        <v>2.5</v>
+      </c>
+      <c r="S212">
+        <v>4.75</v>
+      </c>
+      <c r="T212">
+        <v>1.25</v>
+      </c>
+      <c r="U212">
+        <v>3.55</v>
+      </c>
+      <c r="V212">
+        <v>2.2</v>
+      </c>
+      <c r="W212">
+        <v>1.6</v>
+      </c>
+      <c r="X212">
+        <v>4.7</v>
+      </c>
+      <c r="Y212">
+        <v>1.12</v>
+      </c>
+      <c r="Z212">
+        <v>1.46</v>
+      </c>
+      <c r="AA212">
+        <v>4.4</v>
+      </c>
+      <c r="AB212">
+        <v>4.8</v>
+      </c>
+      <c r="AC212">
+        <v>1.03</v>
+      </c>
+      <c r="AD212">
+        <v>11</v>
+      </c>
+      <c r="AE212">
+        <v>1.14</v>
+      </c>
+      <c r="AF212">
+        <v>5.2</v>
+      </c>
+      <c r="AG212">
+        <v>1.52</v>
+      </c>
+      <c r="AH212">
+        <v>2.43</v>
+      </c>
+      <c r="AI212">
+        <v>1.62</v>
+      </c>
+      <c r="AJ212">
+        <v>2.1</v>
+      </c>
+      <c r="AK212">
+        <v>1.15</v>
+      </c>
+      <c r="AL212">
+        <v>1.15</v>
+      </c>
+      <c r="AM212">
+        <v>2.4</v>
+      </c>
+      <c r="AN212">
+        <v>1.44</v>
+      </c>
+      <c r="AO212">
+        <v>0.72</v>
+      </c>
+      <c r="AP212">
+        <v>1.53</v>
+      </c>
+      <c r="AQ212">
+        <v>0.68</v>
+      </c>
+      <c r="AR212">
+        <v>1.69</v>
+      </c>
+      <c r="AS212">
+        <v>1.28</v>
+      </c>
+      <c r="AT212">
+        <v>2.97</v>
+      </c>
+      <c r="AU212">
+        <v>9</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>15</v>
+      </c>
+      <c r="AX212">
+        <v>8</v>
+      </c>
+      <c r="AY212">
+        <v>27</v>
+      </c>
+      <c r="AZ212">
+        <v>18</v>
+      </c>
+      <c r="BA212">
+        <v>8</v>
+      </c>
+      <c r="BB212">
+        <v>7</v>
+      </c>
+      <c r="BC212">
+        <v>15</v>
+      </c>
+      <c r="BD212">
+        <v>1.29</v>
+      </c>
+      <c r="BE212">
+        <v>8</v>
+      </c>
+      <c r="BF212">
+        <v>3.9</v>
+      </c>
+      <c r="BG212">
+        <v>1.22</v>
+      </c>
+      <c r="BH212">
+        <v>3.65</v>
+      </c>
+      <c r="BI212">
+        <v>1.4</v>
+      </c>
+      <c r="BJ212">
+        <v>2.65</v>
+      </c>
+      <c r="BK212">
+        <v>1.65</v>
+      </c>
+      <c r="BL212">
+        <v>2.05</v>
+      </c>
+      <c r="BM212">
+        <v>2.02</v>
+      </c>
+      <c r="BN212">
+        <v>1.68</v>
+      </c>
+      <c r="BO212">
+        <v>2.55</v>
+      </c>
+      <c r="BP212">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7886681</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45790.64583333334</v>
+      </c>
+      <c r="F213">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>77</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>199</v>
+      </c>
+      <c r="P213" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q213">
+        <v>2.9</v>
+      </c>
+      <c r="R213">
+        <v>2.15</v>
+      </c>
+      <c r="S213">
+        <v>3.2</v>
+      </c>
+      <c r="T213">
+        <v>1.33</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.45</v>
+      </c>
+      <c r="W213">
+        <v>1.48</v>
+      </c>
+      <c r="X213">
+        <v>5.75</v>
+      </c>
+      <c r="Y213">
+        <v>1.07</v>
+      </c>
+      <c r="Z213">
+        <v>2.34</v>
+      </c>
+      <c r="AA213">
+        <v>3.21</v>
+      </c>
+      <c r="AB213">
+        <v>2.63</v>
+      </c>
+      <c r="AC213">
+        <v>1.05</v>
+      </c>
+      <c r="AD213">
+        <v>9.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.21</v>
+      </c>
+      <c r="AF213">
+        <v>4.08</v>
+      </c>
+      <c r="AG213">
+        <v>1.67</v>
+      </c>
+      <c r="AH213">
+        <v>2</v>
+      </c>
+      <c r="AI213">
+        <v>1.55</v>
+      </c>
+      <c r="AJ213">
+        <v>2.25</v>
+      </c>
+      <c r="AK213">
+        <v>1.42</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.53</v>
+      </c>
+      <c r="AN213">
+        <v>1.65</v>
+      </c>
+      <c r="AO213">
+        <v>1</v>
+      </c>
+      <c r="AP213">
+        <v>1.61</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.63</v>
+      </c>
+      <c r="AS213">
+        <v>1.43</v>
+      </c>
+      <c r="AT213">
+        <v>3.06</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>4</v>
+      </c>
+      <c r="AW213">
+        <v>7</v>
+      </c>
+      <c r="AX213">
+        <v>7</v>
+      </c>
+      <c r="AY213">
+        <v>12</v>
+      </c>
+      <c r="AZ213">
+        <v>12</v>
+      </c>
+      <c r="BA213">
+        <v>1</v>
+      </c>
+      <c r="BB213">
+        <v>1</v>
+      </c>
+      <c r="BC213">
+        <v>2</v>
+      </c>
+      <c r="BD213">
+        <v>2.09</v>
+      </c>
+      <c r="BE213">
+        <v>6.6</v>
+      </c>
+      <c r="BF213">
+        <v>2.16</v>
+      </c>
+      <c r="BG213">
+        <v>1.17</v>
+      </c>
+      <c r="BH213">
+        <v>3.98</v>
+      </c>
+      <c r="BI213">
+        <v>1.35</v>
+      </c>
+      <c r="BJ213">
+        <v>2.74</v>
+      </c>
+      <c r="BK213">
+        <v>1.64</v>
+      </c>
+      <c r="BL213">
+        <v>2.07</v>
+      </c>
+      <c r="BM213">
+        <v>2.09</v>
+      </c>
+      <c r="BN213">
+        <v>1.66</v>
+      </c>
+      <c r="BO213">
+        <v>2.71</v>
+      </c>
+      <c r="BP213">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,12 @@
     <t>['76', '78', '87', '90+1']</t>
   </si>
   <si>
+    <t>['13', '78']</t>
+  </si>
+  <si>
+    <t>['7', '40', '45+2', '79', '82']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1022,6 +1028,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['19', '30', '55']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1651,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1848,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2260,7 +2269,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2466,7 +2475,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2544,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2672,7 +2681,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2878,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3290,7 +3299,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3368,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
         <v>1.18</v>
@@ -3496,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3702,7 +3711,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3783,7 +3792,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -4114,7 +4123,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4320,7 +4329,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4398,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4938,7 +4947,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5016,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5144,7 +5153,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5431,7 +5440,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5762,7 +5771,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6174,7 +6183,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6380,7 +6389,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6461,7 +6470,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ25">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6998,7 +7007,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7076,7 +7085,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -7285,7 +7294,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7410,7 +7419,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7491,7 +7500,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -8646,7 +8655,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8724,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ36">
         <v>1.24</v>
@@ -8852,7 +8861,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9058,7 +9067,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9136,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
         <v>1.44</v>
@@ -9264,7 +9273,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9470,7 +9479,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9548,10 +9557,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9882,7 +9891,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10088,7 +10097,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10706,7 +10715,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -11405,7 +11414,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11530,7 +11539,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11736,7 +11745,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11817,7 +11826,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -12560,7 +12569,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12766,7 +12775,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12844,7 +12853,7 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
         <v>1.41</v>
@@ -13462,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ59">
         <v>0.68</v>
@@ -13796,7 +13805,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14080,7 +14089,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ62">
         <v>0.89</v>
@@ -14208,7 +14217,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14289,7 +14298,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14414,7 +14423,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14495,7 +14504,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14620,7 +14629,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -15032,7 +15041,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15238,7 +15247,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15444,7 +15453,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15525,7 +15534,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR69">
         <v>1.55</v>
@@ -15650,7 +15659,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15856,7 +15865,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16062,7 +16071,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16346,7 +16355,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
         <v>1.24</v>
@@ -16886,7 +16895,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17170,7 +17179,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -17379,7 +17388,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ78">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR78">
         <v>1.74</v>
@@ -17916,7 +17925,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17997,7 +18006,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ81">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR81">
         <v>0.99</v>
@@ -18122,7 +18131,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18328,7 +18337,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18534,7 +18543,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18612,7 +18621,7 @@
         <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18946,7 +18955,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19024,7 +19033,7 @@
         <v>0.14</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ86">
         <v>0.68</v>
@@ -19152,7 +19161,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19436,7 +19445,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -20057,7 +20066,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.67</v>
@@ -20594,7 +20603,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20800,7 +20809,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21212,7 +21221,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21624,7 +21633,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21702,10 +21711,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.52</v>
@@ -21830,7 +21839,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22114,7 +22123,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ101">
         <v>1.41</v>
@@ -22242,7 +22251,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22448,7 +22457,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22529,7 +22538,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ103">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22654,7 +22663,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22860,7 +22869,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23272,7 +23281,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23478,7 +23487,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23684,7 +23693,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23890,7 +23899,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24589,7 +24598,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24792,7 +24801,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ114">
         <v>1.18</v>
@@ -24920,7 +24929,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25001,7 +25010,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR115">
         <v>1.86</v>
@@ -25204,7 +25213,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25538,7 +25547,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25744,7 +25753,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25950,7 +25959,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26362,7 +26371,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26440,7 +26449,7 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ122">
         <v>0.9399999999999999</v>
@@ -26568,7 +26577,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -27392,7 +27401,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27473,7 +27482,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27598,7 +27607,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27676,7 +27685,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ128">
         <v>0.9399999999999999</v>
@@ -27804,7 +27813,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28010,7 +28019,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28216,7 +28225,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28297,7 +28306,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ131">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>1.95</v>
@@ -28628,7 +28637,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28834,7 +28843,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -28912,10 +28921,10 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ134">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR134">
         <v>1.83</v>
@@ -29040,7 +29049,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29246,7 +29255,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29452,7 +29461,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29533,7 +29542,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ137">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR137">
         <v>1.97</v>
@@ -29658,7 +29667,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29864,7 +29873,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -31100,7 +31109,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31178,7 +31187,7 @@
         <v>1.18</v>
       </c>
       <c r="AP145">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31306,7 +31315,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31384,7 +31393,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ146">
         <v>0.89</v>
@@ -31593,7 +31602,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31718,7 +31727,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31799,7 +31808,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ148">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR148">
         <v>1.86</v>
@@ -32130,7 +32139,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -33032,7 +33041,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ154">
         <v>1.44</v>
@@ -33160,7 +33169,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33444,7 +33453,7 @@
         <v>0.83</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ156">
         <v>0.9399999999999999</v>
@@ -33572,7 +33581,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33984,7 +33993,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34396,7 +34405,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34602,7 +34611,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34683,7 +34692,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ162">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR162">
         <v>1.73</v>
@@ -34808,7 +34817,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35014,7 +35023,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35095,7 +35104,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ164">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR164">
         <v>1.99</v>
@@ -35220,7 +35229,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35426,7 +35435,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35710,7 +35719,7 @@
         <v>0.71</v>
       </c>
       <c r="AP167">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ167">
         <v>0.67</v>
@@ -35838,7 +35847,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36044,7 +36053,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36537,7 +36546,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ171">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36662,7 +36671,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36868,7 +36877,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36949,7 +36958,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR173">
         <v>1.3</v>
@@ -37074,7 +37083,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37152,7 +37161,7 @@
         <v>1.54</v>
       </c>
       <c r="AP174">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ174">
         <v>1.41</v>
@@ -37280,7 +37289,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37358,7 +37367,7 @@
         <v>1.21</v>
       </c>
       <c r="AP175">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ175">
         <v>1.18</v>
@@ -37486,7 +37495,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37692,7 +37701,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37898,7 +37907,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38104,7 +38113,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -39006,7 +39015,7 @@
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ183">
         <v>0.67</v>
@@ -39215,7 +39224,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ184">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR184">
         <v>2.01</v>
@@ -39830,7 +39839,7 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
         <v>1.18</v>
@@ -40164,7 +40173,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40370,7 +40379,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40451,7 +40460,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ190">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR190">
         <v>1.68</v>
@@ -40576,7 +40585,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40988,7 +40997,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41272,7 +41281,7 @@
         <v>0.44</v>
       </c>
       <c r="AP194">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ194">
         <v>0.68</v>
@@ -41893,7 +41902,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -42096,7 +42105,7 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ198">
         <v>1.24</v>
@@ -42636,7 +42645,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42714,7 +42723,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43254,7 +43263,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43460,7 +43469,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43666,7 +43675,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44284,7 +44293,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44365,7 +44374,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ209">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR209">
         <v>1.94</v>
@@ -44490,7 +44499,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44902,7 +44911,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>1.95</v>
@@ -45108,7 +45117,7 @@
         <v>199</v>
       </c>
       <c r="P213" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q213">
         <v>2.9</v>
@@ -45265,6 +45274,418 @@
       </c>
       <c r="BP213">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7886683</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45791.64583333334</v>
+      </c>
+      <c r="F214">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>79</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="O214" t="s">
+        <v>234</v>
+      </c>
+      <c r="P214" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q214">
+        <v>2.85</v>
+      </c>
+      <c r="R214">
+        <v>2.3</v>
+      </c>
+      <c r="S214">
+        <v>3</v>
+      </c>
+      <c r="T214">
+        <v>1.25</v>
+      </c>
+      <c r="U214">
+        <v>3.45</v>
+      </c>
+      <c r="V214">
+        <v>2.2</v>
+      </c>
+      <c r="W214">
+        <v>1.6</v>
+      </c>
+      <c r="X214">
+        <v>4.65</v>
+      </c>
+      <c r="Y214">
+        <v>1.12</v>
+      </c>
+      <c r="Z214">
+        <v>2.61</v>
+      </c>
+      <c r="AA214">
+        <v>3.3</v>
+      </c>
+      <c r="AB214">
+        <v>2.3</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>10</v>
+      </c>
+      <c r="AE214">
+        <v>1.18</v>
+      </c>
+      <c r="AF214">
+        <v>4.75</v>
+      </c>
+      <c r="AG214">
+        <v>1.5</v>
+      </c>
+      <c r="AH214">
+        <v>2.48</v>
+      </c>
+      <c r="AI214">
+        <v>1.45</v>
+      </c>
+      <c r="AJ214">
+        <v>2.5</v>
+      </c>
+      <c r="AK214">
+        <v>1.45</v>
+      </c>
+      <c r="AL214">
+        <v>1.22</v>
+      </c>
+      <c r="AM214">
+        <v>1.55</v>
+      </c>
+      <c r="AN214">
+        <v>1.94</v>
+      </c>
+      <c r="AO214">
+        <v>1.71</v>
+      </c>
+      <c r="AP214">
+        <v>1.84</v>
+      </c>
+      <c r="AQ214">
+        <v>1.78</v>
+      </c>
+      <c r="AR214">
+        <v>1.85</v>
+      </c>
+      <c r="AS214">
+        <v>1.86</v>
+      </c>
+      <c r="AT214">
+        <v>3.71</v>
+      </c>
+      <c r="AU214">
+        <v>5</v>
+      </c>
+      <c r="AV214">
+        <v>7</v>
+      </c>
+      <c r="AW214">
+        <v>15</v>
+      </c>
+      <c r="AX214">
+        <v>10</v>
+      </c>
+      <c r="AY214">
+        <v>29</v>
+      </c>
+      <c r="AZ214">
+        <v>20</v>
+      </c>
+      <c r="BA214">
+        <v>5</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>9</v>
+      </c>
+      <c r="BD214">
+        <v>1.74</v>
+      </c>
+      <c r="BE214">
+        <v>6.75</v>
+      </c>
+      <c r="BF214">
+        <v>2.3</v>
+      </c>
+      <c r="BG214">
+        <v>1.2</v>
+      </c>
+      <c r="BH214">
+        <v>3.8</v>
+      </c>
+      <c r="BI214">
+        <v>1.38</v>
+      </c>
+      <c r="BJ214">
+        <v>2.7</v>
+      </c>
+      <c r="BK214">
+        <v>1.63</v>
+      </c>
+      <c r="BL214">
+        <v>2.08</v>
+      </c>
+      <c r="BM214">
+        <v>2</v>
+      </c>
+      <c r="BN214">
+        <v>1.7</v>
+      </c>
+      <c r="BO214">
+        <v>2.5</v>
+      </c>
+      <c r="BP214">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7886684</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45791.64583333334</v>
+      </c>
+      <c r="F215">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>78</v>
+      </c>
+      <c r="H215" t="s">
+        <v>71</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>5</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>235</v>
+      </c>
+      <c r="P215" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q215">
+        <v>2.85</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>3.55</v>
+      </c>
+      <c r="T215">
+        <v>1.4</v>
+      </c>
+      <c r="U215">
+        <v>2.75</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.4</v>
+      </c>
+      <c r="X215">
+        <v>8</v>
+      </c>
+      <c r="Y215">
+        <v>1.08</v>
+      </c>
+      <c r="Z215">
+        <v>2.21</v>
+      </c>
+      <c r="AA215">
+        <v>3.01</v>
+      </c>
+      <c r="AB215">
+        <v>2.99</v>
+      </c>
+      <c r="AC215">
+        <v>1.07</v>
+      </c>
+      <c r="AD215">
+        <v>8</v>
+      </c>
+      <c r="AE215">
+        <v>1.36</v>
+      </c>
+      <c r="AF215">
+        <v>3.1</v>
+      </c>
+      <c r="AG215">
+        <v>1.95</v>
+      </c>
+      <c r="AH215">
+        <v>1.75</v>
+      </c>
+      <c r="AI215">
+        <v>1.77</v>
+      </c>
+      <c r="AJ215">
+        <v>1.91</v>
+      </c>
+      <c r="AK215">
+        <v>1.35</v>
+      </c>
+      <c r="AL215">
+        <v>1.3</v>
+      </c>
+      <c r="AM215">
+        <v>1.57</v>
+      </c>
+      <c r="AN215">
+        <v>1</v>
+      </c>
+      <c r="AO215">
+        <v>0.71</v>
+      </c>
+      <c r="AP215">
+        <v>1.11</v>
+      </c>
+      <c r="AQ215">
+        <v>0.67</v>
+      </c>
+      <c r="AR215">
+        <v>1.45</v>
+      </c>
+      <c r="AS215">
+        <v>1.26</v>
+      </c>
+      <c r="AT215">
+        <v>2.71</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>2</v>
+      </c>
+      <c r="AW215">
+        <v>8</v>
+      </c>
+      <c r="AX215">
+        <v>3</v>
+      </c>
+      <c r="AY215">
+        <v>14</v>
+      </c>
+      <c r="AZ215">
+        <v>5</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>4</v>
+      </c>
+      <c r="BD215">
+        <v>1.7</v>
+      </c>
+      <c r="BE215">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF215">
+        <v>2.61</v>
+      </c>
+      <c r="BG215">
+        <v>1.18</v>
+      </c>
+      <c r="BH215">
+        <v>3.84</v>
+      </c>
+      <c r="BI215">
+        <v>1.38</v>
+      </c>
+      <c r="BJ215">
+        <v>2.71</v>
+      </c>
+      <c r="BK215">
+        <v>1.69</v>
+      </c>
+      <c r="BL215">
+        <v>2.04</v>
+      </c>
+      <c r="BM215">
+        <v>2.12</v>
+      </c>
+      <c r="BN215">
+        <v>1.61</v>
+      </c>
+      <c r="BO215">
+        <v>2.74</v>
+      </c>
+      <c r="BP215">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['7', '40', '45+2', '79', '82']</t>
   </si>
   <si>
+    <t>['9', '38', '84', '90']</t>
+  </si>
+  <si>
+    <t>['42', '90+1']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1031,6 +1037,12 @@
   </si>
   <si>
     <t>['19', '30', '55']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1857,7 +1869,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2269,7 +2281,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2347,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2475,7 +2487,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2681,7 +2693,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2887,7 +2899,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2965,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>0.9399999999999999</v>
@@ -3299,7 +3311,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3380,7 +3392,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3505,7 +3517,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3586,7 +3598,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ11">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3711,7 +3723,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3789,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
         <v>0.67</v>
@@ -4123,7 +4135,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4329,7 +4341,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4947,7 +4959,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5153,7 +5165,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5231,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ19">
         <v>1.41</v>
@@ -5771,7 +5783,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6183,7 +6195,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6264,7 +6276,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ24">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -6389,7 +6401,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6467,7 +6479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>1.78</v>
@@ -7007,7 +7019,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7419,7 +7431,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7909,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8530,7 +8542,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8655,7 +8667,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8736,7 +8748,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ36">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8861,7 +8873,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8942,7 +8954,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.76</v>
@@ -9067,7 +9079,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9273,7 +9285,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9479,7 +9491,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9766,7 +9778,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ41">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9891,7 +9903,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10097,7 +10109,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10381,7 +10393,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10715,7 +10727,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10793,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
         <v>0.89</v>
@@ -11539,7 +11551,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11745,7 +11757,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12238,7 +12250,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ53">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12569,7 +12581,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12775,7 +12787,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13059,10 +13071,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ57">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13265,7 +13277,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13680,7 +13692,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13805,7 +13817,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14217,7 +14229,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14423,7 +14435,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14629,7 +14641,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -15041,7 +15053,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15247,7 +15259,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15453,7 +15465,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15531,7 +15543,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ69">
         <v>1.78</v>
@@ -15659,7 +15671,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15865,7 +15877,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16071,7 +16083,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16149,10 +16161,10 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16358,7 +16370,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ73">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.54</v>
@@ -16895,7 +16907,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17925,7 +17937,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18131,7 +18143,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18209,7 +18221,7 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
         <v>1.41</v>
@@ -18337,7 +18349,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18418,7 +18430,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18543,7 +18555,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18827,10 +18839,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18955,7 +18967,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19161,7 +19173,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -20272,7 +20284,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ92">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR92">
         <v>0.95</v>
@@ -20603,7 +20615,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20809,7 +20821,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21093,10 +21105,10 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21221,7 +21233,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21299,7 +21311,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21633,7 +21645,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21839,7 +21851,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21920,7 +21932,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -22251,7 +22263,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22329,7 +22341,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ102">
         <v>0.68</v>
@@ -22457,7 +22469,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22663,7 +22675,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22744,7 +22756,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ104">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -22869,7 +22881,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23281,7 +23293,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23359,7 +23371,7 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -23487,7 +23499,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23693,7 +23705,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23899,7 +23911,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24183,7 +24195,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ111">
         <v>0.68</v>
@@ -24389,7 +24401,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24804,7 +24816,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ114">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -24929,7 +24941,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25547,7 +25559,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25628,7 +25640,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25753,7 +25765,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25959,7 +25971,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26371,7 +26383,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26577,7 +26589,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26861,7 +26873,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>0.89</v>
@@ -27401,7 +27413,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27607,7 +27619,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27813,7 +27825,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28019,7 +28031,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28100,7 +28112,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ130">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28225,7 +28237,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28303,7 +28315,7 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ131">
         <v>0.67</v>
@@ -28512,7 +28524,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.81</v>
@@ -28637,7 +28649,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28843,7 +28855,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29049,7 +29061,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29255,7 +29267,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29333,7 +29345,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ136">
         <v>0.67</v>
@@ -29461,7 +29473,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29539,7 +29551,7 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ137">
         <v>1.78</v>
@@ -29667,7 +29679,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29873,7 +29885,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30366,7 +30378,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ141">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
         <v>1.98</v>
@@ -31109,7 +31121,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31315,7 +31327,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31727,7 +31739,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32139,7 +32151,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32217,7 +32229,7 @@
         <v>0.33</v>
       </c>
       <c r="AP150">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
         <v>0.68</v>
@@ -32423,10 +32435,10 @@
         <v>1.36</v>
       </c>
       <c r="AP151">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ151">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>2.1</v>
@@ -33169,7 +33181,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33581,7 +33593,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33662,7 +33674,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ157">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR157">
         <v>1.15</v>
@@ -33865,7 +33877,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -33993,7 +34005,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34405,7 +34417,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34611,7 +34623,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34817,7 +34829,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34898,7 +34910,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ163">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -35023,7 +35035,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35101,7 +35113,7 @@
         <v>0.54</v>
       </c>
       <c r="AP164">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ164">
         <v>0.67</v>
@@ -35229,7 +35241,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35435,7 +35447,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35516,7 +35528,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35847,7 +35859,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36053,7 +36065,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36337,7 +36349,7 @@
         <v>1.07</v>
       </c>
       <c r="AP170">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36671,7 +36683,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36877,7 +36889,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37083,7 +37095,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37289,7 +37301,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37370,7 +37382,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ175">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR175">
         <v>1.86</v>
@@ -37495,7 +37507,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37573,7 +37585,7 @@
         <v>0.93</v>
       </c>
       <c r="AP176">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ176">
         <v>0.9399999999999999</v>
@@ -37701,7 +37713,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37782,7 +37794,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ177">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.29</v>
@@ -37907,7 +37919,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38113,7 +38125,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -39221,7 +39233,7 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ184">
         <v>0.67</v>
@@ -39636,7 +39648,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ186">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR186">
         <v>1.88</v>
@@ -39842,7 +39854,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40173,7 +40185,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40379,7 +40391,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40585,7 +40597,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40997,7 +41009,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41487,10 +41499,10 @@
         <v>1.25</v>
       </c>
       <c r="AP195">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ195">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR195">
         <v>1.94</v>
@@ -42108,7 +42120,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ198">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR198">
         <v>1.84</v>
@@ -42311,7 +42323,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ199">
         <v>1.41</v>
@@ -42645,7 +42657,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43263,7 +43275,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43344,7 +43356,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ204">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -43469,7 +43481,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43675,7 +43687,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44293,7 +44305,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44499,7 +44511,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44783,7 +44795,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP211">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ211">
         <v>0.9399999999999999</v>
@@ -44911,7 +44923,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q212">
         <v>1.95</v>
@@ -45117,7 +45129,7 @@
         <v>199</v>
       </c>
       <c r="P213" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q213">
         <v>2.9</v>
@@ -45323,7 +45335,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45686,6 +45698,418 @@
       </c>
       <c r="BP215">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7886685</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="F216">
+        <v>36</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>3</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>236</v>
+      </c>
+      <c r="P216" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q216">
+        <v>2.6</v>
+      </c>
+      <c r="R216">
+        <v>2.2</v>
+      </c>
+      <c r="S216">
+        <v>3.55</v>
+      </c>
+      <c r="T216">
+        <v>1.3</v>
+      </c>
+      <c r="U216">
+        <v>3.2</v>
+      </c>
+      <c r="V216">
+        <v>2.4</v>
+      </c>
+      <c r="W216">
+        <v>1.5</v>
+      </c>
+      <c r="X216">
+        <v>5.3</v>
+      </c>
+      <c r="Y216">
+        <v>1.09</v>
+      </c>
+      <c r="Z216">
+        <v>1.82</v>
+      </c>
+      <c r="AA216">
+        <v>3.59</v>
+      </c>
+      <c r="AB216">
+        <v>3.45</v>
+      </c>
+      <c r="AC216">
+        <v>1.04</v>
+      </c>
+      <c r="AD216">
+        <v>10</v>
+      </c>
+      <c r="AE216">
+        <v>1.2</v>
+      </c>
+      <c r="AF216">
+        <v>4.33</v>
+      </c>
+      <c r="AG216">
+        <v>1.65</v>
+      </c>
+      <c r="AH216">
+        <v>2.05</v>
+      </c>
+      <c r="AI216">
+        <v>1.5</v>
+      </c>
+      <c r="AJ216">
+        <v>2.35</v>
+      </c>
+      <c r="AK216">
+        <v>1.35</v>
+      </c>
+      <c r="AL216">
+        <v>1.22</v>
+      </c>
+      <c r="AM216">
+        <v>1.67</v>
+      </c>
+      <c r="AN216">
+        <v>1.76</v>
+      </c>
+      <c r="AO216">
+        <v>1.24</v>
+      </c>
+      <c r="AP216">
+        <v>1.83</v>
+      </c>
+      <c r="AQ216">
+        <v>1.17</v>
+      </c>
+      <c r="AR216">
+        <v>1.89</v>
+      </c>
+      <c r="AS216">
+        <v>1.57</v>
+      </c>
+      <c r="AT216">
+        <v>3.46</v>
+      </c>
+      <c r="AU216">
+        <v>9</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>8</v>
+      </c>
+      <c r="AX216">
+        <v>7</v>
+      </c>
+      <c r="AY216">
+        <v>21</v>
+      </c>
+      <c r="AZ216">
+        <v>14</v>
+      </c>
+      <c r="BA216">
+        <v>10</v>
+      </c>
+      <c r="BB216">
+        <v>6</v>
+      </c>
+      <c r="BC216">
+        <v>16</v>
+      </c>
+      <c r="BD216">
+        <v>1.64</v>
+      </c>
+      <c r="BE216">
+        <v>6.75</v>
+      </c>
+      <c r="BF216">
+        <v>2.55</v>
+      </c>
+      <c r="BG216">
+        <v>1.3</v>
+      </c>
+      <c r="BH216">
+        <v>3.05</v>
+      </c>
+      <c r="BI216">
+        <v>1.52</v>
+      </c>
+      <c r="BJ216">
+        <v>2.3</v>
+      </c>
+      <c r="BK216">
+        <v>1.84</v>
+      </c>
+      <c r="BL216">
+        <v>1.82</v>
+      </c>
+      <c r="BM216">
+        <v>2.32</v>
+      </c>
+      <c r="BN216">
+        <v>1.52</v>
+      </c>
+      <c r="BO216">
+        <v>3</v>
+      </c>
+      <c r="BP216">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7886686</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="F217">
+        <v>36</v>
+      </c>
+      <c r="G217" t="s">
+        <v>73</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>3</v>
+      </c>
+      <c r="O217" t="s">
+        <v>237</v>
+      </c>
+      <c r="P217" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q217">
+        <v>2.15</v>
+      </c>
+      <c r="R217">
+        <v>2.5</v>
+      </c>
+      <c r="S217">
+        <v>4.1</v>
+      </c>
+      <c r="T217">
+        <v>1.24</v>
+      </c>
+      <c r="U217">
+        <v>3.65</v>
+      </c>
+      <c r="V217">
+        <v>2.17</v>
+      </c>
+      <c r="W217">
+        <v>1.65</v>
+      </c>
+      <c r="X217">
+        <v>4.7</v>
+      </c>
+      <c r="Y217">
+        <v>1.15</v>
+      </c>
+      <c r="Z217">
+        <v>1.79</v>
+      </c>
+      <c r="AA217">
+        <v>3.69</v>
+      </c>
+      <c r="AB217">
+        <v>3.45</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>17</v>
+      </c>
+      <c r="AE217">
+        <v>1.15</v>
+      </c>
+      <c r="AF217">
+        <v>5.25</v>
+      </c>
+      <c r="AG217">
+        <v>1.45</v>
+      </c>
+      <c r="AH217">
+        <v>2.63</v>
+      </c>
+      <c r="AI217">
+        <v>1.49</v>
+      </c>
+      <c r="AJ217">
+        <v>2.4</v>
+      </c>
+      <c r="AK217">
+        <v>1.22</v>
+      </c>
+      <c r="AL217">
+        <v>1.18</v>
+      </c>
+      <c r="AM217">
+        <v>2</v>
+      </c>
+      <c r="AN217">
+        <v>2.18</v>
+      </c>
+      <c r="AO217">
+        <v>1.18</v>
+      </c>
+      <c r="AP217">
+        <v>2.22</v>
+      </c>
+      <c r="AQ217">
+        <v>1.11</v>
+      </c>
+      <c r="AR217">
+        <v>2.06</v>
+      </c>
+      <c r="AS217">
+        <v>1.63</v>
+      </c>
+      <c r="AT217">
+        <v>3.69</v>
+      </c>
+      <c r="AU217">
+        <v>6</v>
+      </c>
+      <c r="AV217">
+        <v>6</v>
+      </c>
+      <c r="AW217">
+        <v>12</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>23</v>
+      </c>
+      <c r="AZ217">
+        <v>14</v>
+      </c>
+      <c r="BA217">
+        <v>4</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>6</v>
+      </c>
+      <c r="BD217">
+        <v>1.52</v>
+      </c>
+      <c r="BE217">
+        <v>6.75</v>
+      </c>
+      <c r="BF217">
+        <v>2.8</v>
+      </c>
+      <c r="BG217">
+        <v>1.22</v>
+      </c>
+      <c r="BH217">
+        <v>3.65</v>
+      </c>
+      <c r="BI217">
+        <v>1.4</v>
+      </c>
+      <c r="BJ217">
+        <v>2.65</v>
+      </c>
+      <c r="BK217">
+        <v>1.66</v>
+      </c>
+      <c r="BL217">
+        <v>2.04</v>
+      </c>
+      <c r="BM217">
+        <v>2.02</v>
+      </c>
+      <c r="BN217">
+        <v>1.67</v>
+      </c>
+      <c r="BO217">
+        <v>2.55</v>
+      </c>
+      <c r="BP217">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,24 @@
     <t>['42', '90+1']</t>
   </si>
   <si>
+    <t>['8', '42', '49']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['56', '60']</t>
+  </si>
+  <si>
+    <t>['10', '29', '46', '86', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['78', '89', '90+8']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -934,9 +952,6 @@
     <t>['45', '53', '90+8']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['63', '80']</t>
   </si>
   <si>
@@ -1043,6 +1058,21 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['31', '58']</t>
+  </si>
+  <si>
+    <t>['14', '38']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['7', '72']</t>
+  </si>
+  <si>
+    <t>['4', '26', '73', '90']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1693,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1744,7 +1774,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1869,7 +1899,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1950,7 +1980,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ3">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2153,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2281,7 +2311,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2359,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2487,7 +2517,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2565,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2693,7 +2723,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2771,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2899,7 +2929,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3183,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3311,7 +3341,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3517,7 +3547,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3598,7 +3628,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3723,7 +3753,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3804,7 +3834,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -4007,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -4135,7 +4165,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4341,7 +4371,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4422,7 +4452,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4628,7 +4658,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ16">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4831,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4959,7 +4989,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5037,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5165,7 +5195,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5243,10 +5273,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ19">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5449,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5655,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ21">
         <v>0.68</v>
@@ -5783,7 +5813,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -6067,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -6195,7 +6225,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6401,7 +6431,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6482,7 +6512,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6891,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ27">
         <v>0.68</v>
@@ -7019,7 +7049,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7306,7 +7336,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7431,7 +7461,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7509,10 +7539,10 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR30">
         <v>1.76</v>
@@ -7718,7 +7748,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR31">
         <v>1.23</v>
@@ -7921,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ32">
         <v>0.9399999999999999</v>
@@ -8127,10 +8157,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -8667,7 +8697,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8745,10 +8775,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8873,7 +8903,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8951,7 +8981,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -9079,7 +9109,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9160,7 +9190,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR38">
         <v>1.38</v>
@@ -9285,7 +9315,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9366,7 +9396,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9491,7 +9521,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9569,10 +9599,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9775,10 +9805,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9903,7 +9933,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9981,7 +10011,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -10109,7 +10139,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10187,10 +10217,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10727,7 +10757,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10805,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ46">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -11423,10 +11453,10 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR49">
         <v>1.38</v>
@@ -11551,7 +11581,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11629,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -11757,7 +11787,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11835,10 +11865,10 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -12041,10 +12071,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12250,7 +12280,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12581,7 +12611,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12659,10 +12689,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12787,7 +12817,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12868,7 +12898,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ56">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -13071,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ57">
         <v>1.11</v>
@@ -13483,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
         <v>0.68</v>
@@ -13692,7 +13722,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13817,7 +13847,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -14101,10 +14131,10 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14229,7 +14259,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14307,10 +14337,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14435,7 +14465,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14513,10 +14543,10 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14641,7 +14671,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14719,7 +14749,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15053,7 +15083,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15134,7 +15164,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ67">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR67">
         <v>1.55</v>
@@ -15259,7 +15289,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15465,7 +15495,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15543,10 +15573,10 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ69">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR69">
         <v>1.55</v>
@@ -15671,7 +15701,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15749,10 +15779,10 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ70">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.54</v>
@@ -15877,7 +15907,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -15955,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
         <v>0.68</v>
@@ -16083,7 +16113,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16370,7 +16400,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR73">
         <v>1.54</v>
@@ -16907,7 +16937,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16985,7 +17015,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ76">
         <v>0.67</v>
@@ -17191,10 +17221,10 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>1.84</v>
@@ -17400,7 +17430,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ78">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR78">
         <v>1.74</v>
@@ -17603,10 +17633,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17809,7 +17839,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>0.9399999999999999</v>
@@ -17937,7 +17967,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18018,7 +18048,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ81">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR81">
         <v>0.99</v>
@@ -18143,7 +18173,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18224,7 +18254,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18349,7 +18379,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18427,7 +18457,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -18555,7 +18585,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18839,10 +18869,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18967,7 +18997,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19173,7 +19203,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19251,7 +19281,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ87">
         <v>0.9399999999999999</v>
@@ -19457,7 +19487,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19666,7 +19696,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ89">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -19872,7 +19902,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -20075,10 +20105,10 @@
         <v>0.71</v>
       </c>
       <c r="AP91">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR91">
         <v>1.67</v>
@@ -20615,7 +20645,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20696,7 +20726,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20821,7 +20851,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20899,7 +20929,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -21108,7 +21138,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR96">
         <v>1.88</v>
@@ -21233,7 +21263,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21311,7 +21341,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21517,7 +21547,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ98">
         <v>0.9399999999999999</v>
@@ -21645,7 +21675,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21726,7 +21756,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR99">
         <v>1.52</v>
@@ -21851,7 +21881,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21929,10 +21959,10 @@
         <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR100">
         <v>1.7</v>
@@ -22135,10 +22165,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ101">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22263,7 +22293,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22469,7 +22499,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22547,10 +22577,10 @@
         <v>1.63</v>
       </c>
       <c r="AP103">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22675,7 +22705,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22753,7 +22783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22881,7 +22911,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23168,7 +23198,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR106">
         <v>1.73</v>
@@ -23293,7 +23323,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23371,10 +23401,10 @@
         <v>1.38</v>
       </c>
       <c r="AP107">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.85</v>
@@ -23499,7 +23529,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23705,7 +23735,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23911,7 +23941,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23989,10 +24019,10 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR110">
         <v>1.55</v>
@@ -24195,7 +24225,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ111">
         <v>0.68</v>
@@ -24610,7 +24640,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24813,7 +24843,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>1.11</v>
@@ -24941,7 +24971,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25022,7 +25052,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR115">
         <v>1.86</v>
@@ -25434,7 +25464,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR117">
         <v>1</v>
@@ -25559,7 +25589,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25637,10 +25667,10 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR118">
         <v>1.26</v>
@@ -25765,7 +25795,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -25843,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>0.9399999999999999</v>
@@ -25971,7 +26001,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26255,10 +26285,10 @@
         <v>1.56</v>
       </c>
       <c r="AP121">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ121">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26383,7 +26413,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26461,7 +26491,7 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ122">
         <v>0.9399999999999999</v>
@@ -26589,7 +26619,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26876,7 +26906,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR124">
         <v>1.92</v>
@@ -27079,7 +27109,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27413,7 +27443,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27494,7 +27524,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27619,7 +27649,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27825,7 +27855,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27903,10 +27933,10 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR129">
         <v>1.71</v>
@@ -28031,7 +28061,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28109,10 +28139,10 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR130">
         <v>1.84</v>
@@ -28237,7 +28267,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28315,10 +28345,10 @@
         <v>0.7</v>
       </c>
       <c r="AP131">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ131">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR131">
         <v>1.95</v>
@@ -28649,7 +28679,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28727,10 +28757,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28855,7 +28885,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -28933,10 +28963,10 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR134">
         <v>1.83</v>
@@ -29061,7 +29091,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29142,7 +29172,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ135">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR135">
         <v>1.87</v>
@@ -29267,7 +29297,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29345,7 +29375,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ136">
         <v>0.67</v>
@@ -29473,7 +29503,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29554,7 +29584,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ137">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR137">
         <v>1.97</v>
@@ -29679,7 +29709,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29757,7 +29787,7 @@
         <v>0.36</v>
       </c>
       <c r="AP138">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ138">
         <v>0.68</v>
@@ -29885,7 +29915,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30169,10 +30199,10 @@
         <v>1.55</v>
       </c>
       <c r="AP140">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ140">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30581,7 +30611,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -31121,7 +31151,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31202,7 +31232,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ145">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR145">
         <v>1.53</v>
@@ -31327,7 +31357,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31405,10 +31435,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR146">
         <v>1.86</v>
@@ -31614,7 +31644,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR147">
         <v>1.5</v>
@@ -31739,7 +31769,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -31817,10 +31847,10 @@
         <v>1.5</v>
       </c>
       <c r="AP148">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR148">
         <v>1.86</v>
@@ -32023,7 +32053,7 @@
         <v>0.83</v>
       </c>
       <c r="AP149">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -32151,7 +32181,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32435,10 +32465,10 @@
         <v>1.36</v>
       </c>
       <c r="AP151">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR151">
         <v>2.1</v>
@@ -32847,7 +32877,7 @@
         <v>1.15</v>
       </c>
       <c r="AP153">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33053,10 +33083,10 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR154">
         <v>1.84</v>
@@ -33181,7 +33211,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33262,7 +33292,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ155">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>2</v>
@@ -33593,7 +33623,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33877,7 +33907,7 @@
         <v>0.92</v>
       </c>
       <c r="AP158">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -34005,7 +34035,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34289,10 +34319,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ160">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR160">
         <v>1.88</v>
@@ -34417,7 +34447,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34498,7 +34528,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR161">
         <v>1.53</v>
@@ -34623,7 +34653,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34701,10 +34731,10 @@
         <v>1.46</v>
       </c>
       <c r="AP162">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ162">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR162">
         <v>1.73</v>
@@ -34829,7 +34859,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -34907,10 +34937,10 @@
         <v>1.25</v>
       </c>
       <c r="AP163">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ163">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR163">
         <v>1.69</v>
@@ -35035,7 +35065,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35116,7 +35146,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ164">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR164">
         <v>1.99</v>
@@ -35241,7 +35271,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35319,7 +35349,7 @@
         <v>0.85</v>
       </c>
       <c r="AP165">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -35447,7 +35477,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35859,7 +35889,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36065,7 +36095,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36349,7 +36379,7 @@
         <v>1.07</v>
       </c>
       <c r="AP170">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36555,10 +36585,10 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36683,7 +36713,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36764,7 +36794,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ172">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR172">
         <v>1.98</v>
@@ -36889,7 +36919,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36967,10 +36997,10 @@
         <v>1.43</v>
       </c>
       <c r="AP173">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ173">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR173">
         <v>1.3</v>
@@ -37095,7 +37125,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37176,7 +37206,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ174">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37301,7 +37331,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37379,7 +37409,7 @@
         <v>1.21</v>
       </c>
       <c r="AP175">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ175">
         <v>1.11</v>
@@ -37507,7 +37537,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37713,7 +37743,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37794,7 +37824,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ177">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR177">
         <v>1.29</v>
@@ -37919,7 +37949,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -37997,7 +38027,7 @@
         <v>0.27</v>
       </c>
       <c r="AP178">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ178">
         <v>0.68</v>
@@ -38125,7 +38155,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38412,7 +38442,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ180">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR180">
         <v>1.88</v>
@@ -38615,7 +38645,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38821,10 +38851,10 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ182">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR182">
         <v>1.28</v>
@@ -39027,7 +39057,7 @@
         <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ183">
         <v>0.67</v>
@@ -39233,10 +39263,10 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ184">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR184">
         <v>2.01</v>
@@ -39439,10 +39469,10 @@
         <v>1.67</v>
       </c>
       <c r="AP185">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ185">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR185">
         <v>1.9</v>
@@ -39648,7 +39678,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ186">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR186">
         <v>1.88</v>
@@ -40057,7 +40087,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ188">
         <v>0.9399999999999999</v>
@@ -40185,7 +40215,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40266,7 +40296,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ189">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR189">
         <v>1.27</v>
@@ -40391,7 +40421,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40472,7 +40502,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ190">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR190">
         <v>1.68</v>
@@ -40597,7 +40627,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40881,7 +40911,7 @@
         <v>1.07</v>
       </c>
       <c r="AP192">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ192">
         <v>0.9399999999999999</v>
@@ -41009,7 +41039,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41087,10 +41117,10 @@
         <v>1.56</v>
       </c>
       <c r="AP193">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ193">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR193">
         <v>1.69</v>
@@ -41705,7 +41735,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP196">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ196">
         <v>0.67</v>
@@ -41914,7 +41944,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -42117,10 +42147,10 @@
         <v>1.2</v>
       </c>
       <c r="AP198">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ198">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR198">
         <v>1.84</v>
@@ -42323,10 +42353,10 @@
         <v>1.6</v>
       </c>
       <c r="AP199">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ199">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR199">
         <v>2.05</v>
@@ -42529,10 +42559,10 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR200">
         <v>1.24</v>
@@ -42657,7 +42687,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42735,7 +42765,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -42941,10 +42971,10 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ202">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -43150,7 +43180,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ203">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR203">
         <v>1.88</v>
@@ -43275,7 +43305,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43353,10 +43383,10 @@
         <v>1.13</v>
       </c>
       <c r="AP204">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR204">
         <v>1.73</v>
@@ -43481,7 +43511,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43687,7 +43717,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43765,7 +43795,7 @@
         <v>0.59</v>
       </c>
       <c r="AP206">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ206">
         <v>0.68</v>
@@ -44180,7 +44210,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ208">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AR208">
         <v>1.67</v>
@@ -44305,7 +44335,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44386,7 +44416,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ209">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR209">
         <v>1.94</v>
@@ -44511,7 +44541,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44589,7 +44619,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP210">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -44923,7 +44953,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q212">
         <v>1.95</v>
@@ -45129,7 +45159,7 @@
         <v>199</v>
       </c>
       <c r="P213" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q213">
         <v>2.9</v>
@@ -45207,7 +45237,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ213">
         <v>1</v>
@@ -45335,7 +45365,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45413,10 +45443,10 @@
         <v>1.71</v>
       </c>
       <c r="AP214">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ214">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR214">
         <v>1.85</v>
@@ -45622,7 +45652,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ215">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR215">
         <v>1.45</v>
@@ -45747,7 +45777,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q216">
         <v>2.6</v>
@@ -45828,7 +45858,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ216">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR216">
         <v>1.89</v>
@@ -45953,7 +45983,7 @@
         <v>237</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q217">
         <v>2.15</v>
@@ -46031,7 +46061,7 @@
         <v>1.18</v>
       </c>
       <c r="AP217">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AQ217">
         <v>1.11</v>
@@ -46109,6 +46139,1242 @@
         <v>2.55</v>
       </c>
       <c r="BP217">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7886687</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45794.54166666666</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218" t="s">
+        <v>80</v>
+      </c>
+      <c r="H218" t="s">
+        <v>81</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>3</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>5</v>
+      </c>
+      <c r="O218" t="s">
+        <v>238</v>
+      </c>
+      <c r="P218" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q218">
+        <v>2.63</v>
+      </c>
+      <c r="R218">
+        <v>2.5</v>
+      </c>
+      <c r="S218">
+        <v>3.4</v>
+      </c>
+      <c r="T218">
+        <v>1.25</v>
+      </c>
+      <c r="U218">
+        <v>3.75</v>
+      </c>
+      <c r="V218">
+        <v>2.2</v>
+      </c>
+      <c r="W218">
+        <v>1.62</v>
+      </c>
+      <c r="X218">
+        <v>5</v>
+      </c>
+      <c r="Y218">
+        <v>1.17</v>
+      </c>
+      <c r="Z218">
+        <v>2.01</v>
+      </c>
+      <c r="AA218">
+        <v>3.57</v>
+      </c>
+      <c r="AB218">
+        <v>2.93</v>
+      </c>
+      <c r="AC218">
+        <v>1.01</v>
+      </c>
+      <c r="AD218">
+        <v>13</v>
+      </c>
+      <c r="AE218">
+        <v>1.18</v>
+      </c>
+      <c r="AF218">
+        <v>4.75</v>
+      </c>
+      <c r="AG218">
+        <v>1.48</v>
+      </c>
+      <c r="AH218">
+        <v>2.54</v>
+      </c>
+      <c r="AI218">
+        <v>1.44</v>
+      </c>
+      <c r="AJ218">
+        <v>2.63</v>
+      </c>
+      <c r="AK218">
+        <v>1.36</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.67</v>
+      </c>
+      <c r="AN218">
+        <v>1.76</v>
+      </c>
+      <c r="AO218">
+        <v>1.41</v>
+      </c>
+      <c r="AP218">
+        <v>1.83</v>
+      </c>
+      <c r="AQ218">
+        <v>1.33</v>
+      </c>
+      <c r="AR218">
+        <v>1.92</v>
+      </c>
+      <c r="AS218">
+        <v>1.65</v>
+      </c>
+      <c r="AT218">
+        <v>3.57</v>
+      </c>
+      <c r="AU218">
+        <v>6</v>
+      </c>
+      <c r="AV218">
+        <v>8</v>
+      </c>
+      <c r="AW218">
+        <v>9</v>
+      </c>
+      <c r="AX218">
+        <v>9</v>
+      </c>
+      <c r="AY218">
+        <v>16</v>
+      </c>
+      <c r="AZ218">
+        <v>20</v>
+      </c>
+      <c r="BA218">
+        <v>9</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>11</v>
+      </c>
+      <c r="BD218">
+        <v>1.74</v>
+      </c>
+      <c r="BE218">
+        <v>6.75</v>
+      </c>
+      <c r="BF218">
+        <v>2.3</v>
+      </c>
+      <c r="BG218">
+        <v>1.2</v>
+      </c>
+      <c r="BH218">
+        <v>3.8</v>
+      </c>
+      <c r="BI218">
+        <v>1.36</v>
+      </c>
+      <c r="BJ218">
+        <v>2.8</v>
+      </c>
+      <c r="BK218">
+        <v>1.6</v>
+      </c>
+      <c r="BL218">
+        <v>2.12</v>
+      </c>
+      <c r="BM218">
+        <v>1.95</v>
+      </c>
+      <c r="BN218">
+        <v>1.72</v>
+      </c>
+      <c r="BO218">
+        <v>2.45</v>
+      </c>
+      <c r="BP218">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7886688</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45794.54166666666</v>
+      </c>
+      <c r="F219">
+        <v>37</v>
+      </c>
+      <c r="G219" t="s">
+        <v>72</v>
+      </c>
+      <c r="H219" t="s">
+        <v>71</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+      <c r="L219">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>239</v>
+      </c>
+      <c r="P219" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2.3</v>
+      </c>
+      <c r="S219">
+        <v>3.2</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3.25</v>
+      </c>
+      <c r="V219">
+        <v>2.5</v>
+      </c>
+      <c r="W219">
+        <v>1.5</v>
+      </c>
+      <c r="X219">
+        <v>6</v>
+      </c>
+      <c r="Y219">
+        <v>1.13</v>
+      </c>
+      <c r="Z219">
+        <v>2.29</v>
+      </c>
+      <c r="AA219">
+        <v>3.4</v>
+      </c>
+      <c r="AB219">
+        <v>2.57</v>
+      </c>
+      <c r="AC219">
+        <v>1.04</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.22</v>
+      </c>
+      <c r="AF219">
+        <v>4</v>
+      </c>
+      <c r="AG219">
+        <v>1.65</v>
+      </c>
+      <c r="AH219">
+        <v>2.05</v>
+      </c>
+      <c r="AI219">
+        <v>1.57</v>
+      </c>
+      <c r="AJ219">
+        <v>2.25</v>
+      </c>
+      <c r="AK219">
+        <v>1.47</v>
+      </c>
+      <c r="AL219">
+        <v>1.29</v>
+      </c>
+      <c r="AM219">
+        <v>1.54</v>
+      </c>
+      <c r="AN219">
+        <v>1.35</v>
+      </c>
+      <c r="AO219">
+        <v>0.67</v>
+      </c>
+      <c r="AP219">
+        <v>1.33</v>
+      </c>
+      <c r="AQ219">
+        <v>0.68</v>
+      </c>
+      <c r="AR219">
+        <v>1.26</v>
+      </c>
+      <c r="AS219">
+        <v>1.23</v>
+      </c>
+      <c r="AT219">
+        <v>2.49</v>
+      </c>
+      <c r="AU219">
+        <v>5</v>
+      </c>
+      <c r="AV219">
+        <v>5</v>
+      </c>
+      <c r="AW219">
+        <v>8</v>
+      </c>
+      <c r="AX219">
+        <v>4</v>
+      </c>
+      <c r="AY219">
+        <v>14</v>
+      </c>
+      <c r="AZ219">
+        <v>10</v>
+      </c>
+      <c r="BA219">
+        <v>9</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>12</v>
+      </c>
+      <c r="BD219">
+        <v>1.66</v>
+      </c>
+      <c r="BE219">
+        <v>6.75</v>
+      </c>
+      <c r="BF219">
+        <v>2.48</v>
+      </c>
+      <c r="BG219">
+        <v>1.3</v>
+      </c>
+      <c r="BH219">
+        <v>3.05</v>
+      </c>
+      <c r="BI219">
+        <v>1.52</v>
+      </c>
+      <c r="BJ219">
+        <v>2.3</v>
+      </c>
+      <c r="BK219">
+        <v>1.84</v>
+      </c>
+      <c r="BL219">
+        <v>1.82</v>
+      </c>
+      <c r="BM219">
+        <v>2.33</v>
+      </c>
+      <c r="BN219">
+        <v>1.5</v>
+      </c>
+      <c r="BO219">
+        <v>3</v>
+      </c>
+      <c r="BP219">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7886689</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45794.64583333334</v>
+      </c>
+      <c r="F220">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>77</v>
+      </c>
+      <c r="H220" t="s">
+        <v>78</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>240</v>
+      </c>
+      <c r="P220" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q220">
+        <v>2.45</v>
+      </c>
+      <c r="R220">
+        <v>2.15</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>1.36</v>
+      </c>
+      <c r="U220">
+        <v>2.9</v>
+      </c>
+      <c r="V220">
+        <v>2.6</v>
+      </c>
+      <c r="W220">
+        <v>1.44</v>
+      </c>
+      <c r="X220">
+        <v>6.6</v>
+      </c>
+      <c r="Y220">
+        <v>1.05</v>
+      </c>
+      <c r="Z220">
+        <v>1.92</v>
+      </c>
+      <c r="AA220">
+        <v>3.3</v>
+      </c>
+      <c r="AB220">
+        <v>3.39</v>
+      </c>
+      <c r="AC220">
+        <v>1.05</v>
+      </c>
+      <c r="AD220">
+        <v>9.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.25</v>
+      </c>
+      <c r="AF220">
+        <v>3.7</v>
+      </c>
+      <c r="AG220">
+        <v>1.78</v>
+      </c>
+      <c r="AH220">
+        <v>1.92</v>
+      </c>
+      <c r="AI220">
+        <v>1.65</v>
+      </c>
+      <c r="AJ220">
+        <v>2.05</v>
+      </c>
+      <c r="AK220">
+        <v>1.28</v>
+      </c>
+      <c r="AL220">
+        <v>1.25</v>
+      </c>
+      <c r="AM220">
+        <v>1.77</v>
+      </c>
+      <c r="AN220">
+        <v>1.61</v>
+      </c>
+      <c r="AO220">
+        <v>0.89</v>
+      </c>
+      <c r="AP220">
+        <v>1.68</v>
+      </c>
+      <c r="AQ220">
+        <v>0.84</v>
+      </c>
+      <c r="AR220">
+        <v>1.61</v>
+      </c>
+      <c r="AS220">
+        <v>1.25</v>
+      </c>
+      <c r="AT220">
+        <v>2.86</v>
+      </c>
+      <c r="AU220">
+        <v>6</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>9</v>
+      </c>
+      <c r="AX220">
+        <v>13</v>
+      </c>
+      <c r="AY220">
+        <v>17</v>
+      </c>
+      <c r="AZ220">
+        <v>17</v>
+      </c>
+      <c r="BA220">
+        <v>3</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>6</v>
+      </c>
+      <c r="BD220">
+        <v>1.71</v>
+      </c>
+      <c r="BE220">
+        <v>6.75</v>
+      </c>
+      <c r="BF220">
+        <v>2.33</v>
+      </c>
+      <c r="BG220">
+        <v>1.26</v>
+      </c>
+      <c r="BH220">
+        <v>3.3</v>
+      </c>
+      <c r="BI220">
+        <v>1.47</v>
+      </c>
+      <c r="BJ220">
+        <v>2.43</v>
+      </c>
+      <c r="BK220">
+        <v>1.76</v>
+      </c>
+      <c r="BL220">
+        <v>1.9</v>
+      </c>
+      <c r="BM220">
+        <v>2.2</v>
+      </c>
+      <c r="BN220">
+        <v>1.57</v>
+      </c>
+      <c r="BO220">
+        <v>2.8</v>
+      </c>
+      <c r="BP220">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7886690</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45795.38541666666</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>79</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>3</v>
+      </c>
+      <c r="L221">
+        <v>6</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>8</v>
+      </c>
+      <c r="O221" t="s">
+        <v>241</v>
+      </c>
+      <c r="P221" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q221">
+        <v>2.38</v>
+      </c>
+      <c r="R221">
+        <v>2.6</v>
+      </c>
+      <c r="S221">
+        <v>3.75</v>
+      </c>
+      <c r="T221">
+        <v>1.22</v>
+      </c>
+      <c r="U221">
+        <v>4</v>
+      </c>
+      <c r="V221">
+        <v>2.1</v>
+      </c>
+      <c r="W221">
+        <v>1.67</v>
+      </c>
+      <c r="X221">
+        <v>4.5</v>
+      </c>
+      <c r="Y221">
+        <v>1.18</v>
+      </c>
+      <c r="Z221">
+        <v>1.76</v>
+      </c>
+      <c r="AA221">
+        <v>3.74</v>
+      </c>
+      <c r="AB221">
+        <v>3.51</v>
+      </c>
+      <c r="AC221">
+        <v>1.01</v>
+      </c>
+      <c r="AD221">
+        <v>17</v>
+      </c>
+      <c r="AE221">
+        <v>1.14</v>
+      </c>
+      <c r="AF221">
+        <v>5.5</v>
+      </c>
+      <c r="AG221">
+        <v>1.43</v>
+      </c>
+      <c r="AH221">
+        <v>2.62</v>
+      </c>
+      <c r="AI221">
+        <v>1.44</v>
+      </c>
+      <c r="AJ221">
+        <v>2.63</v>
+      </c>
+      <c r="AK221">
+        <v>1.28</v>
+      </c>
+      <c r="AL221">
+        <v>1.2</v>
+      </c>
+      <c r="AM221">
+        <v>1.91</v>
+      </c>
+      <c r="AN221">
+        <v>2.22</v>
+      </c>
+      <c r="AO221">
+        <v>1.78</v>
+      </c>
+      <c r="AP221">
+        <v>2.26</v>
+      </c>
+      <c r="AQ221">
+        <v>1.68</v>
+      </c>
+      <c r="AR221">
+        <v>2.05</v>
+      </c>
+      <c r="AS221">
+        <v>1.87</v>
+      </c>
+      <c r="AT221">
+        <v>3.92</v>
+      </c>
+      <c r="AU221">
+        <v>10</v>
+      </c>
+      <c r="AV221">
+        <v>7</v>
+      </c>
+      <c r="AW221">
+        <v>6</v>
+      </c>
+      <c r="AX221">
+        <v>15</v>
+      </c>
+      <c r="AY221">
+        <v>21</v>
+      </c>
+      <c r="AZ221">
+        <v>27</v>
+      </c>
+      <c r="BA221">
+        <v>3</v>
+      </c>
+      <c r="BB221">
+        <v>7</v>
+      </c>
+      <c r="BC221">
+        <v>10</v>
+      </c>
+      <c r="BD221">
+        <v>1.63</v>
+      </c>
+      <c r="BE221">
+        <v>6.75</v>
+      </c>
+      <c r="BF221">
+        <v>2.55</v>
+      </c>
+      <c r="BG221">
+        <v>1.19</v>
+      </c>
+      <c r="BH221">
+        <v>3.9</v>
+      </c>
+      <c r="BI221">
+        <v>1.36</v>
+      </c>
+      <c r="BJ221">
+        <v>2.8</v>
+      </c>
+      <c r="BK221">
+        <v>1.58</v>
+      </c>
+      <c r="BL221">
+        <v>2.16</v>
+      </c>
+      <c r="BM221">
+        <v>1.93</v>
+      </c>
+      <c r="BN221">
+        <v>1.74</v>
+      </c>
+      <c r="BO221">
+        <v>2.4</v>
+      </c>
+      <c r="BP221">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7886691</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45795.47916666666</v>
+      </c>
+      <c r="F222">
+        <v>37</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H222" t="s">
+        <v>70</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>242</v>
+      </c>
+      <c r="P222" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q222">
+        <v>2.5</v>
+      </c>
+      <c r="R222">
+        <v>2.38</v>
+      </c>
+      <c r="S222">
+        <v>3.75</v>
+      </c>
+      <c r="T222">
+        <v>1.3</v>
+      </c>
+      <c r="U222">
+        <v>3.4</v>
+      </c>
+      <c r="V222">
+        <v>2.38</v>
+      </c>
+      <c r="W222">
+        <v>1.53</v>
+      </c>
+      <c r="X222">
+        <v>6</v>
+      </c>
+      <c r="Y222">
+        <v>1.13</v>
+      </c>
+      <c r="Z222">
+        <v>2.01</v>
+      </c>
+      <c r="AA222">
+        <v>3.38</v>
+      </c>
+      <c r="AB222">
+        <v>3.06</v>
+      </c>
+      <c r="AC222">
+        <v>1.04</v>
+      </c>
+      <c r="AD222">
+        <v>10</v>
+      </c>
+      <c r="AE222">
+        <v>1.22</v>
+      </c>
+      <c r="AF222">
+        <v>4.2</v>
+      </c>
+      <c r="AG222">
+        <v>1.61</v>
+      </c>
+      <c r="AH222">
+        <v>2.1</v>
+      </c>
+      <c r="AI222">
+        <v>1.57</v>
+      </c>
+      <c r="AJ222">
+        <v>2.25</v>
+      </c>
+      <c r="AK222">
+        <v>1.28</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.77</v>
+      </c>
+      <c r="AN222">
+        <v>1.84</v>
+      </c>
+      <c r="AO222">
+        <v>1.17</v>
+      </c>
+      <c r="AP222">
+        <v>1.8</v>
+      </c>
+      <c r="AQ222">
+        <v>1.16</v>
+      </c>
+      <c r="AR222">
+        <v>1.86</v>
+      </c>
+      <c r="AS222">
+        <v>1.55</v>
+      </c>
+      <c r="AT222">
+        <v>3.41</v>
+      </c>
+      <c r="AU222">
+        <v>5</v>
+      </c>
+      <c r="AV222">
+        <v>3</v>
+      </c>
+      <c r="AW222">
+        <v>10</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>17</v>
+      </c>
+      <c r="AZ222">
+        <v>7</v>
+      </c>
+      <c r="BA222">
+        <v>11</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>13</v>
+      </c>
+      <c r="BD222">
+        <v>1.58</v>
+      </c>
+      <c r="BE222">
+        <v>6.5</v>
+      </c>
+      <c r="BF222">
+        <v>2.65</v>
+      </c>
+      <c r="BG222">
+        <v>1.33</v>
+      </c>
+      <c r="BH222">
+        <v>2.95</v>
+      </c>
+      <c r="BI222">
+        <v>1.56</v>
+      </c>
+      <c r="BJ222">
+        <v>2.23</v>
+      </c>
+      <c r="BK222">
+        <v>1.9</v>
+      </c>
+      <c r="BL222">
+        <v>1.77</v>
+      </c>
+      <c r="BM222">
+        <v>2.43</v>
+      </c>
+      <c r="BN222">
+        <v>1.47</v>
+      </c>
+      <c r="BO222">
+        <v>3.15</v>
+      </c>
+      <c r="BP222">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7886692</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45795.47916666666</v>
+      </c>
+      <c r="F223">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>75</v>
+      </c>
+      <c r="H223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>2</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>4</v>
+      </c>
+      <c r="N223">
+        <v>7</v>
+      </c>
+      <c r="O223" t="s">
+        <v>243</v>
+      </c>
+      <c r="P223" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q223">
+        <v>3.1</v>
+      </c>
+      <c r="R223">
+        <v>2.4</v>
+      </c>
+      <c r="S223">
+        <v>2.88</v>
+      </c>
+      <c r="T223">
+        <v>1.29</v>
+      </c>
+      <c r="U223">
+        <v>3.5</v>
+      </c>
+      <c r="V223">
+        <v>2.25</v>
+      </c>
+      <c r="W223">
+        <v>1.57</v>
+      </c>
+      <c r="X223">
+        <v>5.5</v>
+      </c>
+      <c r="Y223">
+        <v>1.14</v>
+      </c>
+      <c r="Z223">
+        <v>2.57</v>
+      </c>
+      <c r="AA223">
+        <v>3.4</v>
+      </c>
+      <c r="AB223">
+        <v>2.29</v>
+      </c>
+      <c r="AC223">
+        <v>1.04</v>
+      </c>
+      <c r="AD223">
+        <v>10</v>
+      </c>
+      <c r="AE223">
+        <v>1.2</v>
+      </c>
+      <c r="AF223">
+        <v>4.33</v>
+      </c>
+      <c r="AG223">
+        <v>1.53</v>
+      </c>
+      <c r="AH223">
+        <v>2.25</v>
+      </c>
+      <c r="AI223">
+        <v>1.5</v>
+      </c>
+      <c r="AJ223">
+        <v>2.5</v>
+      </c>
+      <c r="AK223">
+        <v>1.55</v>
+      </c>
+      <c r="AL223">
+        <v>1.22</v>
+      </c>
+      <c r="AM223">
+        <v>1.45</v>
+      </c>
+      <c r="AN223">
+        <v>1.78</v>
+      </c>
+      <c r="AO223">
+        <v>1.44</v>
+      </c>
+      <c r="AP223">
+        <v>1.68</v>
+      </c>
+      <c r="AQ223">
+        <v>1.53</v>
+      </c>
+      <c r="AR223">
+        <v>1.72</v>
+      </c>
+      <c r="AS223">
+        <v>1.55</v>
+      </c>
+      <c r="AT223">
+        <v>3.27</v>
+      </c>
+      <c r="AU223">
+        <v>7</v>
+      </c>
+      <c r="AV223">
+        <v>8</v>
+      </c>
+      <c r="AW223">
+        <v>7</v>
+      </c>
+      <c r="AX223">
+        <v>11</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>21</v>
+      </c>
+      <c r="BA223">
+        <v>2</v>
+      </c>
+      <c r="BB223">
+        <v>7</v>
+      </c>
+      <c r="BC223">
+        <v>9</v>
+      </c>
+      <c r="BD223">
+        <v>1.98</v>
+      </c>
+      <c r="BE223">
+        <v>6.75</v>
+      </c>
+      <c r="BF223">
+        <v>1.98</v>
+      </c>
+      <c r="BG223">
+        <v>1.22</v>
+      </c>
+      <c r="BH223">
+        <v>3.65</v>
+      </c>
+      <c r="BI223">
+        <v>1.4</v>
+      </c>
+      <c r="BJ223">
+        <v>2.63</v>
+      </c>
+      <c r="BK223">
+        <v>1.66</v>
+      </c>
+      <c r="BL223">
+        <v>2.04</v>
+      </c>
+      <c r="BM223">
+        <v>2.04</v>
+      </c>
+      <c r="BN223">
+        <v>1.66</v>
+      </c>
+      <c r="BO223">
+        <v>2.55</v>
+      </c>
+      <c r="BP223">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,15 @@
     <t>['78', '89', '90+8']</t>
   </si>
   <si>
+    <t>['23', '40']</t>
+  </si>
+  <si>
+    <t>['12', '69']</t>
+  </si>
+  <si>
+    <t>['44', '53', '58']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1073,6 +1082,9 @@
   </si>
   <si>
     <t>['4', '26', '73', '90']</t>
+  </si>
+  <si>
+    <t>['85', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1705,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1899,7 +1911,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1977,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2183,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2311,7 +2323,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2392,7 +2404,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2517,7 +2529,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2723,7 +2735,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2929,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3341,7 +3353,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3419,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3547,7 +3559,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3753,7 +3765,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -4165,7 +4177,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4371,7 +4383,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4449,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ15">
         <v>1.68</v>
@@ -4864,7 +4876,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4989,7 +5001,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5070,7 +5082,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -5195,7 +5207,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5276,7 +5288,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5479,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ20">
         <v>0.68</v>
@@ -5813,7 +5825,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5891,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ22">
         <v>0.9399999999999999</v>
@@ -6225,7 +6237,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6431,7 +6443,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -7049,7 +7061,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7127,10 +7139,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7461,7 +7473,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7745,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ31">
         <v>0.84</v>
@@ -8157,7 +8169,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ33">
         <v>1.53</v>
@@ -8366,7 +8378,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8697,7 +8709,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8903,7 +8915,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9109,7 +9121,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9187,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ38">
         <v>1.53</v>
@@ -9315,7 +9327,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9396,7 +9408,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9521,7 +9533,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9933,7 +9945,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10011,7 +10023,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -10139,7 +10151,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10220,7 +10232,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10629,10 +10641,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR45">
         <v>1.17</v>
@@ -10757,7 +10769,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -11044,7 +11056,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -11581,7 +11593,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11787,7 +11799,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12071,7 +12083,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
         <v>0.84</v>
@@ -12611,7 +12623,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12817,7 +12829,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12895,10 +12907,10 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -13310,7 +13322,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13719,7 +13731,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ60">
         <v>1.16</v>
@@ -13847,7 +13859,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13928,7 +13940,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -14259,7 +14271,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14337,7 +14349,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ63">
         <v>1.68</v>
@@ -14465,7 +14477,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14671,7 +14683,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14752,7 +14764,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -15083,7 +15095,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15289,7 +15301,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15367,7 +15379,7 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ68">
         <v>0.9399999999999999</v>
@@ -15495,7 +15507,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15701,7 +15713,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15782,7 +15794,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR70">
         <v>1.54</v>
@@ -15907,7 +15919,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16113,7 +16125,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16397,7 +16409,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ73">
         <v>1.16</v>
@@ -16937,7 +16949,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17018,7 +17030,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17839,7 +17851,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ80">
         <v>0.9399999999999999</v>
@@ -17967,7 +17979,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18045,7 +18057,7 @@
         <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
         <v>1.68</v>
@@ -18173,7 +18185,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18254,7 +18266,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18379,7 +18391,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18585,7 +18597,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18663,10 +18675,10 @@
         <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
         <v>1.54</v>
@@ -18997,7 +19009,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19075,7 +19087,7 @@
         <v>0.14</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ86">
         <v>0.68</v>
@@ -19203,7 +19215,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19490,7 +19502,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19696,7 +19708,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -20311,7 +20323,7 @@
         <v>1.29</v>
       </c>
       <c r="AP92">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ92">
         <v>1.11</v>
@@ -20645,7 +20657,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20851,7 +20863,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20929,10 +20941,10 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -21263,7 +21275,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21344,7 +21356,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21675,7 +21687,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21753,7 +21765,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ99">
         <v>0.68</v>
@@ -21881,7 +21893,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22168,7 +22180,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR101">
         <v>1.77</v>
@@ -22293,7 +22305,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22499,7 +22511,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22705,7 +22717,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22783,7 +22795,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22911,7 +22923,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -22989,10 +23001,10 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR105">
         <v>0.93</v>
@@ -23323,7 +23335,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23529,7 +23541,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23735,7 +23747,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23816,7 +23828,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR109">
         <v>1.41</v>
@@ -23941,7 +23953,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24434,7 +24446,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR112">
         <v>1.84</v>
@@ -24971,7 +24983,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25255,7 +25267,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -25461,7 +25473,7 @@
         <v>1.22</v>
       </c>
       <c r="AP117">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ117">
         <v>1.53</v>
@@ -25589,7 +25601,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25667,7 +25679,7 @@
         <v>1.33</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
         <v>1.16</v>
@@ -25795,7 +25807,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -26001,7 +26013,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26082,7 +26094,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26288,7 +26300,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26413,7 +26425,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26619,7 +26631,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26700,7 +26712,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ123">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -27112,7 +27124,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR125">
         <v>1.65</v>
@@ -27315,7 +27327,7 @@
         <v>0.4</v>
       </c>
       <c r="AP126">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ126">
         <v>0.68</v>
@@ -27443,7 +27455,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27649,7 +27661,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27727,7 +27739,7 @@
         <v>0.9</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ128">
         <v>0.9399999999999999</v>
@@ -27855,7 +27867,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28267,7 +28279,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28679,7 +28691,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28757,10 +28769,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ133">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28885,7 +28897,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29091,7 +29103,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29297,7 +29309,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29378,7 +29390,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR136">
         <v>2.08</v>
@@ -29503,7 +29515,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29709,7 +29721,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29915,7 +29927,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -29996,7 +30008,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR139">
         <v>1.48</v>
@@ -30202,7 +30214,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR140">
         <v>1.74</v>
@@ -30611,7 +30623,7 @@
         <v>0.91</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30817,10 +30829,10 @@
         <v>1.25</v>
       </c>
       <c r="AP143">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR143">
         <v>1.03</v>
@@ -31151,7 +31163,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31229,7 +31241,7 @@
         <v>1.18</v>
       </c>
       <c r="AP145">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
         <v>1.53</v>
@@ -31357,7 +31369,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31769,7 +31781,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32056,7 +32068,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.79</v>
@@ -32181,7 +32193,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32674,7 +32686,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ152">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR152">
         <v>1.84</v>
@@ -32877,10 +32889,10 @@
         <v>1.15</v>
       </c>
       <c r="AP153">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR153">
         <v>1.28</v>
@@ -33211,7 +33223,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33292,7 +33304,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR155">
         <v>2</v>
@@ -33495,7 +33507,7 @@
         <v>0.83</v>
       </c>
       <c r="AP156">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ156">
         <v>0.9399999999999999</v>
@@ -33623,7 +33635,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33701,7 +33713,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ157">
         <v>1.11</v>
@@ -34035,7 +34047,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34113,7 +34125,7 @@
         <v>0.31</v>
       </c>
       <c r="AP159">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ159">
         <v>0.68</v>
@@ -34447,7 +34459,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34653,7 +34665,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34859,7 +34871,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35065,7 +35077,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35271,7 +35283,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35477,7 +35489,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35761,10 +35773,10 @@
         <v>0.71</v>
       </c>
       <c r="AP167">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ167">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR167">
         <v>1.48</v>
@@ -35889,7 +35901,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -36095,7 +36107,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36382,7 +36394,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR170">
         <v>2.02</v>
@@ -36713,7 +36725,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36919,7 +36931,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -36997,7 +37009,7 @@
         <v>1.43</v>
       </c>
       <c r="AP173">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ173">
         <v>1.68</v>
@@ -37125,7 +37137,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37203,10 +37215,10 @@
         <v>1.54</v>
       </c>
       <c r="AP174">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37331,7 +37343,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37537,7 +37549,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37743,7 +37755,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37821,7 +37833,7 @@
         <v>1.15</v>
       </c>
       <c r="AP177">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ177">
         <v>1.16</v>
@@ -37949,7 +37961,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38155,7 +38167,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38648,7 +38660,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR181">
         <v>1.72</v>
@@ -38851,10 +38863,10 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR182">
         <v>1.28</v>
@@ -39060,7 +39072,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ183">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR183">
         <v>1.82</v>
@@ -39881,7 +39893,7 @@
         <v>1.33</v>
       </c>
       <c r="AP187">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ187">
         <v>1.11</v>
@@ -40087,7 +40099,7 @@
         <v>1</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188">
         <v>0.9399999999999999</v>
@@ -40215,7 +40227,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40293,7 +40305,7 @@
         <v>0.87</v>
       </c>
       <c r="AP189">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ189">
         <v>0.84</v>
@@ -40421,7 +40433,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40627,7 +40639,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40708,7 +40720,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ191">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR191">
         <v>1.99</v>
@@ -41039,7 +41051,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41323,7 +41335,7 @@
         <v>0.44</v>
       </c>
       <c r="AP194">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ194">
         <v>0.68</v>
@@ -41738,7 +41750,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ196">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR196">
         <v>1.93</v>
@@ -42356,7 +42368,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ199">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR199">
         <v>2.05</v>
@@ -42559,7 +42571,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
         <v>0.84</v>
@@ -42687,7 +42699,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42974,7 +42986,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -43305,7 +43317,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43511,7 +43523,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43589,10 +43601,10 @@
         <v>1</v>
       </c>
       <c r="AP205">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR205">
         <v>1.31</v>
@@ -43717,7 +43729,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44001,10 +44013,10 @@
         <v>0.65</v>
       </c>
       <c r="AP207">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ207">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR207">
         <v>1.33</v>
@@ -44335,7 +44347,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44541,7 +44553,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44953,7 +44965,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q212">
         <v>1.95</v>
@@ -45159,7 +45171,7 @@
         <v>199</v>
       </c>
       <c r="P213" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q213">
         <v>2.9</v>
@@ -45240,7 +45252,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR213">
         <v>1.63</v>
@@ -45365,7 +45377,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45649,7 +45661,7 @@
         <v>0.71</v>
       </c>
       <c r="AP215">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AQ215">
         <v>0.68</v>
@@ -45777,7 +45789,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>2.6</v>
@@ -45983,7 +45995,7 @@
         <v>237</v>
       </c>
       <c r="P217" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>2.15</v>
@@ -46189,7 +46201,7 @@
         <v>238</v>
       </c>
       <c r="P218" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q218">
         <v>2.63</v>
@@ -46270,7 +46282,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ218">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR218">
         <v>1.92</v>
@@ -46395,7 +46407,7 @@
         <v>239</v>
       </c>
       <c r="P219" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46473,7 +46485,7 @@
         <v>0.67</v>
       </c>
       <c r="AP219">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ219">
         <v>0.68</v>
@@ -46601,7 +46613,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q220">
         <v>2.45</v>
@@ -46807,7 +46819,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -47219,7 +47231,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47376,6 +47388,624 @@
       </c>
       <c r="BP223">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7886694</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="F224">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224" t="s">
+        <v>77</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>2</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>244</v>
+      </c>
+      <c r="P224" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q224">
+        <v>2.3</v>
+      </c>
+      <c r="R224">
+        <v>2.3</v>
+      </c>
+      <c r="S224">
+        <v>4</v>
+      </c>
+      <c r="T224">
+        <v>1.3</v>
+      </c>
+      <c r="U224">
+        <v>3.25</v>
+      </c>
+      <c r="V224">
+        <v>2.3</v>
+      </c>
+      <c r="W224">
+        <v>1.55</v>
+      </c>
+      <c r="X224">
+        <v>5.1</v>
+      </c>
+      <c r="Y224">
+        <v>1.1</v>
+      </c>
+      <c r="Z224">
+        <v>2.41</v>
+      </c>
+      <c r="AA224">
+        <v>3.23</v>
+      </c>
+      <c r="AB224">
+        <v>2.53</v>
+      </c>
+      <c r="AC224">
+        <v>1.04</v>
+      </c>
+      <c r="AD224">
+        <v>10</v>
+      </c>
+      <c r="AE224">
+        <v>1.2</v>
+      </c>
+      <c r="AF224">
+        <v>4.33</v>
+      </c>
+      <c r="AG224">
+        <v>1.61</v>
+      </c>
+      <c r="AH224">
+        <v>2.05</v>
+      </c>
+      <c r="AI224">
+        <v>1.53</v>
+      </c>
+      <c r="AJ224">
+        <v>2.3</v>
+      </c>
+      <c r="AK224">
+        <v>1.25</v>
+      </c>
+      <c r="AL224">
+        <v>1.22</v>
+      </c>
+      <c r="AM224">
+        <v>1.91</v>
+      </c>
+      <c r="AN224">
+        <v>1.33</v>
+      </c>
+      <c r="AO224">
+        <v>0.67</v>
+      </c>
+      <c r="AP224">
+        <v>1.42</v>
+      </c>
+      <c r="AQ224">
+        <v>0.63</v>
+      </c>
+      <c r="AR224">
+        <v>1.28</v>
+      </c>
+      <c r="AS224">
+        <v>1.46</v>
+      </c>
+      <c r="AT224">
+        <v>2.74</v>
+      </c>
+      <c r="AU224">
+        <v>7</v>
+      </c>
+      <c r="AV224">
+        <v>3</v>
+      </c>
+      <c r="AW224">
+        <v>6</v>
+      </c>
+      <c r="AX224">
+        <v>8</v>
+      </c>
+      <c r="AY224">
+        <v>16</v>
+      </c>
+      <c r="AZ224">
+        <v>13</v>
+      </c>
+      <c r="BA224">
+        <v>10</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>12</v>
+      </c>
+      <c r="BD224">
+        <v>1.63</v>
+      </c>
+      <c r="BE224">
+        <v>6.5</v>
+      </c>
+      <c r="BF224">
+        <v>2.55</v>
+      </c>
+      <c r="BG224">
+        <v>1.3</v>
+      </c>
+      <c r="BH224">
+        <v>3.05</v>
+      </c>
+      <c r="BI224">
+        <v>1.53</v>
+      </c>
+      <c r="BJ224">
+        <v>2.28</v>
+      </c>
+      <c r="BK224">
+        <v>1.87</v>
+      </c>
+      <c r="BL224">
+        <v>1.79</v>
+      </c>
+      <c r="BM224">
+        <v>2.38</v>
+      </c>
+      <c r="BN224">
+        <v>1.49</v>
+      </c>
+      <c r="BO224">
+        <v>3.05</v>
+      </c>
+      <c r="BP224">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7886693</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="F225">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>78</v>
+      </c>
+      <c r="H225" t="s">
+        <v>80</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>245</v>
+      </c>
+      <c r="P225" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q225">
+        <v>2.25</v>
+      </c>
+      <c r="R225">
+        <v>2.35</v>
+      </c>
+      <c r="S225">
+        <v>4</v>
+      </c>
+      <c r="T225">
+        <v>1.28</v>
+      </c>
+      <c r="U225">
+        <v>3.35</v>
+      </c>
+      <c r="V225">
+        <v>2.3</v>
+      </c>
+      <c r="W225">
+        <v>1.55</v>
+      </c>
+      <c r="X225">
+        <v>5.15</v>
+      </c>
+      <c r="Y225">
+        <v>1.1</v>
+      </c>
+      <c r="Z225">
+        <v>2.19</v>
+      </c>
+      <c r="AA225">
+        <v>3.34</v>
+      </c>
+      <c r="AB225">
+        <v>2.75</v>
+      </c>
+      <c r="AC225">
+        <v>1.03</v>
+      </c>
+      <c r="AD225">
+        <v>11</v>
+      </c>
+      <c r="AE225">
+        <v>1.2</v>
+      </c>
+      <c r="AF225">
+        <v>4.5</v>
+      </c>
+      <c r="AG225">
+        <v>1.6</v>
+      </c>
+      <c r="AH225">
+        <v>2.15</v>
+      </c>
+      <c r="AI225">
+        <v>1.55</v>
+      </c>
+      <c r="AJ225">
+        <v>2.25</v>
+      </c>
+      <c r="AK225">
+        <v>1.22</v>
+      </c>
+      <c r="AL225">
+        <v>1.2</v>
+      </c>
+      <c r="AM225">
+        <v>2</v>
+      </c>
+      <c r="AN225">
+        <v>1.11</v>
+      </c>
+      <c r="AO225">
+        <v>1</v>
+      </c>
+      <c r="AP225">
+        <v>1.21</v>
+      </c>
+      <c r="AQ225">
+        <v>0.95</v>
+      </c>
+      <c r="AR225">
+        <v>1.46</v>
+      </c>
+      <c r="AS225">
+        <v>1.42</v>
+      </c>
+      <c r="AT225">
+        <v>2.88</v>
+      </c>
+      <c r="AU225">
+        <v>5</v>
+      </c>
+      <c r="AV225">
+        <v>2</v>
+      </c>
+      <c r="AW225">
+        <v>18</v>
+      </c>
+      <c r="AX225">
+        <v>6</v>
+      </c>
+      <c r="AY225">
+        <v>28</v>
+      </c>
+      <c r="AZ225">
+        <v>9</v>
+      </c>
+      <c r="BA225">
+        <v>10</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>11</v>
+      </c>
+      <c r="BD225">
+        <v>1.6</v>
+      </c>
+      <c r="BE225">
+        <v>6.75</v>
+      </c>
+      <c r="BF225">
+        <v>2.55</v>
+      </c>
+      <c r="BG225">
+        <v>1.2</v>
+      </c>
+      <c r="BH225">
+        <v>3.8</v>
+      </c>
+      <c r="BI225">
+        <v>1.37</v>
+      </c>
+      <c r="BJ225">
+        <v>2.75</v>
+      </c>
+      <c r="BK225">
+        <v>1.62</v>
+      </c>
+      <c r="BL225">
+        <v>2.12</v>
+      </c>
+      <c r="BM225">
+        <v>1.96</v>
+      </c>
+      <c r="BN225">
+        <v>1.71</v>
+      </c>
+      <c r="BO225">
+        <v>2.48</v>
+      </c>
+      <c r="BP225">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7886695</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="F226">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>71</v>
+      </c>
+      <c r="H226" t="s">
+        <v>81</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>5</v>
+      </c>
+      <c r="O226" t="s">
+        <v>246</v>
+      </c>
+      <c r="P226" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q226">
+        <v>2.4</v>
+      </c>
+      <c r="R226">
+        <v>2.25</v>
+      </c>
+      <c r="S226">
+        <v>3.85</v>
+      </c>
+      <c r="T226">
+        <v>1.3</v>
+      </c>
+      <c r="U226">
+        <v>3.2</v>
+      </c>
+      <c r="V226">
+        <v>2.45</v>
+      </c>
+      <c r="W226">
+        <v>1.48</v>
+      </c>
+      <c r="X226">
+        <v>5.6</v>
+      </c>
+      <c r="Y226">
+        <v>1.1</v>
+      </c>
+      <c r="Z226">
+        <v>2.63</v>
+      </c>
+      <c r="AA226">
+        <v>3.21</v>
+      </c>
+      <c r="AB226">
+        <v>2.33</v>
+      </c>
+      <c r="AC226">
+        <v>1.04</v>
+      </c>
+      <c r="AD226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>1.22</v>
+      </c>
+      <c r="AF226">
+        <v>4.2</v>
+      </c>
+      <c r="AG226">
+        <v>1.61</v>
+      </c>
+      <c r="AH226">
+        <v>2.05</v>
+      </c>
+      <c r="AI226">
+        <v>1.6</v>
+      </c>
+      <c r="AJ226">
+        <v>2.15</v>
+      </c>
+      <c r="AK226">
+        <v>1.28</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>1.83</v>
+      </c>
+      <c r="AN226">
+        <v>1.28</v>
+      </c>
+      <c r="AO226">
+        <v>1.33</v>
+      </c>
+      <c r="AP226">
+        <v>1.37</v>
+      </c>
+      <c r="AQ226">
+        <v>1.26</v>
+      </c>
+      <c r="AR226">
+        <v>1.34</v>
+      </c>
+      <c r="AS226">
+        <v>1.67</v>
+      </c>
+      <c r="AT226">
+        <v>3.01</v>
+      </c>
+      <c r="AU226">
+        <v>8</v>
+      </c>
+      <c r="AV226">
+        <v>10</v>
+      </c>
+      <c r="AW226">
+        <v>10</v>
+      </c>
+      <c r="AX226">
+        <v>4</v>
+      </c>
+      <c r="AY226">
+        <v>20</v>
+      </c>
+      <c r="AZ226">
+        <v>15</v>
+      </c>
+      <c r="BA226">
+        <v>4</v>
+      </c>
+      <c r="BB226">
+        <v>2</v>
+      </c>
+      <c r="BC226">
+        <v>6</v>
+      </c>
+      <c r="BD226">
+        <v>2.2</v>
+      </c>
+      <c r="BE226">
+        <v>6.75</v>
+      </c>
+      <c r="BF226">
+        <v>1.79</v>
+      </c>
+      <c r="BG226">
+        <v>1.25</v>
+      </c>
+      <c r="BH226">
+        <v>3.45</v>
+      </c>
+      <c r="BI226">
+        <v>1.43</v>
+      </c>
+      <c r="BJ226">
+        <v>2.55</v>
+      </c>
+      <c r="BK226">
+        <v>1.7</v>
+      </c>
+      <c r="BL226">
+        <v>2</v>
+      </c>
+      <c r="BM226">
+        <v>2.1</v>
+      </c>
+      <c r="BN226">
+        <v>1.62</v>
+      </c>
+      <c r="BO226">
+        <v>2.65</v>
+      </c>
+      <c r="BP226">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,12 @@
     <t>['44', '53', '58']</t>
   </si>
   <si>
+    <t>['18', '40', '55', '69']</t>
+  </si>
+  <si>
+    <t>['30', '59', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -1085,6 +1091,9 @@
   </si>
   <si>
     <t>['85', '90+1']</t>
+  </si>
+  <si>
+    <t>['55', '63', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1714,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1783,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ2">
         <v>0.84</v>
@@ -1911,7 +1920,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2323,7 +2332,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2529,7 +2538,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2735,7 +2744,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2941,7 +2950,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -3019,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3353,7 +3362,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3434,7 +3443,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3559,7 +3568,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3637,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ11">
         <v>1.16</v>
@@ -3765,7 +3774,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3843,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12">
         <v>0.68</v>
@@ -4052,7 +4061,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4177,7 +4186,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -4383,7 +4392,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4667,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ16">
         <v>1.53</v>
@@ -5001,7 +5010,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5207,7 +5216,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5825,7 +5834,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5906,7 +5915,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -6237,7 +6246,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6315,10 +6324,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -6443,7 +6452,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6521,7 +6530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ25">
         <v>1.68</v>
@@ -7061,7 +7070,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7345,7 +7354,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ29">
         <v>0.68</v>
@@ -7473,7 +7482,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -8375,7 +8384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ34">
         <v>0.95</v>
@@ -8584,7 +8593,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8709,7 +8718,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8915,7 +8924,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8996,7 +9005,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR37">
         <v>1.76</v>
@@ -9121,7 +9130,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -9327,7 +9336,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9405,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ39">
         <v>1.26</v>
@@ -9533,7 +9542,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9945,7 +9954,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -10026,7 +10035,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -10151,7 +10160,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10435,7 +10444,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10769,7 +10778,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -11259,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ48">
         <v>0.68</v>
@@ -11593,7 +11602,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11799,7 +11808,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12495,10 +12504,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ54">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12623,7 +12632,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12829,7 +12838,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13116,7 +13125,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ57">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13319,7 +13328,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ58">
         <v>0.63</v>
@@ -13859,7 +13868,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>2.63</v>
@@ -13937,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ61">
         <v>0.95</v>
@@ -14271,7 +14280,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14477,7 +14486,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14683,7 +14692,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14967,10 +14976,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ66">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -15095,7 +15104,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15301,7 +15310,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15507,7 +15516,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15713,7 +15722,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>2.95</v>
@@ -15919,7 +15928,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>1.85</v>
@@ -16125,7 +16134,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>2.35</v>
@@ -16203,10 +16212,10 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -16615,7 +16624,7 @@
         <v>0.17</v>
       </c>
       <c r="AP74">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ74">
         <v>0.68</v>
@@ -16824,7 +16833,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16949,7 +16958,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17439,7 +17448,7 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ78">
         <v>0.68</v>
@@ -17979,7 +17988,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18185,7 +18194,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18263,7 +18272,7 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ82">
         <v>1.26</v>
@@ -18391,7 +18400,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18472,7 +18481,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18597,7 +18606,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -19009,7 +19018,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19215,7 +19224,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19296,7 +19305,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ87">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19705,7 +19714,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ89">
         <v>1.26</v>
@@ -19911,7 +19920,7 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ90">
         <v>1.53</v>
@@ -20326,7 +20335,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ92">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR92">
         <v>0.95</v>
@@ -20529,7 +20538,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20657,7 +20666,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20863,7 +20872,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -21147,7 +21156,7 @@
         <v>1.29</v>
       </c>
       <c r="AP96">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ96">
         <v>1.16</v>
@@ -21275,7 +21284,7 @@
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21562,7 +21571,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21687,7 +21696,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q99">
         <v>2.1</v>
@@ -21893,7 +21902,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22305,7 +22314,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22383,7 +22392,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ102">
         <v>0.68</v>
@@ -22511,7 +22520,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22717,7 +22726,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q104">
         <v>3.7</v>
@@ -22798,7 +22807,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ104">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR104">
         <v>1.23</v>
@@ -22923,7 +22932,7 @@
         <v>83</v>
       </c>
       <c r="P105" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q105">
         <v>4.2</v>
@@ -23207,7 +23216,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ106">
         <v>0.84</v>
@@ -23335,7 +23344,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23541,7 +23550,7 @@
         <v>167</v>
       </c>
       <c r="P108" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23619,7 +23628,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108">
         <v>0.9399999999999999</v>
@@ -23747,7 +23756,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q109">
         <v>2.75</v>
@@ -23953,7 +23962,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24443,7 +24452,7 @@
         <v>1.22</v>
       </c>
       <c r="AP112">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ112">
         <v>0.95</v>
@@ -24858,7 +24867,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ114">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR114">
         <v>1.76</v>
@@ -24983,7 +24992,7 @@
         <v>168</v>
       </c>
       <c r="P115" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -25061,7 +25070,7 @@
         <v>1.56</v>
       </c>
       <c r="AP115">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ115">
         <v>1.68</v>
@@ -25270,7 +25279,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR116">
         <v>1.51</v>
@@ -25601,7 +25610,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q118">
         <v>4.2</v>
@@ -25807,7 +25816,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q119">
         <v>2.95</v>
@@ -26013,7 +26022,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q120">
         <v>2.2</v>
@@ -26091,7 +26100,7 @@
         <v>1.11</v>
       </c>
       <c r="AP120">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ120">
         <v>0.63</v>
@@ -26425,7 +26434,7 @@
         <v>128</v>
       </c>
       <c r="P122" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -26506,7 +26515,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR122">
         <v>1.78</v>
@@ -26631,7 +26640,7 @@
         <v>173</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q123">
         <v>2.5</v>
@@ -26709,7 +26718,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ123">
         <v>0.63</v>
@@ -26915,7 +26924,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124">
         <v>0.84</v>
@@ -27455,7 +27464,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27661,7 +27670,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q128">
         <v>3.45</v>
@@ -27867,7 +27876,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28279,7 +28288,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q131">
         <v>1.71</v>
@@ -28563,10 +28572,10 @@
         <v>1.6</v>
       </c>
       <c r="AP132">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
         <v>1.81</v>
@@ -28691,7 +28700,7 @@
         <v>83</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28897,7 +28906,7 @@
         <v>182</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>1.78</v>
@@ -29103,7 +29112,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29181,7 +29190,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ135">
         <v>0.84</v>
@@ -29309,7 +29318,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q136">
         <v>2.15</v>
@@ -29515,7 +29524,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q137">
         <v>2.7</v>
@@ -29593,7 +29602,7 @@
         <v>1.64</v>
       </c>
       <c r="AP137">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ137">
         <v>1.68</v>
@@ -29721,7 +29730,7 @@
         <v>186</v>
       </c>
       <c r="P138" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -29927,7 +29936,7 @@
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q139">
         <v>2.8</v>
@@ -30417,10 +30426,10 @@
         <v>1.45</v>
       </c>
       <c r="AP141">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ141">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR141">
         <v>1.98</v>
@@ -30626,7 +30635,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -31035,7 +31044,7 @@
         <v>0.91</v>
       </c>
       <c r="AP144">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31163,7 +31172,7 @@
         <v>191</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>3.7</v>
@@ -31369,7 +31378,7 @@
         <v>192</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>2.18</v>
@@ -31781,7 +31790,7 @@
         <v>194</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -32193,7 +32202,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>1.71</v>
@@ -32271,7 +32280,7 @@
         <v>0.33</v>
       </c>
       <c r="AP150">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150">
         <v>0.68</v>
@@ -32683,7 +32692,7 @@
         <v>0.77</v>
       </c>
       <c r="AP152">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ152">
         <v>0.63</v>
@@ -33223,7 +33232,7 @@
         <v>83</v>
       </c>
       <c r="P155" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q155">
         <v>2.46</v>
@@ -33301,7 +33310,7 @@
         <v>1.42</v>
       </c>
       <c r="AP155">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ155">
         <v>1.26</v>
@@ -33510,7 +33519,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ156">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR156">
         <v>1.56</v>
@@ -33635,7 +33644,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q157">
         <v>3.95</v>
@@ -33716,7 +33725,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ157">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR157">
         <v>1.15</v>
@@ -34047,7 +34056,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>2.62</v>
@@ -34459,7 +34468,7 @@
         <v>91</v>
       </c>
       <c r="P161" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q161">
         <v>3.3</v>
@@ -34665,7 +34674,7 @@
         <v>121</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>3.35</v>
@@ -34871,7 +34880,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35077,7 +35086,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q164">
         <v>1.91</v>
@@ -35155,7 +35164,7 @@
         <v>0.54</v>
       </c>
       <c r="AP164">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ164">
         <v>0.68</v>
@@ -35283,7 +35292,7 @@
         <v>83</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35489,7 +35498,7 @@
         <v>206</v>
       </c>
       <c r="P166" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35570,7 +35579,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35901,7 +35910,7 @@
         <v>208</v>
       </c>
       <c r="P168" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35979,10 +35988,10 @@
         <v>0.77</v>
       </c>
       <c r="AP168">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR168">
         <v>1.83</v>
@@ -36107,7 +36116,7 @@
         <v>209</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>1.91</v>
@@ -36185,7 +36194,7 @@
         <v>0.29</v>
       </c>
       <c r="AP169">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ169">
         <v>0.68</v>
@@ -36725,7 +36734,7 @@
         <v>83</v>
       </c>
       <c r="P172" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36803,7 +36812,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ172">
         <v>1.53</v>
@@ -36931,7 +36940,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37137,7 +37146,7 @@
         <v>101</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37343,7 +37352,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37424,7 +37433,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ175">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR175">
         <v>1.86</v>
@@ -37549,7 +37558,7 @@
         <v>83</v>
       </c>
       <c r="P176" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>2.75</v>
@@ -37627,10 +37636,10 @@
         <v>0.93</v>
       </c>
       <c r="AP176">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ176">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR176">
         <v>1.98</v>
@@ -37755,7 +37764,7 @@
         <v>83</v>
       </c>
       <c r="P177" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q177">
         <v>4.1</v>
@@ -37961,7 +37970,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>2.05</v>
@@ -38167,7 +38176,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>2.95</v>
@@ -38451,7 +38460,7 @@
         <v>0.93</v>
       </c>
       <c r="AP180">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ180">
         <v>0.84</v>
@@ -39687,7 +39696,7 @@
         <v>1.29</v>
       </c>
       <c r="AP186">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ186">
         <v>1.16</v>
@@ -39896,7 +39905,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ187">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40227,7 +40236,7 @@
         <v>218</v>
       </c>
       <c r="P189" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40433,7 +40442,7 @@
         <v>83</v>
       </c>
       <c r="P190" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q190">
         <v>3.25</v>
@@ -40639,7 +40648,7 @@
         <v>219</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q191">
         <v>2.4</v>
@@ -40717,7 +40726,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ191">
         <v>0.95</v>
@@ -40926,7 +40935,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ192">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR192">
         <v>1.72</v>
@@ -41051,7 +41060,7 @@
         <v>221</v>
       </c>
       <c r="P193" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41541,10 +41550,10 @@
         <v>1.25</v>
       </c>
       <c r="AP195">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ195">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR195">
         <v>1.94</v>
@@ -41953,7 +41962,7 @@
         <v>0.75</v>
       </c>
       <c r="AP197">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ197">
         <v>0.68</v>
@@ -42699,7 +42708,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42780,7 +42789,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ201">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR201">
         <v>1.85</v>
@@ -43189,7 +43198,7 @@
         <v>1.53</v>
       </c>
       <c r="AP203">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ203">
         <v>1.53</v>
@@ -43317,7 +43326,7 @@
         <v>83</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43523,7 +43532,7 @@
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q205">
         <v>3.5</v>
@@ -43729,7 +43738,7 @@
         <v>127</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44347,7 +44356,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q209">
         <v>3</v>
@@ -44425,7 +44434,7 @@
         <v>1.63</v>
       </c>
       <c r="AP209">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AQ209">
         <v>1.68</v>
@@ -44553,7 +44562,7 @@
         <v>123</v>
       </c>
       <c r="P210" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q210">
         <v>3</v>
@@ -44837,10 +44846,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP211">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ211">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR211">
         <v>1.9</v>
@@ -44965,7 +44974,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>1.95</v>
@@ -45171,7 +45180,7 @@
         <v>199</v>
       </c>
       <c r="P213" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q213">
         <v>2.9</v>
@@ -45377,7 +45386,7 @@
         <v>234</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q214">
         <v>2.85</v>
@@ -45789,7 +45798,7 @@
         <v>236</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q216">
         <v>2.6</v>
@@ -45867,7 +45876,7 @@
         <v>1.24</v>
       </c>
       <c r="AP216">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ216">
         <v>1.16</v>
@@ -45995,7 +46004,7 @@
         <v>237</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q217">
         <v>2.15</v>
@@ -46076,7 +46085,7 @@
         <v>2.26</v>
       </c>
       <c r="AQ217">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
         <v>2.06</v>
@@ -46201,7 +46210,7 @@
         <v>238</v>
       </c>
       <c r="P218" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q218">
         <v>2.63</v>
@@ -46407,7 +46416,7 @@
         <v>239</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>3</v>
@@ -46613,7 +46622,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q220">
         <v>2.45</v>
@@ -46819,7 +46828,7 @@
         <v>241</v>
       </c>
       <c r="P221" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -47231,7 +47240,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q223">
         <v>3.1</v>
@@ -47849,7 +47858,7 @@
         <v>246</v>
       </c>
       <c r="P226" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q226">
         <v>2.4</v>
@@ -48006,6 +48015,624 @@
       </c>
       <c r="BP226">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7886697</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F227">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>70</v>
+      </c>
+      <c r="H227" t="s">
+        <v>73</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>96</v>
+      </c>
+      <c r="P227" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q227">
+        <v>2.95</v>
+      </c>
+      <c r="R227">
+        <v>2.35</v>
+      </c>
+      <c r="S227">
+        <v>2.8</v>
+      </c>
+      <c r="T227">
+        <v>1.22</v>
+      </c>
+      <c r="U227">
+        <v>3.7</v>
+      </c>
+      <c r="V227">
+        <v>2.05</v>
+      </c>
+      <c r="W227">
+        <v>1.7</v>
+      </c>
+      <c r="X227">
+        <v>4.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.17</v>
+      </c>
+      <c r="Z227">
+        <v>2.51</v>
+      </c>
+      <c r="AA227">
+        <v>3.56</v>
+      </c>
+      <c r="AB227">
+        <v>2.27</v>
+      </c>
+      <c r="AC227">
+        <v>1.01</v>
+      </c>
+      <c r="AD227">
+        <v>17</v>
+      </c>
+      <c r="AE227">
+        <v>1.14</v>
+      </c>
+      <c r="AF227">
+        <v>5.5</v>
+      </c>
+      <c r="AG227">
+        <v>1.4</v>
+      </c>
+      <c r="AH227">
+        <v>2.82</v>
+      </c>
+      <c r="AI227">
+        <v>1.36</v>
+      </c>
+      <c r="AJ227">
+        <v>2.8</v>
+      </c>
+      <c r="AK227">
+        <v>1.53</v>
+      </c>
+      <c r="AL227">
+        <v>1.22</v>
+      </c>
+      <c r="AM227">
+        <v>1.48</v>
+      </c>
+      <c r="AN227">
+        <v>1.72</v>
+      </c>
+      <c r="AO227">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP227">
+        <v>1.68</v>
+      </c>
+      <c r="AQ227">
+        <v>0.95</v>
+      </c>
+      <c r="AR227">
+        <v>1.96</v>
+      </c>
+      <c r="AS227">
+        <v>1.82</v>
+      </c>
+      <c r="AT227">
+        <v>3.78</v>
+      </c>
+      <c r="AU227">
+        <v>9</v>
+      </c>
+      <c r="AV227">
+        <v>4</v>
+      </c>
+      <c r="AW227">
+        <v>5</v>
+      </c>
+      <c r="AX227">
+        <v>9</v>
+      </c>
+      <c r="AY227">
+        <v>14</v>
+      </c>
+      <c r="AZ227">
+        <v>14</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
+        <v>1</v>
+      </c>
+      <c r="BC227">
+        <v>4</v>
+      </c>
+      <c r="BD227">
+        <v>1.93</v>
+      </c>
+      <c r="BE227">
+        <v>6.4</v>
+      </c>
+      <c r="BF227">
+        <v>2.07</v>
+      </c>
+      <c r="BG227">
+        <v>1.29</v>
+      </c>
+      <c r="BH227">
+        <v>3.15</v>
+      </c>
+      <c r="BI227">
+        <v>1.5</v>
+      </c>
+      <c r="BJ227">
+        <v>2.35</v>
+      </c>
+      <c r="BK227">
+        <v>1.83</v>
+      </c>
+      <c r="BL227">
+        <v>1.83</v>
+      </c>
+      <c r="BM227">
+        <v>2.28</v>
+      </c>
+      <c r="BN227">
+        <v>1.53</v>
+      </c>
+      <c r="BO227">
+        <v>2.95</v>
+      </c>
+      <c r="BP227">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7886696</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F228">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>79</v>
+      </c>
+      <c r="H228" t="s">
+        <v>75</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>247</v>
+      </c>
+      <c r="P228" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q228">
+        <v>2.25</v>
+      </c>
+      <c r="R228">
+        <v>2.5</v>
+      </c>
+      <c r="S228">
+        <v>3.6</v>
+      </c>
+      <c r="T228">
+        <v>1.18</v>
+      </c>
+      <c r="U228">
+        <v>4.2</v>
+      </c>
+      <c r="V228">
+        <v>1.91</v>
+      </c>
+      <c r="W228">
+        <v>1.8</v>
+      </c>
+      <c r="X228">
+        <v>3.72</v>
+      </c>
+      <c r="Y228">
+        <v>1.2</v>
+      </c>
+      <c r="Z228">
+        <v>1.65</v>
+      </c>
+      <c r="AA228">
+        <v>4.2</v>
+      </c>
+      <c r="AB228">
+        <v>3.64</v>
+      </c>
+      <c r="AC228">
+        <v>1.01</v>
+      </c>
+      <c r="AD228">
+        <v>26</v>
+      </c>
+      <c r="AE228">
+        <v>1.1</v>
+      </c>
+      <c r="AF228">
+        <v>6.5</v>
+      </c>
+      <c r="AG228">
+        <v>1.33</v>
+      </c>
+      <c r="AH228">
+        <v>3.15</v>
+      </c>
+      <c r="AI228">
+        <v>1.33</v>
+      </c>
+      <c r="AJ228">
+        <v>2.95</v>
+      </c>
+      <c r="AK228">
+        <v>1.3</v>
+      </c>
+      <c r="AL228">
+        <v>1.18</v>
+      </c>
+      <c r="AM228">
+        <v>1.91</v>
+      </c>
+      <c r="AN228">
+        <v>2.11</v>
+      </c>
+      <c r="AO228">
+        <v>1.11</v>
+      </c>
+      <c r="AP228">
+        <v>2.16</v>
+      </c>
+      <c r="AQ228">
+        <v>1.05</v>
+      </c>
+      <c r="AR228">
+        <v>1.9</v>
+      </c>
+      <c r="AS228">
+        <v>1.62</v>
+      </c>
+      <c r="AT228">
+        <v>3.52</v>
+      </c>
+      <c r="AU228">
+        <v>7</v>
+      </c>
+      <c r="AV228">
+        <v>2</v>
+      </c>
+      <c r="AW228">
+        <v>16</v>
+      </c>
+      <c r="AX228">
+        <v>11</v>
+      </c>
+      <c r="AY228">
+        <v>25</v>
+      </c>
+      <c r="AZ228">
+        <v>15</v>
+      </c>
+      <c r="BA228">
+        <v>5</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>10</v>
+      </c>
+      <c r="BD228">
+        <v>1.68</v>
+      </c>
+      <c r="BE228">
+        <v>6.75</v>
+      </c>
+      <c r="BF228">
+        <v>2.4</v>
+      </c>
+      <c r="BG228">
+        <v>1.2</v>
+      </c>
+      <c r="BH228">
+        <v>3.8</v>
+      </c>
+      <c r="BI228">
+        <v>1.36</v>
+      </c>
+      <c r="BJ228">
+        <v>2.8</v>
+      </c>
+      <c r="BK228">
+        <v>1.61</v>
+      </c>
+      <c r="BL228">
+        <v>2.14</v>
+      </c>
+      <c r="BM228">
+        <v>1.95</v>
+      </c>
+      <c r="BN228">
+        <v>1.72</v>
+      </c>
+      <c r="BO228">
+        <v>2.43</v>
+      </c>
+      <c r="BP228">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7886698</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45801.54166666666</v>
+      </c>
+      <c r="F229">
+        <v>38</v>
+      </c>
+      <c r="G229" t="s">
+        <v>76</v>
+      </c>
+      <c r="H229" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229">
+        <v>6</v>
+      </c>
+      <c r="O229" t="s">
+        <v>248</v>
+      </c>
+      <c r="P229" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q229">
+        <v>2.5</v>
+      </c>
+      <c r="R229">
+        <v>2.3</v>
+      </c>
+      <c r="S229">
+        <v>3.5</v>
+      </c>
+      <c r="T229">
+        <v>1.25</v>
+      </c>
+      <c r="U229">
+        <v>3.5</v>
+      </c>
+      <c r="V229">
+        <v>2.15</v>
+      </c>
+      <c r="W229">
+        <v>1.62</v>
+      </c>
+      <c r="X229">
+        <v>4.5</v>
+      </c>
+      <c r="Y229">
+        <v>1.13</v>
+      </c>
+      <c r="Z229">
+        <v>2.08</v>
+      </c>
+      <c r="AA229">
+        <v>3.41</v>
+      </c>
+      <c r="AB229">
+        <v>2.89</v>
+      </c>
+      <c r="AC229">
+        <v>1.04</v>
+      </c>
+      <c r="AD229">
+        <v>10</v>
+      </c>
+      <c r="AE229">
+        <v>1.17</v>
+      </c>
+      <c r="AF229">
+        <v>5</v>
+      </c>
+      <c r="AG229">
+        <v>1.53</v>
+      </c>
+      <c r="AH229">
+        <v>2.25</v>
+      </c>
+      <c r="AI229">
+        <v>1.42</v>
+      </c>
+      <c r="AJ229">
+        <v>2.6</v>
+      </c>
+      <c r="AK229">
+        <v>1.35</v>
+      </c>
+      <c r="AL229">
+        <v>1.22</v>
+      </c>
+      <c r="AM229">
+        <v>1.7</v>
+      </c>
+      <c r="AN229">
+        <v>1.83</v>
+      </c>
+      <c r="AO229">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP229">
+        <v>1.79</v>
+      </c>
+      <c r="AQ229">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR229">
+        <v>1.9</v>
+      </c>
+      <c r="AS229">
+        <v>1.65</v>
+      </c>
+      <c r="AT229">
+        <v>3.55</v>
+      </c>
+      <c r="AU229">
+        <v>10</v>
+      </c>
+      <c r="AV229">
+        <v>6</v>
+      </c>
+      <c r="AW229">
+        <v>12</v>
+      </c>
+      <c r="AX229">
+        <v>6</v>
+      </c>
+      <c r="AY229">
+        <v>25</v>
+      </c>
+      <c r="AZ229">
+        <v>12</v>
+      </c>
+      <c r="BA229">
+        <v>5</v>
+      </c>
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
+        <v>7</v>
+      </c>
+      <c r="BD229">
+        <v>1.7</v>
+      </c>
+      <c r="BE229">
+        <v>6.75</v>
+      </c>
+      <c r="BF229">
+        <v>2.35</v>
+      </c>
+      <c r="BG229">
+        <v>1.22</v>
+      </c>
+      <c r="BH229">
+        <v>3.65</v>
+      </c>
+      <c r="BI229">
+        <v>1.4</v>
+      </c>
+      <c r="BJ229">
+        <v>2.65</v>
+      </c>
+      <c r="BK229">
+        <v>1.65</v>
+      </c>
+      <c r="BL229">
+        <v>2.06</v>
+      </c>
+      <c r="BM229">
+        <v>2.02</v>
+      </c>
+      <c r="BN229">
+        <v>1.67</v>
+      </c>
+      <c r="BO229">
+        <v>2.55</v>
+      </c>
+      <c r="BP229">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
